--- a/All Blackspots.xlsx
+++ b/All Blackspots.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="24720" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="24720" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N531"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="O82" sqref="O82"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7145,6 +7145,9 @@
       <c r="B156" s="2">
         <v>151.23110109999999</v>
       </c>
+      <c r="C156" s="2">
+        <v>1271</v>
+      </c>
       <c r="D156" s="2">
         <v>3</v>
       </c>
@@ -7184,7 +7187,7 @@
         <v>151.23109819999999</v>
       </c>
       <c r="C157" s="2">
-        <v>1271</v>
+        <v>1309</v>
       </c>
       <c r="D157" s="2">
         <v>7</v>
@@ -7225,7 +7228,7 @@
         <v>151.23109400000001</v>
       </c>
       <c r="C158" s="2">
-        <v>1309</v>
+        <v>1424</v>
       </c>
       <c r="D158" s="2">
         <v>11</v>
@@ -7266,7 +7269,7 @@
         <v>151.23108479999999</v>
       </c>
       <c r="C159" s="2">
-        <v>1424</v>
+        <v>1439</v>
       </c>
       <c r="D159" s="2">
         <v>13</v>
@@ -7307,7 +7310,7 @@
         <v>151.23107920000001</v>
       </c>
       <c r="C160" s="2">
-        <v>1439</v>
+        <v>1341</v>
       </c>
       <c r="D160" s="2">
         <v>16</v>
@@ -7348,7 +7351,7 @@
         <v>151.23108049999999</v>
       </c>
       <c r="C161" s="2">
-        <v>1341</v>
+        <v>1314</v>
       </c>
       <c r="D161" s="2">
         <v>11</v>
@@ -7389,7 +7392,7 @@
         <v>151.23108010000001</v>
       </c>
       <c r="C162" s="2">
-        <v>1314</v>
+        <v>1394</v>
       </c>
       <c r="D162" s="2">
         <v>10</v>
@@ -7430,7 +7433,7 @@
         <v>151.23107970000001</v>
       </c>
       <c r="C163" s="2">
-        <v>1394</v>
+        <v>1310</v>
       </c>
       <c r="D163" s="2">
         <v>11</v>
@@ -7471,7 +7474,7 @@
         <v>151.23107920000001</v>
       </c>
       <c r="C164" s="2">
-        <v>1310</v>
+        <v>5509</v>
       </c>
       <c r="D164" s="2">
         <v>11</v>
@@ -7512,7 +7515,7 @@
         <v>151.23107899999999</v>
       </c>
       <c r="C165" s="2">
-        <v>5509</v>
+        <v>1282</v>
       </c>
       <c r="D165" s="2">
         <v>11</v>
@@ -7553,7 +7556,7 @@
         <v>151.23107949999999</v>
       </c>
       <c r="C166" s="2">
-        <v>1282</v>
+        <v>1291</v>
       </c>
       <c r="D166" s="2">
         <v>11</v>
@@ -7594,7 +7597,7 @@
         <v>151.2310794</v>
       </c>
       <c r="C167" s="2">
-        <v>1291</v>
+        <v>1300</v>
       </c>
       <c r="D167" s="2">
         <v>11</v>
@@ -7635,7 +7638,7 @@
         <v>151.23107920000001</v>
       </c>
       <c r="C168" s="2">
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="D168" s="2">
         <v>11</v>
@@ -7676,7 +7679,7 @@
         <v>151.23107909999999</v>
       </c>
       <c r="C169" s="2">
-        <v>1304</v>
+        <v>1338</v>
       </c>
       <c r="D169" s="2">
         <v>12</v>
@@ -7717,7 +7720,7 @@
         <v>151.2310765</v>
       </c>
       <c r="C170" s="2">
-        <v>1338</v>
+        <v>1759</v>
       </c>
       <c r="D170" s="2">
         <v>13</v>
@@ -7758,7 +7761,7 @@
         <v>151.23095520000001</v>
       </c>
       <c r="C171" s="2">
-        <v>1759</v>
+        <v>1685</v>
       </c>
       <c r="D171" s="2">
         <v>9</v>
@@ -7799,7 +7802,7 @@
         <v>151.23101729999999</v>
       </c>
       <c r="C172" s="2">
-        <v>1685</v>
+        <v>1423</v>
       </c>
       <c r="D172" s="2">
         <v>4</v>
@@ -7840,7 +7843,7 @@
         <v>151.23106709999999</v>
       </c>
       <c r="C173" s="2">
-        <v>1423</v>
+        <v>2322</v>
       </c>
       <c r="D173" s="2">
         <v>4</v>
@@ -7881,7 +7884,7 @@
         <v>151.23116200000001</v>
       </c>
       <c r="C174" s="2">
-        <v>2322</v>
+        <v>1303</v>
       </c>
       <c r="D174" s="2">
         <v>3</v>
@@ -7922,7 +7925,7 @@
         <v>151.2312349</v>
       </c>
       <c r="C175" s="2">
-        <v>1303</v>
+        <v>1424</v>
       </c>
       <c r="D175" s="2">
         <v>3</v>
@@ -7963,7 +7966,7 @@
         <v>151.23135719999999</v>
       </c>
       <c r="C176" s="2">
-        <v>1424</v>
+        <v>1328</v>
       </c>
       <c r="D176" s="2">
         <v>4</v>
@@ -8004,7 +8007,7 @@
         <v>151.2314696</v>
       </c>
       <c r="C177" s="2">
-        <v>1328</v>
+        <v>10687</v>
       </c>
       <c r="D177" s="2">
         <v>4</v>
@@ -8045,7 +8048,7 @@
         <v>151.23106870000001</v>
       </c>
       <c r="C178" s="2">
-        <v>10687</v>
+        <v>1377</v>
       </c>
       <c r="D178" s="2">
         <v>16</v>
@@ -8086,7 +8089,7 @@
         <v>151.2313029</v>
       </c>
       <c r="C179" s="2">
-        <v>1377</v>
+        <v>13903</v>
       </c>
       <c r="D179" s="2">
         <v>17</v>
@@ -8127,7 +8130,7 @@
         <v>151.23180790000001</v>
       </c>
       <c r="C180" s="2">
-        <v>13903</v>
+        <v>1392</v>
       </c>
       <c r="D180" s="2">
         <v>10</v>
@@ -8168,7 +8171,7 @@
         <v>151.23225070000001</v>
       </c>
       <c r="C181" s="2">
-        <v>1392</v>
+        <v>1430</v>
       </c>
       <c r="D181" s="2">
         <v>11</v>
@@ -8209,7 +8212,7 @@
         <v>151.23223859999999</v>
       </c>
       <c r="C182" s="2">
-        <v>1430</v>
+        <v>1879</v>
       </c>
       <c r="D182" s="2">
         <v>10</v>
@@ -8250,7 +8253,7 @@
         <v>151.23224060000001</v>
       </c>
       <c r="C183" s="2">
-        <v>1879</v>
+        <v>8543</v>
       </c>
       <c r="D183" s="2">
         <v>11</v>
@@ -8291,7 +8294,7 @@
         <v>151.23275709999999</v>
       </c>
       <c r="C184" s="2">
-        <v>8543</v>
+        <v>1319</v>
       </c>
       <c r="D184" s="2">
         <v>13</v>
@@ -8332,7 +8335,7 @@
         <v>151.23279489999999</v>
       </c>
       <c r="C185" s="2">
-        <v>1319</v>
+        <v>1345</v>
       </c>
       <c r="D185" s="2">
         <v>9</v>
@@ -8373,7 +8376,7 @@
         <v>151.23282889999999</v>
       </c>
       <c r="C186" s="2">
-        <v>1345</v>
+        <v>1273</v>
       </c>
       <c r="D186" s="2">
         <v>6</v>
@@ -8414,7 +8417,7 @@
         <v>151.2327727</v>
       </c>
       <c r="C187" s="2">
-        <v>1273</v>
+        <v>1580</v>
       </c>
       <c r="D187" s="2">
         <v>14</v>
@@ -8455,7 +8458,7 @@
         <v>151.2327027</v>
       </c>
       <c r="C188" s="2">
-        <v>1580</v>
+        <v>1287</v>
       </c>
       <c r="D188" s="2">
         <v>9</v>
@@ -8496,7 +8499,7 @@
         <v>151.23274190000001</v>
       </c>
       <c r="C189" s="2">
-        <v>1287</v>
+        <v>1353</v>
       </c>
       <c r="D189" s="2">
         <v>7</v>
@@ -8537,7 +8540,7 @@
         <v>151.23281159999999</v>
       </c>
       <c r="C190" s="2">
-        <v>1353</v>
+        <v>1323</v>
       </c>
       <c r="D190" s="2">
         <v>5</v>
@@ -8578,7 +8581,7 @@
         <v>151.23282270000001</v>
       </c>
       <c r="C191" s="2">
-        <v>1323</v>
+        <v>3395</v>
       </c>
       <c r="D191" s="2">
         <v>5</v>
@@ -8619,7 +8622,7 @@
         <v>151.23290789999999</v>
       </c>
       <c r="C192" s="2">
-        <v>3395</v>
+        <v>1258</v>
       </c>
       <c r="D192" s="2">
         <v>5</v>
@@ -8660,7 +8663,7 @@
         <v>151.23295210000001</v>
       </c>
       <c r="C193" s="2">
-        <v>1258</v>
+        <v>3470</v>
       </c>
       <c r="D193" s="2">
         <v>3</v>
@@ -8701,7 +8704,7 @@
         <v>151.2330207</v>
       </c>
       <c r="C194" s="2">
-        <v>3470</v>
+        <v>1347</v>
       </c>
       <c r="D194" s="2">
         <v>5</v>
@@ -8742,7 +8745,7 @@
         <v>151.23275340000001</v>
       </c>
       <c r="C195" s="2">
-        <v>1347</v>
+        <v>1317</v>
       </c>
       <c r="D195" s="2">
         <v>5</v>
@@ -8783,7 +8786,7 @@
         <v>151.23264990000001</v>
       </c>
       <c r="C196" s="2">
-        <v>1317</v>
+        <v>3390</v>
       </c>
       <c r="D196" s="2">
         <v>23</v>
@@ -8824,7 +8827,7 @@
         <v>151.2327205</v>
       </c>
       <c r="C197" s="2">
-        <v>3390</v>
+        <v>1315</v>
       </c>
       <c r="D197" s="2">
         <v>4</v>
@@ -8865,7 +8868,7 @@
         <v>151.2327305</v>
       </c>
       <c r="C198" s="2">
-        <v>1315</v>
+        <v>1325</v>
       </c>
       <c r="D198" s="2">
         <v>4</v>
@@ -8906,7 +8909,7 @@
         <v>151.2327688</v>
       </c>
       <c r="C199" s="2">
-        <v>1325</v>
+        <v>2310</v>
       </c>
       <c r="D199" s="2">
         <v>4</v>
@@ -8947,7 +8950,7 @@
         <v>151.2329168</v>
       </c>
       <c r="C200" s="2">
-        <v>2310</v>
+        <v>1375</v>
       </c>
       <c r="D200" s="2">
         <v>5</v>
@@ -8988,7 +8991,7 @@
         <v>151.23298439999999</v>
       </c>
       <c r="C201" s="2">
-        <v>1375</v>
+        <v>1272</v>
       </c>
       <c r="D201" s="2">
         <v>5</v>
@@ -9070,7 +9073,7 @@
         <v>151.2330158</v>
       </c>
       <c r="C203" s="2">
-        <v>1272</v>
+        <v>1382</v>
       </c>
       <c r="D203" s="2">
         <v>3</v>
@@ -9111,7 +9114,7 @@
         <v>151.2330503</v>
       </c>
       <c r="C204" s="2">
-        <v>1382</v>
+        <v>1293</v>
       </c>
       <c r="D204" s="2">
         <v>3</v>
@@ -9152,7 +9155,7 @@
         <v>151.2329914</v>
       </c>
       <c r="C205" s="2">
-        <v>1293</v>
+        <v>1343</v>
       </c>
       <c r="D205" s="2">
         <v>8</v>
@@ -9193,7 +9196,7 @@
         <v>151.23300259999999</v>
       </c>
       <c r="C206" s="2">
-        <v>1343</v>
+        <v>1294</v>
       </c>
       <c r="D206" s="2">
         <v>5</v>
@@ -9234,7 +9237,7 @@
         <v>151.23314329999999</v>
       </c>
       <c r="C207" s="2">
-        <v>1294</v>
+        <v>1442</v>
       </c>
       <c r="D207" s="2">
         <v>3</v>
@@ -9275,7 +9278,7 @@
         <v>151.23317700000001</v>
       </c>
       <c r="C208" s="2">
-        <v>1442</v>
+        <v>1276</v>
       </c>
       <c r="D208" s="2">
         <v>5</v>
@@ -9316,7 +9319,7 @@
         <v>151.23317710000001</v>
       </c>
       <c r="C209" s="2">
-        <v>1276</v>
+        <v>1326</v>
       </c>
       <c r="D209" s="2">
         <v>5</v>
@@ -9357,7 +9360,7 @@
         <v>151.23317710000001</v>
       </c>
       <c r="C210" s="2">
-        <v>1326</v>
+        <v>1352</v>
       </c>
       <c r="D210" s="2">
         <v>5</v>
@@ -9398,7 +9401,7 @@
         <v>151.23317710000001</v>
       </c>
       <c r="C211" s="2">
-        <v>1352</v>
+        <v>3386</v>
       </c>
       <c r="D211" s="2">
         <v>5</v>
@@ -9439,7 +9442,7 @@
         <v>151.2331786</v>
       </c>
       <c r="C212" s="2">
-        <v>3386</v>
+        <v>1304</v>
       </c>
       <c r="D212" s="2">
         <v>9</v>
@@ -9480,7 +9483,7 @@
         <v>151.23317850000001</v>
       </c>
       <c r="C213" s="2">
-        <v>1304</v>
+        <v>1323</v>
       </c>
       <c r="D213" s="2">
         <v>10</v>
@@ -9521,7 +9524,7 @@
         <v>151.23318399999999</v>
       </c>
       <c r="C214" s="2">
-        <v>1323</v>
+        <v>1357</v>
       </c>
       <c r="D214" s="2">
         <v>4</v>
@@ -9562,7 +9565,7 @@
         <v>151.23318399999999</v>
       </c>
       <c r="C215" s="2">
-        <v>1357</v>
+        <v>1387</v>
       </c>
       <c r="D215" s="2">
         <v>4</v>
@@ -9603,7 +9606,7 @@
         <v>151.2334625</v>
       </c>
       <c r="C216" s="2">
-        <v>1387</v>
+        <v>1309</v>
       </c>
       <c r="D216" s="2">
         <v>14</v>
@@ -9644,7 +9647,7 @@
         <v>151.23336520000001</v>
       </c>
       <c r="C217" s="2">
-        <v>1309</v>
+        <v>1321</v>
       </c>
       <c r="D217" s="2">
         <v>4</v>
@@ -9685,7 +9688,7 @@
         <v>151.23349279999999</v>
       </c>
       <c r="C218" s="2">
-        <v>1321</v>
+        <v>1290</v>
       </c>
       <c r="D218" s="2">
         <v>3</v>
@@ -9726,7 +9729,7 @@
         <v>151.2338115</v>
       </c>
       <c r="C219" s="2">
-        <v>1290</v>
+        <v>1396</v>
       </c>
       <c r="D219" s="2">
         <v>4</v>
@@ -9767,7 +9770,7 @@
         <v>151.2338115</v>
       </c>
       <c r="C220" s="2">
-        <v>1396</v>
+        <v>1410</v>
       </c>
       <c r="D220" s="2">
         <v>4</v>
@@ -9808,7 +9811,7 @@
         <v>151.23383419999999</v>
       </c>
       <c r="C221" s="2">
-        <v>1410</v>
+        <v>4398</v>
       </c>
       <c r="D221" s="2">
         <v>4</v>
@@ -9849,7 +9852,7 @@
         <v>151.23383419999999</v>
       </c>
       <c r="C222" s="2">
-        <v>4398</v>
+        <v>4634</v>
       </c>
       <c r="D222" s="2">
         <v>4</v>
@@ -9890,7 +9893,7 @@
         <v>151.23387289999999</v>
       </c>
       <c r="C223" s="2">
-        <v>4634</v>
+        <v>1263</v>
       </c>
       <c r="D223" s="2">
         <v>9</v>
@@ -9931,7 +9934,7 @@
         <v>151.2335137</v>
       </c>
       <c r="C224" s="2">
-        <v>1263</v>
+        <v>1303</v>
       </c>
       <c r="D224" s="2">
         <v>21.666</v>
@@ -9972,7 +9975,7 @@
         <v>151.23316070000001</v>
       </c>
       <c r="C225" s="2">
-        <v>1303</v>
+        <v>3342</v>
       </c>
       <c r="D225" s="2">
         <v>21.039000000000001</v>
@@ -10013,7 +10016,7 @@
         <v>151.23316070000001</v>
       </c>
       <c r="C226" s="2">
-        <v>3342</v>
+        <v>1277</v>
       </c>
       <c r="D226" s="2">
         <v>21.039000000000001</v>
@@ -10054,7 +10057,7 @@
         <v>151.23343399999999</v>
       </c>
       <c r="C227" s="2">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D227" s="2">
         <v>22.067</v>
@@ -10095,7 +10098,7 @@
         <v>151.23343399999999</v>
       </c>
       <c r="C228" s="2">
-        <v>1275</v>
+        <v>1281</v>
       </c>
       <c r="D228" s="2">
         <v>22.067</v>
@@ -10136,7 +10139,7 @@
         <v>151.23341120000001</v>
       </c>
       <c r="C229" s="2">
-        <v>1281</v>
+        <v>31441</v>
       </c>
       <c r="D229" s="2">
         <v>21.641999999999999</v>
@@ -10177,7 +10180,7 @@
         <v>151.23393490000001</v>
       </c>
       <c r="C230" s="2">
-        <v>31441</v>
+        <v>2320</v>
       </c>
       <c r="D230" s="2">
         <v>21.649000000000001</v>
@@ -10218,7 +10221,7 @@
         <v>151.23363889999999</v>
       </c>
       <c r="C231" s="2">
-        <v>2320</v>
+        <v>1240</v>
       </c>
       <c r="D231" s="2">
         <v>22.120999999999999</v>
@@ -10259,7 +10262,7 @@
         <v>151.23368439999999</v>
       </c>
       <c r="C232" s="2">
-        <v>1240</v>
+        <v>1366</v>
       </c>
       <c r="D232" s="2">
         <v>22.137</v>
@@ -10300,7 +10303,7 @@
         <v>151.23391409999999</v>
       </c>
       <c r="C233" s="2">
-        <v>1366</v>
+        <v>1298</v>
       </c>
       <c r="D233" s="2">
         <v>3</v>
@@ -10341,7 +10344,7 @@
         <v>151.2339322</v>
       </c>
       <c r="C234" s="2">
-        <v>1298</v>
+        <v>1377</v>
       </c>
       <c r="D234" s="2">
         <v>3</v>
@@ -10382,7 +10385,7 @@
         <v>151.23391240000001</v>
       </c>
       <c r="C235" s="2">
-        <v>1377</v>
+        <v>3475</v>
       </c>
       <c r="D235" s="2">
         <v>3</v>
@@ -10423,7 +10426,7 @@
         <v>151.2339193</v>
       </c>
       <c r="C236" s="2">
-        <v>3475</v>
+        <v>2065</v>
       </c>
       <c r="D236" s="2">
         <v>3</v>
@@ -10464,7 +10467,7 @@
         <v>151.23392770000001</v>
       </c>
       <c r="C237" s="2">
-        <v>2065</v>
+        <v>3421</v>
       </c>
       <c r="D237" s="2">
         <v>3</v>
@@ -10505,7 +10508,7 @@
         <v>151.2339193</v>
       </c>
       <c r="C238" s="2">
-        <v>3421</v>
+        <v>3460</v>
       </c>
       <c r="D238" s="2">
         <v>3</v>
@@ -10546,7 +10549,7 @@
         <v>151.23396030000001</v>
       </c>
       <c r="C239" s="2">
-        <v>3460</v>
+        <v>1336</v>
       </c>
       <c r="D239" s="2">
         <v>4</v>
@@ -10587,7 +10590,7 @@
         <v>151.23396030000001</v>
       </c>
       <c r="C240" s="2">
-        <v>1336</v>
+        <v>1363</v>
       </c>
       <c r="D240" s="2">
         <v>4</v>
@@ -10628,7 +10631,7 @@
         <v>151.2339715</v>
       </c>
       <c r="C241" s="2">
-        <v>1363</v>
+        <v>2064</v>
       </c>
       <c r="D241" s="2">
         <v>3</v>
@@ -10669,7 +10672,7 @@
         <v>151.2339715</v>
       </c>
       <c r="C242" s="2">
-        <v>2064</v>
+        <v>3405</v>
       </c>
       <c r="D242" s="2">
         <v>3</v>
@@ -10710,7 +10713,7 @@
         <v>151.2340026</v>
       </c>
       <c r="C243" s="2">
-        <v>3405</v>
+        <v>4139</v>
       </c>
       <c r="D243" s="2">
         <v>4</v>
@@ -10751,7 +10754,7 @@
         <v>151.2340026</v>
       </c>
       <c r="C244" s="2">
-        <v>4139</v>
+        <v>4140</v>
       </c>
       <c r="D244" s="2">
         <v>4</v>
@@ -10792,7 +10795,7 @@
         <v>151.23356419999999</v>
       </c>
       <c r="C245" s="2">
-        <v>4140</v>
+        <v>1286</v>
       </c>
       <c r="D245" s="2">
         <v>13</v>
@@ -10833,7 +10836,7 @@
         <v>151.23356419999999</v>
       </c>
       <c r="C246" s="2">
-        <v>1286</v>
+        <v>1261</v>
       </c>
       <c r="D246" s="2">
         <v>13</v>
@@ -10874,7 +10877,7 @@
         <v>151.23303179999999</v>
       </c>
       <c r="C247" s="2">
-        <v>1261</v>
+        <v>6094</v>
       </c>
       <c r="D247" s="2">
         <v>12</v>
@@ -10913,7 +10916,7 @@
         <v>151.23303179999999</v>
       </c>
       <c r="C248" s="2">
-        <v>6094</v>
+        <v>6231</v>
       </c>
       <c r="D248" s="2">
         <v>12</v>
@@ -10952,7 +10955,7 @@
         <v>151.23255030000001</v>
       </c>
       <c r="C249" s="2">
-        <v>6231</v>
+        <v>1997</v>
       </c>
       <c r="D249" s="2">
         <v>4</v>
@@ -10993,7 +10996,7 @@
         <v>151.23303179999999</v>
       </c>
       <c r="C250" s="2">
-        <v>1997</v>
+        <v>55192</v>
       </c>
       <c r="D250" s="2">
         <v>12</v>
@@ -11034,7 +11037,7 @@
         <v>151.23255599999999</v>
       </c>
       <c r="C251" s="2">
-        <v>55192</v>
+        <v>1216</v>
       </c>
       <c r="D251" s="2">
         <v>4</v>
@@ -11073,7 +11076,7 @@
         <v>151.23255599999999</v>
       </c>
       <c r="C252" s="2">
-        <v>1216</v>
+        <v>1221</v>
       </c>
       <c r="D252" s="2">
         <v>4</v>
@@ -11112,7 +11115,7 @@
         <v>151.23302960000001</v>
       </c>
       <c r="C253" s="2">
-        <v>1221</v>
+        <v>1410</v>
       </c>
       <c r="D253" s="2">
         <v>3</v>
@@ -11153,7 +11156,7 @@
         <v>151.23302960000001</v>
       </c>
       <c r="C254" s="2">
-        <v>1410</v>
+        <v>1255</v>
       </c>
       <c r="D254" s="2">
         <v>3</v>
@@ -11194,7 +11197,7 @@
         <v>151.23309689999999</v>
       </c>
       <c r="C255" s="2">
-        <v>1255</v>
+        <v>10090</v>
       </c>
       <c r="D255" s="2">
         <v>3</v>
@@ -11235,7 +11238,7 @@
         <v>151.23309689999999</v>
       </c>
       <c r="C256" s="2">
-        <v>10090</v>
+        <v>10207</v>
       </c>
       <c r="D256" s="2">
         <v>3</v>
@@ -11276,7 +11279,7 @@
         <v>151.23309689999999</v>
       </c>
       <c r="C257" s="2">
-        <v>10207</v>
+        <v>9605</v>
       </c>
       <c r="D257" s="2">
         <v>3</v>
@@ -11317,7 +11320,7 @@
         <v>151.23311100000001</v>
       </c>
       <c r="C258" s="2">
-        <v>9605</v>
+        <v>2329</v>
       </c>
       <c r="D258" s="2">
         <v>3</v>
@@ -11358,7 +11361,7 @@
         <v>151.23311100000001</v>
       </c>
       <c r="C259" s="2">
-        <v>2329</v>
+        <v>2375</v>
       </c>
       <c r="D259" s="2">
         <v>3</v>
@@ -11399,7 +11402,7 @@
         <v>151.23311100000001</v>
       </c>
       <c r="C260" s="2">
-        <v>2375</v>
+        <v>3482</v>
       </c>
       <c r="D260" s="2">
         <v>3</v>
@@ -11440,7 +11443,7 @@
         <v>151.2331835</v>
       </c>
       <c r="C261" s="2">
-        <v>3482</v>
+        <v>1278</v>
       </c>
       <c r="D261" s="2">
         <v>22.475000000000001</v>
@@ -11481,7 +11484,7 @@
         <v>151.2331835</v>
       </c>
       <c r="C262" s="2">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="D262" s="2">
         <v>22.475000000000001</v>
@@ -11522,7 +11525,7 @@
         <v>151.2331835</v>
       </c>
       <c r="C263" s="2">
-        <v>1272</v>
+        <v>1243</v>
       </c>
       <c r="D263" s="2">
         <v>22.475000000000001</v>
@@ -11563,7 +11566,7 @@
         <v>151.23352510000001</v>
       </c>
       <c r="C264" s="2">
-        <v>1243</v>
+        <v>2350</v>
       </c>
       <c r="D264" s="2">
         <v>21.302</v>
@@ -11604,7 +11607,7 @@
         <v>151.23352510000001</v>
       </c>
       <c r="C265" s="2">
-        <v>2350</v>
+        <v>3362</v>
       </c>
       <c r="D265" s="2">
         <v>21.302</v>
@@ -11645,7 +11648,7 @@
         <v>151.23352510000001</v>
       </c>
       <c r="C266" s="2">
-        <v>3362</v>
+        <v>4361</v>
       </c>
       <c r="D266" s="2">
         <v>21.302</v>
@@ -11686,7 +11689,7 @@
         <v>151.2337086</v>
       </c>
       <c r="C267" s="2">
-        <v>4361</v>
+        <v>1262</v>
       </c>
       <c r="D267" s="2">
         <v>3</v>
@@ -11727,7 +11730,7 @@
         <v>151.23369640000001</v>
       </c>
       <c r="C268" s="2">
-        <v>1262</v>
+        <v>1398</v>
       </c>
       <c r="D268" s="2">
         <v>4</v>
@@ -11768,7 +11771,7 @@
         <v>151.2336827</v>
       </c>
       <c r="C269" s="2">
-        <v>1398</v>
+        <v>3325</v>
       </c>
       <c r="D269" s="2">
         <v>3</v>
@@ -11850,7 +11853,7 @@
         <v>151.23378439999999</v>
       </c>
       <c r="C271" s="2">
-        <v>3325</v>
+        <v>37946</v>
       </c>
       <c r="D271" s="2">
         <v>3</v>
@@ -11889,7 +11892,7 @@
         <v>151.2338057</v>
       </c>
       <c r="C272" s="2">
-        <v>37946</v>
+        <v>36932</v>
       </c>
       <c r="D272" s="2">
         <v>3</v>
@@ -11928,7 +11931,7 @@
         <v>151.2345004</v>
       </c>
       <c r="C273" s="2">
-        <v>36932</v>
+        <v>1814</v>
       </c>
       <c r="D273" s="2">
         <v>8</v>
@@ -11969,7 +11972,7 @@
         <v>151.2338057</v>
       </c>
       <c r="C274" s="2">
-        <v>1814</v>
+        <v>79092</v>
       </c>
       <c r="D274" s="2">
         <v>3</v>
@@ -12010,7 +12013,7 @@
         <v>151.23480960000001</v>
       </c>
       <c r="C275" s="2">
-        <v>79092</v>
+        <v>1280</v>
       </c>
       <c r="D275" s="2">
         <v>3</v>
@@ -12049,7 +12052,7 @@
         <v>151.23478840000001</v>
       </c>
       <c r="C276" s="2">
-        <v>1280</v>
+        <v>2031</v>
       </c>
       <c r="D276" s="2">
         <v>4</v>
@@ -12090,7 +12093,7 @@
         <v>151.23478019999999</v>
       </c>
       <c r="C277" s="2">
-        <v>2031</v>
+        <v>1351</v>
       </c>
       <c r="D277" s="2">
         <v>4</v>
@@ -12129,7 +12132,7 @@
         <v>151.2346704</v>
       </c>
       <c r="C278" s="2">
-        <v>1351</v>
+        <v>1316</v>
       </c>
       <c r="D278" s="2">
         <v>4</v>
@@ -12170,7 +12173,7 @@
         <v>151.23426000000001</v>
       </c>
       <c r="C279" s="2">
-        <v>1316</v>
+        <v>1330</v>
       </c>
       <c r="D279" s="2">
         <v>6</v>
@@ -12211,7 +12214,7 @@
         <v>151.23414980000001</v>
       </c>
       <c r="C280" s="2">
-        <v>1330</v>
+        <v>1369</v>
       </c>
       <c r="D280" s="2">
         <v>9</v>
@@ -12252,7 +12255,7 @@
         <v>151.2342362</v>
       </c>
       <c r="C281" s="2">
-        <v>1369</v>
+        <v>1378</v>
       </c>
       <c r="D281" s="2">
         <v>11</v>
@@ -12293,7 +12296,7 @@
         <v>151.23428680000001</v>
       </c>
       <c r="C282" s="2">
-        <v>1378</v>
+        <v>1417</v>
       </c>
       <c r="D282" s="2">
         <v>9</v>
@@ -12334,7 +12337,7 @@
         <v>151.23429970000001</v>
       </c>
       <c r="C283" s="2">
-        <v>1417</v>
+        <v>1264</v>
       </c>
       <c r="D283" s="2">
         <v>11</v>
@@ -12375,7 +12378,7 @@
         <v>151.2343113</v>
       </c>
       <c r="C284" s="2">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="D284" s="2">
         <v>12</v>
@@ -12416,7 +12419,7 @@
         <v>151.23450740000001</v>
       </c>
       <c r="C285" s="2">
-        <v>1268</v>
+        <v>1362</v>
       </c>
       <c r="D285" s="2">
         <v>12</v>
@@ -12457,7 +12460,7 @@
         <v>151.23464419999999</v>
       </c>
       <c r="C286" s="2">
-        <v>1362</v>
+        <v>4520</v>
       </c>
       <c r="D286" s="2">
         <v>9</v>
@@ -12498,7 +12501,7 @@
         <v>151.23464419999999</v>
       </c>
       <c r="C287" s="2">
-        <v>4520</v>
+        <v>6353</v>
       </c>
       <c r="D287" s="2">
         <v>9</v>
@@ -12539,7 +12542,7 @@
         <v>151.2347422</v>
       </c>
       <c r="C288" s="2">
-        <v>6353</v>
+        <v>1417</v>
       </c>
       <c r="D288" s="2">
         <v>8</v>
@@ -12580,7 +12583,7 @@
         <v>151.23448719999999</v>
       </c>
       <c r="C289" s="2">
-        <v>1417</v>
+        <v>1325</v>
       </c>
       <c r="D289" s="2">
         <v>16</v>
@@ -12621,7 +12624,7 @@
         <v>151.23439329999999</v>
       </c>
       <c r="C290" s="2">
-        <v>1325</v>
+        <v>3376</v>
       </c>
       <c r="D290" s="2">
         <v>15</v>
@@ -12662,7 +12665,7 @@
         <v>151.23433370000001</v>
       </c>
       <c r="C291" s="2">
-        <v>3376</v>
+        <v>1386</v>
       </c>
       <c r="D291" s="2">
         <v>10</v>
@@ -12703,7 +12706,7 @@
         <v>151.2342051</v>
       </c>
       <c r="C292" s="2">
-        <v>1386</v>
+        <v>1708</v>
       </c>
       <c r="D292" s="2">
         <v>6</v>
@@ -12744,7 +12747,7 @@
         <v>151.23429400000001</v>
       </c>
       <c r="C293" s="2">
-        <v>1708</v>
+        <v>3459</v>
       </c>
       <c r="D293" s="2">
         <v>9</v>
@@ -12785,7 +12788,7 @@
         <v>151.2342458</v>
       </c>
       <c r="C294" s="2">
-        <v>3459</v>
+        <v>1616</v>
       </c>
       <c r="D294" s="2">
         <v>4</v>
@@ -12826,7 +12829,7 @@
         <v>151.2342314</v>
       </c>
       <c r="C295" s="2">
-        <v>1616</v>
+        <v>1329</v>
       </c>
       <c r="D295" s="2">
         <v>4</v>
@@ -12867,7 +12870,7 @@
         <v>151.23434850000001</v>
       </c>
       <c r="C296" s="2">
-        <v>1329</v>
+        <v>1911</v>
       </c>
       <c r="D296" s="2">
         <v>3</v>
@@ -12908,7 +12911,7 @@
         <v>151.23445910000001</v>
       </c>
       <c r="C297" s="2">
-        <v>1911</v>
+        <v>1401</v>
       </c>
       <c r="D297" s="2">
         <v>3</v>
@@ -12949,7 +12952,7 @@
         <v>151.23450980000001</v>
       </c>
       <c r="C298" s="2">
-        <v>1401</v>
+        <v>1413</v>
       </c>
       <c r="D298" s="2">
         <v>3</v>
@@ -12990,7 +12993,7 @@
         <v>151.2345828</v>
       </c>
       <c r="C299" s="2">
-        <v>1413</v>
+        <v>3622</v>
       </c>
       <c r="D299" s="2">
         <v>5</v>
@@ -13031,7 +13034,7 @@
         <v>151.23475500000001</v>
       </c>
       <c r="C300" s="2">
-        <v>3622</v>
+        <v>1340</v>
       </c>
       <c r="D300" s="2">
         <v>4</v>
@@ -13072,7 +13075,7 @@
         <v>151.23475500000001</v>
       </c>
       <c r="C301" s="2">
-        <v>1340</v>
+        <v>1353</v>
       </c>
       <c r="D301" s="2">
         <v>4</v>
@@ -13113,7 +13116,7 @@
         <v>151.2350764</v>
       </c>
       <c r="C302" s="2">
-        <v>1353</v>
+        <v>1380</v>
       </c>
       <c r="D302" s="2">
         <v>4</v>
@@ -13154,7 +13157,7 @@
         <v>151.23509189999999</v>
       </c>
       <c r="C303" s="2">
-        <v>1380</v>
+        <v>1327</v>
       </c>
       <c r="D303" s="2">
         <v>5</v>
@@ -13195,7 +13198,7 @@
         <v>151.23529669999999</v>
       </c>
       <c r="C304" s="2">
-        <v>1327</v>
+        <v>1526</v>
       </c>
       <c r="D304" s="2">
         <v>6</v>
@@ -13236,7 +13239,7 @@
         <v>151.23521529999999</v>
       </c>
       <c r="C305" s="2">
-        <v>1526</v>
+        <v>1329</v>
       </c>
       <c r="D305" s="2">
         <v>14</v>
@@ -13277,7 +13280,7 @@
         <v>151.23521529999999</v>
       </c>
       <c r="C306" s="2">
-        <v>1329</v>
+        <v>1319</v>
       </c>
       <c r="D306" s="2">
         <v>14</v>
@@ -13318,7 +13321,7 @@
         <v>151.23521529999999</v>
       </c>
       <c r="C307" s="2">
-        <v>1319</v>
+        <v>1336</v>
       </c>
       <c r="D307" s="2">
         <v>14</v>
@@ -13359,7 +13362,7 @@
         <v>151.23581859999999</v>
       </c>
       <c r="C308" s="2">
-        <v>1336</v>
+        <v>20100</v>
       </c>
       <c r="D308" s="2">
         <v>11</v>
@@ -13400,7 +13403,7 @@
         <v>151.23581859999999</v>
       </c>
       <c r="C309" s="2">
-        <v>20100</v>
+        <v>21091</v>
       </c>
       <c r="D309" s="2">
         <v>11</v>
@@ -13441,7 +13444,7 @@
         <v>151.23581859999999</v>
       </c>
       <c r="C310" s="2">
-        <v>21091</v>
+        <v>21041</v>
       </c>
       <c r="D310" s="2">
         <v>11</v>
@@ -13482,7 +13485,7 @@
         <v>151.2361172</v>
       </c>
       <c r="C311" s="2">
-        <v>21041</v>
+        <v>2543</v>
       </c>
       <c r="D311" s="2">
         <v>3</v>
@@ -13523,7 +13526,7 @@
         <v>151.2361172</v>
       </c>
       <c r="C312" s="2">
-        <v>2543</v>
+        <v>2577</v>
       </c>
       <c r="D312" s="2">
         <v>3</v>
@@ -13564,7 +13567,7 @@
         <v>151.2361172</v>
       </c>
       <c r="C313" s="2">
-        <v>2577</v>
+        <v>3114</v>
       </c>
       <c r="D313" s="2">
         <v>3</v>
@@ -13605,7 +13608,7 @@
         <v>151.2361903</v>
       </c>
       <c r="C314" s="2">
-        <v>3114</v>
+        <v>2304</v>
       </c>
       <c r="D314" s="2">
         <v>4</v>
@@ -13646,7 +13649,7 @@
         <v>151.2361903</v>
       </c>
       <c r="C315" s="2">
-        <v>2304</v>
+        <v>2620</v>
       </c>
       <c r="D315" s="2">
         <v>4</v>
@@ -13687,7 +13690,7 @@
         <v>151.2363268</v>
       </c>
       <c r="C316" s="2">
-        <v>2620</v>
+        <v>21569</v>
       </c>
       <c r="D316" s="2">
         <v>3</v>
@@ -13726,7 +13729,7 @@
         <v>151.2363268</v>
       </c>
       <c r="C317" s="2">
-        <v>21569</v>
+        <v>21546</v>
       </c>
       <c r="D317" s="2">
         <v>3</v>
@@ -13765,7 +13768,7 @@
         <v>151.2362981</v>
       </c>
       <c r="C318" s="2">
-        <v>21546</v>
+        <v>2053</v>
       </c>
       <c r="D318" s="2">
         <v>4</v>
@@ -13806,7 +13809,7 @@
         <v>151.2363268</v>
       </c>
       <c r="C319" s="2">
-        <v>2053</v>
+        <v>132644</v>
       </c>
       <c r="D319" s="2">
         <v>3</v>
@@ -13847,7 +13850,7 @@
         <v>151.2362444</v>
       </c>
       <c r="C320" s="2">
-        <v>132644</v>
+        <v>20996</v>
       </c>
       <c r="D320" s="2">
         <v>4</v>
@@ -13888,7 +13891,7 @@
         <v>151.2362147</v>
       </c>
       <c r="C321" s="2">
-        <v>20996</v>
+        <v>18991</v>
       </c>
       <c r="D321" s="2">
         <v>4</v>
@@ -13927,7 +13930,7 @@
         <v>151.2362147</v>
       </c>
       <c r="C322" s="2">
-        <v>18991</v>
+        <v>19062</v>
       </c>
       <c r="D322" s="2">
         <v>4</v>
@@ -13966,7 +13969,7 @@
         <v>151.23596610000001</v>
       </c>
       <c r="C323" s="2">
-        <v>19062</v>
+        <v>2481</v>
       </c>
       <c r="D323" s="2">
         <v>4</v>
@@ -14007,7 +14010,7 @@
         <v>151.23596610000001</v>
       </c>
       <c r="C324" s="2">
-        <v>2481</v>
+        <v>2449</v>
       </c>
       <c r="D324" s="2">
         <v>4</v>
@@ -14048,7 +14051,7 @@
         <v>151.23596610000001</v>
       </c>
       <c r="C325" s="2">
-        <v>2449</v>
+        <v>2481</v>
       </c>
       <c r="D325" s="2">
         <v>4</v>
@@ -14089,7 +14092,7 @@
         <v>151.23588480000001</v>
       </c>
       <c r="C326" s="2">
-        <v>2481</v>
+        <v>52178</v>
       </c>
       <c r="D326" s="2">
         <v>4</v>
@@ -14130,7 +14133,7 @@
         <v>151.23584500000001</v>
       </c>
       <c r="C327" s="2">
-        <v>52178</v>
+        <v>51563</v>
       </c>
       <c r="D327" s="2">
         <v>5</v>
@@ -14171,7 +14174,7 @@
         <v>151.23553580000001</v>
       </c>
       <c r="C328" s="2">
-        <v>51563</v>
+        <v>27461</v>
       </c>
       <c r="D328" s="2">
         <v>3</v>
@@ -14212,7 +14215,7 @@
         <v>151.2348896</v>
       </c>
       <c r="C329" s="2">
-        <v>27461</v>
+        <v>3664</v>
       </c>
       <c r="D329" s="2">
         <v>3</v>
@@ -14251,7 +14254,7 @@
         <v>151.2348896</v>
       </c>
       <c r="C330" s="2">
-        <v>3664</v>
+        <v>3514</v>
       </c>
       <c r="D330" s="2">
         <v>3</v>
@@ -14290,7 +14293,7 @@
         <v>151.23454939999999</v>
       </c>
       <c r="C331" s="2">
-        <v>3514</v>
+        <v>1965</v>
       </c>
       <c r="D331" s="2">
         <v>6</v>
@@ -14331,7 +14334,7 @@
         <v>151.2348896</v>
       </c>
       <c r="C332" s="2">
-        <v>1965</v>
+        <v>116103</v>
       </c>
       <c r="D332" s="2">
         <v>3</v>
@@ -14372,7 +14375,7 @@
         <v>151.23453040000001</v>
       </c>
       <c r="C333" s="2">
-        <v>116103</v>
+        <v>1706</v>
       </c>
       <c r="D333" s="2">
         <v>5</v>
@@ -14411,7 +14414,7 @@
         <v>151.23441009999999</v>
       </c>
       <c r="C334" s="2">
-        <v>1706</v>
+        <v>1423</v>
       </c>
       <c r="D334" s="2">
         <v>3</v>
@@ -14450,7 +14453,7 @@
         <v>151.2342898</v>
       </c>
       <c r="C335" s="2">
-        <v>1423</v>
+        <v>1442</v>
       </c>
       <c r="D335" s="2">
         <v>9</v>
@@ -14491,7 +14494,7 @@
         <v>151.2342898</v>
       </c>
       <c r="C336" s="2">
-        <v>1442</v>
+        <v>1518</v>
       </c>
       <c r="D336" s="2">
         <v>9</v>
@@ -14532,7 +14535,7 @@
         <v>151.2342898</v>
       </c>
       <c r="C337" s="2">
-        <v>1518</v>
+        <v>1351</v>
       </c>
       <c r="D337" s="2">
         <v>9</v>
@@ -14573,7 +14576,7 @@
         <v>151.23387779999999</v>
       </c>
       <c r="C338" s="2">
-        <v>1351</v>
+        <v>9733</v>
       </c>
       <c r="D338" s="2">
         <v>10</v>
@@ -14614,7 +14617,7 @@
         <v>151.23387779999999</v>
       </c>
       <c r="C339" s="2">
-        <v>9733</v>
+        <v>9731</v>
       </c>
       <c r="D339" s="2">
         <v>10</v>
@@ -14655,7 +14658,7 @@
         <v>151.23387779999999</v>
       </c>
       <c r="C340" s="2">
-        <v>9731</v>
+        <v>9720</v>
       </c>
       <c r="D340" s="2">
         <v>10</v>
@@ -14696,7 +14699,7 @@
         <v>151.2338211</v>
       </c>
       <c r="C341" s="2">
-        <v>9720</v>
+        <v>1417</v>
       </c>
       <c r="D341" s="2">
         <v>8</v>
@@ -14737,7 +14740,7 @@
         <v>151.2338211</v>
       </c>
       <c r="C342" s="2">
-        <v>1417</v>
+        <v>1427</v>
       </c>
       <c r="D342" s="2">
         <v>8</v>
@@ -14778,7 +14781,7 @@
         <v>151.2338211</v>
       </c>
       <c r="C343" s="2">
-        <v>1427</v>
+        <v>1435</v>
       </c>
       <c r="D343" s="2">
         <v>8</v>
@@ -14819,7 +14822,7 @@
         <v>151.2337818</v>
       </c>
       <c r="C344" s="2">
-        <v>1435</v>
+        <v>2037</v>
       </c>
       <c r="D344" s="2">
         <v>8</v>
@@ -14860,7 +14863,7 @@
         <v>151.2337818</v>
       </c>
       <c r="C345" s="2">
-        <v>2037</v>
+        <v>2058</v>
       </c>
       <c r="D345" s="2">
         <v>8</v>
@@ -14901,7 +14904,7 @@
         <v>151.2337818</v>
       </c>
       <c r="C346" s="2">
-        <v>2058</v>
+        <v>2040</v>
       </c>
       <c r="D346" s="2">
         <v>8</v>
@@ -14942,7 +14945,7 @@
         <v>151.23252249999999</v>
       </c>
       <c r="C347" s="2">
-        <v>2040</v>
+        <v>6301</v>
       </c>
       <c r="D347" s="2">
         <v>6</v>
@@ -14983,7 +14986,7 @@
         <v>151.23254890000001</v>
       </c>
       <c r="C348" s="2">
-        <v>6301</v>
+        <v>9265</v>
       </c>
       <c r="D348" s="2">
         <v>6</v>
@@ -15024,7 +15027,7 @@
         <v>151.23252249999999</v>
       </c>
       <c r="C349" s="2">
-        <v>9265</v>
+        <v>6361</v>
       </c>
       <c r="D349" s="2">
         <v>6</v>
@@ -15065,7 +15068,7 @@
         <v>151.23193800000001</v>
       </c>
       <c r="C350" s="2">
-        <v>6361</v>
+        <v>1370</v>
       </c>
       <c r="D350" s="2">
         <v>11</v>
@@ -15106,7 +15109,7 @@
         <v>151.23187229999999</v>
       </c>
       <c r="C351" s="2">
-        <v>1370</v>
+        <v>8454</v>
       </c>
       <c r="D351" s="2">
         <v>10</v>
@@ -15147,7 +15150,7 @@
         <v>151.23187229999999</v>
       </c>
       <c r="C352" s="2">
-        <v>8454</v>
+        <v>8437</v>
       </c>
       <c r="D352" s="2">
         <v>10</v>
@@ -15188,7 +15191,7 @@
         <v>151.2319305</v>
       </c>
       <c r="C353" s="2">
-        <v>8437</v>
+        <v>5696</v>
       </c>
       <c r="D353" s="2">
         <v>14</v>
@@ -15229,7 +15232,7 @@
         <v>151.23217159999999</v>
       </c>
       <c r="C354" s="2">
-        <v>5696</v>
+        <v>5957</v>
       </c>
       <c r="D354" s="2">
         <v>18</v>
@@ -15270,7 +15273,7 @@
         <v>151.2320981</v>
       </c>
       <c r="C355" s="2">
-        <v>5957</v>
+        <v>3863</v>
       </c>
       <c r="D355" s="2">
         <v>17</v>
@@ -15311,7 +15314,7 @@
         <v>151.2320981</v>
       </c>
       <c r="C356" s="2">
-        <v>3863</v>
+        <v>3957</v>
       </c>
       <c r="D356" s="2">
         <v>17</v>
@@ -15352,7 +15355,7 @@
         <v>151.23195480000001</v>
       </c>
       <c r="C357" s="2">
-        <v>3957</v>
+        <v>1530</v>
       </c>
       <c r="D357" s="2">
         <v>14</v>
@@ -15393,7 +15396,7 @@
         <v>151.2318933</v>
       </c>
       <c r="C358" s="2">
-        <v>1530</v>
+        <v>6663</v>
       </c>
       <c r="D358" s="2">
         <v>13</v>
@@ -15434,7 +15437,7 @@
         <v>151.2318933</v>
       </c>
       <c r="C359" s="2">
-        <v>6663</v>
+        <v>6907</v>
       </c>
       <c r="D359" s="2">
         <v>13</v>
@@ -15475,7 +15478,7 @@
         <v>151.2318564</v>
       </c>
       <c r="C360" s="2">
-        <v>6907</v>
+        <v>4449</v>
       </c>
       <c r="D360" s="2">
         <v>12</v>
@@ -15516,7 +15519,7 @@
         <v>151.23188630000001</v>
       </c>
       <c r="C361" s="2">
-        <v>4449</v>
+        <v>11207</v>
       </c>
       <c r="D361" s="2">
         <v>12</v>
@@ -15557,7 +15560,7 @@
         <v>151.2318861</v>
       </c>
       <c r="C362" s="2">
-        <v>11207</v>
+        <v>1640</v>
       </c>
       <c r="D362" s="2">
         <v>11</v>
@@ -15598,7 +15601,7 @@
         <v>151.2318564</v>
       </c>
       <c r="C363" s="2">
-        <v>1640</v>
+        <v>8323</v>
       </c>
       <c r="D363" s="2">
         <v>12</v>
@@ -15639,7 +15642,7 @@
         <v>151.2318789</v>
       </c>
       <c r="C364" s="2">
-        <v>8323</v>
+        <v>1369</v>
       </c>
       <c r="D364" s="2">
         <v>10</v>
@@ -15680,7 +15683,7 @@
         <v>151.2318789</v>
       </c>
       <c r="C365" s="2">
-        <v>1369</v>
+        <v>1886</v>
       </c>
       <c r="D365" s="2">
         <v>10</v>
@@ -15721,7 +15724,7 @@
         <v>151.23186670000001</v>
       </c>
       <c r="C366" s="2">
-        <v>1886</v>
+        <v>1705</v>
       </c>
       <c r="D366" s="2">
         <v>10</v>
@@ -15762,7 +15765,7 @@
         <v>151.23180120000001</v>
       </c>
       <c r="C367" s="2">
-        <v>1705</v>
+        <v>3774</v>
       </c>
       <c r="D367" s="2">
         <v>10</v>
@@ -15803,7 +15806,7 @@
         <v>151.23180120000001</v>
       </c>
       <c r="C368" s="2">
-        <v>3774</v>
+        <v>3905</v>
       </c>
       <c r="D368" s="2">
         <v>10</v>
@@ -15844,7 +15847,7 @@
         <v>151.23180120000001</v>
       </c>
       <c r="C369" s="2">
-        <v>3905</v>
+        <v>4001</v>
       </c>
       <c r="D369" s="2">
         <v>10</v>
@@ -15885,7 +15888,7 @@
         <v>151.2319139</v>
       </c>
       <c r="C370" s="2">
-        <v>4001</v>
+        <v>2036</v>
       </c>
       <c r="D370" s="2">
         <v>7</v>
@@ -15926,7 +15929,7 @@
         <v>151.2319139</v>
       </c>
       <c r="C371" s="2">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="D371" s="2">
         <v>7</v>
@@ -15967,7 +15970,7 @@
         <v>151.23191990000001</v>
       </c>
       <c r="C372" s="2">
-        <v>2038</v>
+        <v>3660</v>
       </c>
       <c r="D372" s="2">
         <v>8</v>
@@ -16008,7 +16011,7 @@
         <v>151.2319541</v>
       </c>
       <c r="C373" s="2">
-        <v>3660</v>
+        <v>5764</v>
       </c>
       <c r="D373" s="2">
         <v>9</v>
@@ -16049,7 +16052,7 @@
         <v>151.2319541</v>
       </c>
       <c r="C374" s="2">
-        <v>5764</v>
+        <v>5762</v>
       </c>
       <c r="D374" s="2">
         <v>9</v>
@@ -16090,7 +16093,7 @@
         <v>151.23206680000001</v>
       </c>
       <c r="C375" s="2">
-        <v>5762</v>
+        <v>8039</v>
       </c>
       <c r="D375" s="2">
         <v>6</v>
@@ -16131,7 +16134,7 @@
         <v>151.23206680000001</v>
       </c>
       <c r="C376" s="2">
-        <v>8039</v>
+        <v>8055</v>
       </c>
       <c r="D376" s="2">
         <v>6</v>
@@ -16172,7 +16175,7 @@
         <v>151.23206680000001</v>
       </c>
       <c r="C377" s="2">
-        <v>8055</v>
+        <v>8063</v>
       </c>
       <c r="D377" s="2">
         <v>6</v>
@@ -16213,7 +16216,7 @@
         <v>151.23183</v>
       </c>
       <c r="C378" s="2">
-        <v>8063</v>
+        <v>1385</v>
       </c>
       <c r="D378" s="2">
         <v>10</v>
@@ -16254,7 +16257,7 @@
         <v>151.23183</v>
       </c>
       <c r="C379" s="2">
-        <v>1385</v>
+        <v>1440</v>
       </c>
       <c r="D379" s="2">
         <v>10</v>
@@ -16295,7 +16298,7 @@
         <v>151.23183</v>
       </c>
       <c r="C380" s="2">
-        <v>1440</v>
+        <v>1663</v>
       </c>
       <c r="D380" s="2">
         <v>10</v>
@@ -16336,7 +16339,7 @@
         <v>151.23182389999999</v>
       </c>
       <c r="C381" s="2">
-        <v>1663</v>
+        <v>1870</v>
       </c>
       <c r="D381" s="2">
         <v>14</v>
@@ -16377,7 +16380,7 @@
         <v>151.23182389999999</v>
       </c>
       <c r="C382" s="2">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="D382" s="2">
         <v>14</v>
@@ -16418,7 +16421,7 @@
         <v>151.23182389999999</v>
       </c>
       <c r="C383" s="2">
-        <v>1871</v>
+        <v>1866</v>
       </c>
       <c r="D383" s="2">
         <v>14</v>
@@ -16459,7 +16462,7 @@
         <v>151.231919</v>
       </c>
       <c r="C384" s="2">
-        <v>1866</v>
+        <v>1376</v>
       </c>
       <c r="D384" s="2">
         <v>14</v>
@@ -16500,7 +16503,7 @@
         <v>151.23191679999999</v>
       </c>
       <c r="C385" s="2">
-        <v>1376</v>
+        <v>3419</v>
       </c>
       <c r="D385" s="2">
         <v>14</v>
@@ -16541,7 +16544,7 @@
         <v>151.23191679999999</v>
       </c>
       <c r="C386" s="2">
-        <v>3419</v>
+        <v>3601</v>
       </c>
       <c r="D386" s="2">
         <v>14</v>
@@ -16582,7 +16585,7 @@
         <v>151.23193219999999</v>
       </c>
       <c r="C387" s="2">
-        <v>3601</v>
+        <v>1416</v>
       </c>
       <c r="D387" s="2">
         <v>13</v>
@@ -16623,7 +16626,7 @@
         <v>151.23193219999999</v>
       </c>
       <c r="C388" s="2">
-        <v>1416</v>
+        <v>1407</v>
       </c>
       <c r="D388" s="2">
         <v>13</v>
@@ -16664,7 +16667,7 @@
         <v>151.23193219999999</v>
       </c>
       <c r="C389" s="2">
-        <v>1407</v>
+        <v>1353</v>
       </c>
       <c r="D389" s="2">
         <v>13</v>
@@ -16705,7 +16708,7 @@
         <v>151.2319459</v>
       </c>
       <c r="C390" s="2">
-        <v>1353</v>
+        <v>1464</v>
       </c>
       <c r="D390" s="2">
         <v>13</v>
@@ -16746,7 +16749,7 @@
         <v>151.2319459</v>
       </c>
       <c r="C391" s="2">
-        <v>1464</v>
+        <v>1450</v>
       </c>
       <c r="D391" s="2">
         <v>13</v>
@@ -16787,7 +16790,7 @@
         <v>151.2319459</v>
       </c>
       <c r="C392" s="2">
-        <v>1450</v>
+        <v>1515</v>
       </c>
       <c r="D392" s="2">
         <v>13</v>
@@ -16828,7 +16831,7 @@
         <v>151.2319214</v>
       </c>
       <c r="C393" s="2">
-        <v>1515</v>
+        <v>7710</v>
       </c>
       <c r="D393" s="2">
         <v>13</v>
@@ -16869,7 +16872,7 @@
         <v>151.2319214</v>
       </c>
       <c r="C394" s="2">
-        <v>7710</v>
+        <v>7722</v>
       </c>
       <c r="D394" s="2">
         <v>13</v>
@@ -16910,7 +16913,7 @@
         <v>151.2319214</v>
       </c>
       <c r="C395" s="2">
-        <v>7722</v>
+        <v>7717</v>
       </c>
       <c r="D395" s="2">
         <v>13</v>
@@ -16951,7 +16954,7 @@
         <v>151.23206780000001</v>
       </c>
       <c r="C396" s="2">
-        <v>7717</v>
+        <v>1454</v>
       </c>
       <c r="D396" s="2">
         <v>21.055</v>
@@ -16992,7 +16995,7 @@
         <v>151.23206780000001</v>
       </c>
       <c r="C397" s="2">
-        <v>1454</v>
+        <v>1469</v>
       </c>
       <c r="D397" s="2">
         <v>21.055</v>
@@ -17033,7 +17036,7 @@
         <v>151.2321575</v>
       </c>
       <c r="C398" s="2">
-        <v>1469</v>
+        <v>3356</v>
       </c>
       <c r="D398" s="2">
         <v>14</v>
@@ -17074,7 +17077,7 @@
         <v>151.23213699999999</v>
       </c>
       <c r="C399" s="2">
-        <v>3356</v>
+        <v>1746</v>
       </c>
       <c r="D399" s="2">
         <v>12</v>
@@ -17115,7 +17118,7 @@
         <v>151.23213340000001</v>
       </c>
       <c r="C400" s="2">
-        <v>1746</v>
+        <v>1518</v>
       </c>
       <c r="D400" s="2">
         <v>11</v>
@@ -17156,7 +17159,7 @@
         <v>151.2320713</v>
       </c>
       <c r="C401" s="2">
-        <v>1518</v>
+        <v>1307</v>
       </c>
       <c r="D401" s="2">
         <v>14</v>
@@ -17197,7 +17200,7 @@
         <v>151.23201359999999</v>
       </c>
       <c r="C402" s="2">
-        <v>1307</v>
+        <v>3845</v>
       </c>
       <c r="D402" s="2">
         <v>18</v>
@@ -17238,7 +17241,7 @@
         <v>151.23204659999999</v>
       </c>
       <c r="C403" s="2">
-        <v>3845</v>
+        <v>4229</v>
       </c>
       <c r="D403" s="2">
         <v>15</v>
@@ -17279,7 +17282,7 @@
         <v>151.23178440000001</v>
       </c>
       <c r="C404" s="2">
-        <v>4229</v>
+        <v>7583</v>
       </c>
       <c r="D404" s="2">
         <v>4</v>
@@ -17320,7 +17323,7 @@
         <v>151.23178440000001</v>
       </c>
       <c r="C405" s="2">
-        <v>7583</v>
+        <v>8581</v>
       </c>
       <c r="D405" s="2">
         <v>4</v>
@@ -17361,7 +17364,7 @@
         <v>151.23178440000001</v>
       </c>
       <c r="C406" s="2">
-        <v>8581</v>
+        <v>8583</v>
       </c>
       <c r="D406" s="2">
         <v>4</v>
@@ -17402,7 +17405,7 @@
         <v>151.23159870000001</v>
       </c>
       <c r="C407" s="2">
-        <v>8583</v>
+        <v>1454</v>
       </c>
       <c r="D407" s="2">
         <v>4</v>
@@ -17443,7 +17446,7 @@
         <v>151.23159870000001</v>
       </c>
       <c r="C408" s="2">
-        <v>1454</v>
+        <v>2628</v>
       </c>
       <c r="D408" s="2">
         <v>4</v>
@@ -17484,7 +17487,7 @@
         <v>151.23159870000001</v>
       </c>
       <c r="C409" s="2">
-        <v>2628</v>
+        <v>2636</v>
       </c>
       <c r="D409" s="2">
         <v>4</v>
@@ -17525,7 +17528,7 @@
         <v>151.2316265</v>
       </c>
       <c r="C410" s="2">
-        <v>2636</v>
+        <v>2517</v>
       </c>
       <c r="D410" s="2">
         <v>6</v>
@@ -17566,7 +17569,7 @@
         <v>151.23161949999999</v>
       </c>
       <c r="C411" s="2">
-        <v>2517</v>
+        <v>4323</v>
       </c>
       <c r="D411" s="2">
         <v>4</v>
@@ -17607,7 +17610,7 @@
         <v>151.23161899999999</v>
       </c>
       <c r="C412" s="2">
-        <v>4323</v>
+        <v>1613</v>
       </c>
       <c r="D412" s="2">
         <v>6</v>
@@ -17648,7 +17651,7 @@
         <v>151.2316084</v>
       </c>
       <c r="C413" s="2">
-        <v>1613</v>
+        <v>1762</v>
       </c>
       <c r="D413" s="2">
         <v>7</v>
@@ -17689,7 +17692,7 @@
         <v>151.2316084</v>
       </c>
       <c r="C414" s="2">
-        <v>1762</v>
+        <v>2356</v>
       </c>
       <c r="D414" s="2">
         <v>7</v>
@@ -17730,7 +17733,7 @@
         <v>151.2316084</v>
       </c>
       <c r="C415" s="2">
-        <v>2356</v>
+        <v>2574</v>
       </c>
       <c r="D415" s="2">
         <v>7</v>
@@ -17771,7 +17774,7 @@
         <v>151.23162339999999</v>
       </c>
       <c r="C416" s="2">
-        <v>2574</v>
+        <v>1409</v>
       </c>
       <c r="D416" s="2">
         <v>6</v>
@@ -17812,7 +17815,7 @@
         <v>151.23162339999999</v>
       </c>
       <c r="C417" s="2">
-        <v>1409</v>
+        <v>1359</v>
       </c>
       <c r="D417" s="2">
         <v>6</v>
@@ -17853,7 +17856,7 @@
         <v>151.23162339999999</v>
       </c>
       <c r="C418" s="2">
-        <v>1359</v>
+        <v>1311</v>
       </c>
       <c r="D418" s="2">
         <v>6</v>
@@ -17894,7 +17897,7 @@
         <v>151.23154270000001</v>
       </c>
       <c r="C419" s="2">
-        <v>1311</v>
+        <v>10649</v>
       </c>
       <c r="D419" s="2">
         <v>4</v>
@@ -17935,7 +17938,7 @@
         <v>151.23154270000001</v>
       </c>
       <c r="C420" s="2">
-        <v>10649</v>
+        <v>9684</v>
       </c>
       <c r="D420" s="2">
         <v>4</v>
@@ -17976,7 +17979,7 @@
         <v>151.23154270000001</v>
       </c>
       <c r="C421" s="2">
-        <v>9684</v>
+        <v>10655</v>
       </c>
       <c r="D421" s="2">
         <v>4</v>
@@ -18017,7 +18020,7 @@
         <v>151.2314058</v>
       </c>
       <c r="C422" s="2">
-        <v>10655</v>
+        <v>2479</v>
       </c>
       <c r="D422" s="2">
         <v>4</v>
@@ -18058,7 +18061,7 @@
         <v>151.2314058</v>
       </c>
       <c r="C423" s="2">
-        <v>2479</v>
+        <v>2441</v>
       </c>
       <c r="D423" s="2">
         <v>4</v>
@@ -18099,7 +18102,7 @@
         <v>151.2314058</v>
       </c>
       <c r="C424" s="2">
-        <v>2441</v>
+        <v>2431</v>
       </c>
       <c r="D424" s="2">
         <v>4</v>
@@ -18135,9 +18138,7 @@
     <row r="425" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
-      <c r="C425" s="2">
-        <v>2431</v>
-      </c>
+      <c r="C425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
@@ -18962,7 +18963,6 @@
     <row r="480" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
-      <c r="C480" s="2"/>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
@@ -19005,6 +19005,7 @@
     <row r="483" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
+      <c r="C483" s="2"/>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
       <c r="F483" s="2"/>
@@ -19699,7 +19700,6 @@
     <row r="531" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
-      <c r="C531" s="2"/>
       <c r="D531" s="2"/>
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>

--- a/All Blackspots.xlsx
+++ b/All Blackspots.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$1</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="143">
   <si>
     <t>lat</t>
   </si>
@@ -448,6 +451,15 @@
   <si>
     <t>08:cc:68:9f:79:ee</t>
   </si>
+  <si>
+    <t>possible_l2</t>
+  </si>
+  <si>
+    <t>l2_reassoc_time</t>
+  </si>
+  <si>
+    <t>l3_reassoc_time</t>
+  </si>
 </sst>
 </file>
 
@@ -489,10 +501,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,20 +785,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N531"/>
+  <dimension ref="A1:P531"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="F156" sqref="F156"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="8" max="8" width="17.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="16" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -823,8 +841,17 @@
       <c r="M1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-33.917171500000002</v>
       </c>
@@ -864,8 +891,20 @@
       <c r="M2">
         <v>1507691502634</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" t="str">
+        <f>IF(AND(NOT(I2=J2), NOT(OR((I2="null"), (J2="null"), (I2="00:00:00:00:00:00"), (J2="00:00:00:00:00:00")))), "Yes", "No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O2" t="str">
+        <f>IF(AND(N2="Yes", H2="L3"), C2, "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="P2" t="b">
+        <f>IF(AND(H2="L4", N2="No"), C2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-33.91771842</v>
       </c>
@@ -905,8 +944,20 @@
       <c r="M3">
         <v>1507691521845</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N66" si="0">IF(AND(NOT(I3=J3), NOT(OR((I3="null"), (J3="null"), (I3="00:00:00:00:00:00"), (J3="00:00:00:00:00:00")))), "Yes", "No")</f>
+        <v>No</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O66" si="1">IF(AND(N3="Yes", H3="L3"), C3, "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="P3">
+        <f>IF(AND(H3="L4", N3="No"), C3)</f>
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-33.917863109999999</v>
       </c>
@@ -946,8 +997,20 @@
       <c r="M4">
         <v>1507691562481</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P4" t="b">
+        <f>IF(AND(H4="L4", N4="No"), C4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-33.917932720000003</v>
       </c>
@@ -987,8 +1050,20 @@
       <c r="M5">
         <v>1507691566420</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P5">
+        <f>IF(AND(H5="L4", N5="No"), C5)</f>
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-33.917998480000001</v>
       </c>
@@ -1028,8 +1103,20 @@
       <c r="M6">
         <v>1507691603325</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P6" t="b">
+        <f>IF(AND(H6="L4", N6="No"), C6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-33.917996899999999</v>
       </c>
@@ -1069,8 +1156,20 @@
       <c r="M7">
         <v>1507691612854</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P7">
+        <f>IF(AND(H7="L4", N7="No"), C7)</f>
+        <v>6067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-33.917992249999998</v>
       </c>
@@ -1110,8 +1209,20 @@
       <c r="M8">
         <v>1507691625520</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P8">
+        <f>IF(AND(H8="L4", N8="No"), C8)</f>
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-33.917986429999999</v>
       </c>
@@ -1151,8 +1262,20 @@
       <c r="M9">
         <v>1507691640887</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P9">
+        <f>IF(AND(H9="L4", N9="No"), C9)</f>
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-33.917983159999999</v>
       </c>
@@ -1192,8 +1315,20 @@
       <c r="M10">
         <v>1507691746973</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P10">
+        <f>IF(AND(H10="L4", N10="No"), C10)</f>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-33.918003599999999</v>
       </c>
@@ -1233,8 +1368,20 @@
       <c r="M11">
         <v>1507691808752</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P11">
+        <f>IF(AND(H11="L4", N11="No"), C11)</f>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-33.918006290000001</v>
       </c>
@@ -1274,8 +1421,20 @@
       <c r="M12">
         <v>1507691951292</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P12" t="b">
+        <f>IF(AND(H12="L4", N12="No"), C12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-33.918048380000002</v>
       </c>
@@ -1315,8 +1474,20 @@
       <c r="M13">
         <v>1507691994391</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P13">
+        <f>IF(AND(H13="L4", N13="No"), C13)</f>
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-33.918555429999998</v>
       </c>
@@ -1356,8 +1527,20 @@
       <c r="M14">
         <v>1507692054249</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P14" t="b">
+        <f>IF(AND(H14="L4", N14="No"), C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-33.918702150000001</v>
       </c>
@@ -1397,8 +1580,20 @@
       <c r="M15">
         <v>1507692062170</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P15">
+        <f>IF(AND(H15="L4", N15="No"), C15)</f>
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-33.91875761</v>
       </c>
@@ -1438,8 +1633,20 @@
       <c r="M16">
         <v>1507692069539</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P16">
+        <f>IF(AND(H16="L4", N16="No"), C16)</f>
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-33.918894569999999</v>
       </c>
@@ -1479,8 +1686,20 @@
       <c r="M17">
         <v>1507692082563</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P17">
+        <f>IF(AND(H17="L4", N17="No"), C17)</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-33.918946900000002</v>
       </c>
@@ -1520,8 +1739,20 @@
       <c r="M18">
         <v>1507692103327</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P18" t="b">
+        <f>IF(AND(H18="L4", N18="No"), C18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-33.919408590000003</v>
       </c>
@@ -1561,8 +1792,20 @@
       <c r="M19">
         <v>1507692134041</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>7575</v>
+      </c>
+      <c r="P19" t="b">
+        <f>IF(AND(H19="L4", N19="No"), C19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-33.919162749999998</v>
       </c>
@@ -1602,8 +1845,20 @@
       <c r="M20">
         <v>1507692135039</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P20">
+        <f>IF(AND(H20="L4", N20="No"), C20)</f>
+        <v>30628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-33.919886699999999</v>
       </c>
@@ -1643,8 +1898,20 @@
       <c r="M21">
         <v>1507692396526</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>1812</v>
+      </c>
+      <c r="P21" t="b">
+        <f>IF(AND(H21="L4", N21="No"), C21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-33.919802949999998</v>
       </c>
@@ -1684,8 +1951,20 @@
       <c r="M22">
         <v>1507692397331</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P22">
+        <f>IF(AND(H22="L4", N22="No"), C22)</f>
+        <v>52562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-33.919089919999998</v>
       </c>
@@ -1725,8 +2004,20 @@
       <c r="M23">
         <v>1507692465986</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>1876</v>
+      </c>
+      <c r="P23" t="b">
+        <f>IF(AND(H23="L4", N23="No"), C23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-33.918908940000001</v>
       </c>
@@ -1766,8 +2057,20 @@
       <c r="M24">
         <v>1507692482334</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>802</v>
+      </c>
+      <c r="P24" t="b">
+        <f>IF(AND(H24="L4", N24="No"), C24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-33.919496649999999</v>
       </c>
@@ -1807,8 +2110,20 @@
       <c r="M25">
         <v>1507692483261</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P25">
+        <f>IF(AND(H25="L4", N25="No"), C25)</f>
+        <v>51354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-33.917907960000001</v>
       </c>
@@ -1848,8 +2163,20 @@
       <c r="M26">
         <v>1507692576579</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>1810</v>
+      </c>
+      <c r="P26" t="b">
+        <f>IF(AND(H26="L4", N26="No"), C26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-33.918248689999999</v>
       </c>
@@ -1889,8 +2216,20 @@
       <c r="M27">
         <v>1507692577667</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P27">
+        <f>IF(AND(H27="L4", N27="No"), C27)</f>
+        <v>39331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-33.917872369999998</v>
       </c>
@@ -1930,8 +2269,20 @@
       <c r="M28">
         <v>1507692705059</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P28" t="b">
+        <f>IF(AND(H28="L4", N28="No"), C28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-33.917779269999997</v>
       </c>
@@ -1971,8 +2322,20 @@
       <c r="M29">
         <v>1507692737245</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P29" t="b">
+        <f>IF(AND(H29="L4", N29="No"), C29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-33.917762959999997</v>
       </c>
@@ -2012,8 +2375,20 @@
       <c r="M30">
         <v>1507692749351</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P30">
+        <f>IF(AND(H30="L4", N30="No"), C30)</f>
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-33.917664469999998</v>
       </c>
@@ -2053,8 +2428,20 @@
       <c r="M31">
         <v>1507692776867</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>764</v>
+      </c>
+      <c r="P31" t="b">
+        <f>IF(AND(H31="L4", N31="No"), C31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-33.917743520000002</v>
       </c>
@@ -2094,8 +2481,20 @@
       <c r="M32">
         <v>1507692777530</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P32">
+        <f>IF(AND(H32="L4", N32="No"), C32)</f>
+        <v>18309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-33.917576949999997</v>
       </c>
@@ -2135,8 +2534,20 @@
       <c r="M33">
         <v>1507692812490</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P33" t="b">
+        <f>IF(AND(H33="L4", N33="No"), C33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-33.917450189999997</v>
       </c>
@@ -2176,8 +2587,20 @@
       <c r="M34">
         <v>1507692875838</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P34" t="b">
+        <f>IF(AND(H34="L4", N34="No"), C34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-33.917382869999997</v>
       </c>
@@ -2217,8 +2640,20 @@
       <c r="M35">
         <v>1507692953573</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>794</v>
+      </c>
+      <c r="P35" t="b">
+        <f>IF(AND(H35="L4", N35="No"), C35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-33.917279499999999</v>
       </c>
@@ -2258,8 +2693,20 @@
       <c r="M36">
         <v>1507692995418</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P36">
+        <f>IF(AND(H36="L4", N36="No"), C36)</f>
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>-33.917279499999999</v>
       </c>
@@ -2299,8 +2746,20 @@
       <c r="M37">
         <v>1507692996300</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P37" t="b">
+        <f>IF(AND(H37="L4", N37="No"), C37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-33.917269509999997</v>
       </c>
@@ -2340,8 +2799,20 @@
       <c r="M38">
         <v>1507693009565</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P38" t="b">
+        <f>IF(AND(H38="L4", N38="No"), C38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>-33.917245649999998</v>
       </c>
@@ -2381,8 +2852,20 @@
       <c r="M39">
         <v>1507693071986</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P39">
+        <f>IF(AND(H39="L4", N39="No"), C39)</f>
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>-33.91739295</v>
       </c>
@@ -2422,8 +2905,20 @@
       <c r="M40">
         <v>1507693201047</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P40">
+        <f>IF(AND(H40="L4", N40="No"), C40)</f>
+        <v>4918</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-33.91743889</v>
       </c>
@@ -2463,8 +2958,20 @@
       <c r="M41">
         <v>1507693208210</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P41">
+        <f>IF(AND(H41="L4", N41="No"), C41)</f>
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>-33.917449730000001</v>
       </c>
@@ -2504,8 +3011,20 @@
       <c r="M42">
         <v>1507693217359</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P42">
+        <f>IF(AND(H42="L4", N42="No"), C42)</f>
+        <v>6521</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>-33.917464420000002</v>
       </c>
@@ -2545,8 +3064,20 @@
       <c r="M43">
         <v>1507693221288</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P43">
+        <f>IF(AND(H43="L4", N43="No"), C43)</f>
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-33.917538059999998</v>
       </c>
@@ -2586,8 +3117,20 @@
       <c r="M44">
         <v>1507693285609</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="1"/>
+        <v>1765</v>
+      </c>
+      <c r="P44" t="b">
+        <f>IF(AND(H44="L4", N44="No"), C44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>-33.917486480000001</v>
       </c>
@@ -2627,8 +3170,20 @@
       <c r="M45">
         <v>1507693286805</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P45">
+        <f>IF(AND(H45="L4", N45="No"), C45)</f>
+        <v>62646</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-33.917405969999997</v>
       </c>
@@ -2668,8 +3223,20 @@
       <c r="M46">
         <v>1507693306257</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P46">
+        <f>IF(AND(H46="L4", N46="No"), C46)</f>
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>-33.917369020000002</v>
       </c>
@@ -2709,8 +3276,20 @@
       <c r="M47">
         <v>1507693320861</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P47" t="b">
+        <f>IF(AND(H47="L4", N47="No"), C47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>-33.91742198</v>
       </c>
@@ -2750,8 +3329,20 @@
       <c r="M48">
         <v>1507693375515</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P48" t="b">
+        <f>IF(AND(H48="L4", N48="No"), C48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>-33.917138620000003</v>
       </c>
@@ -2791,8 +3382,20 @@
       <c r="M49">
         <v>1507693419567</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P49" t="b">
+        <f>IF(AND(H49="L4", N49="No"), C49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>-33.917126949999997</v>
       </c>
@@ -2832,8 +3435,20 @@
       <c r="M50">
         <v>1507693430492</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P50" t="b">
+        <f>IF(AND(H50="L4", N50="No"), C50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-33.917068049999997</v>
       </c>
@@ -2873,8 +3488,20 @@
       <c r="M51">
         <v>1507693458297</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P51" t="b">
+        <f>IF(AND(H51="L4", N51="No"), C51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-33.916814199999997</v>
       </c>
@@ -2914,8 +3541,20 @@
       <c r="M52">
         <v>1507693518850</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P52" t="b">
+        <f>IF(AND(H52="L4", N52="No"), C52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>-33.916608330000003</v>
       </c>
@@ -2955,8 +3594,20 @@
       <c r="M53">
         <v>1507693525316</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P53">
+        <f>IF(AND(H53="L4", N53="No"), C53)</f>
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>-33.916516260000002</v>
       </c>
@@ -2996,8 +3647,20 @@
       <c r="M54">
         <v>1507693546769</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P54" t="b">
+        <f>IF(AND(H54="L4", N54="No"), C54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-33.91587621</v>
       </c>
@@ -3037,8 +3700,20 @@
       <c r="M55">
         <v>1507693723871</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="1"/>
+        <v>1760</v>
+      </c>
+      <c r="P55" t="b">
+        <f>IF(AND(H55="L4", N55="No"), C55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>-33.916087449999999</v>
       </c>
@@ -3078,8 +3753,20 @@
       <c r="M56">
         <v>1507693724892</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P56">
+        <f>IF(AND(H56="L4", N56="No"), C56)</f>
+        <v>146044</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>-33.915751319999998</v>
       </c>
@@ -3119,8 +3806,20 @@
       <c r="M57">
         <v>1507693798806</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="1"/>
+        <v>5209</v>
+      </c>
+      <c r="P57" t="b">
+        <f>IF(AND(H57="L4", N57="No"), C57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>-33.915739530000003</v>
       </c>
@@ -3160,8 +3859,20 @@
       <c r="M58">
         <v>1507693799783</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P58">
+        <f>IF(AND(H58="L4", N58="No"), C58)</f>
+        <v>17186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-33.915551360000002</v>
       </c>
@@ -3201,8 +3912,20 @@
       <c r="M59">
         <v>1507693882497</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P59" t="b">
+        <f>IF(AND(H59="L4", N59="No"), C59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>-33.915476439999999</v>
       </c>
@@ -3242,8 +3965,20 @@
       <c r="M60">
         <v>1507693886762</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P60">
+        <f>IF(AND(H60="L4", N60="No"), C60)</f>
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>-33.915490759999997</v>
       </c>
@@ -3283,8 +4018,20 @@
       <c r="M61">
         <v>1507693897439</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P61" t="b">
+        <f>IF(AND(H61="L4", N61="No"), C61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>-33.916804339999999</v>
       </c>
@@ -3324,8 +4071,20 @@
       <c r="M62">
         <v>1507694044651</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="1"/>
+        <v>14792</v>
+      </c>
+      <c r="P62" t="b">
+        <f>IF(AND(H62="L4", N62="No"), C62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>-33.916598839999999</v>
       </c>
@@ -3365,8 +4124,20 @@
       <c r="M63">
         <v>1507694045655</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P63">
+        <f>IF(AND(H63="L4", N63="No"), C63)</f>
+        <v>35108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>-33.9169549</v>
       </c>
@@ -3406,8 +4177,20 @@
       <c r="M64">
         <v>1507694053227</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P64">
+        <f>IF(AND(H64="L4", N64="No"), C64)</f>
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-33.917068649999997</v>
       </c>
@@ -3447,8 +4230,20 @@
       <c r="M65">
         <v>1507694075566</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65" t="str">
+        <f t="shared" si="0"/>
+        <v>No</v>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="1"/>
+        <v>N/A</v>
+      </c>
+      <c r="P65">
+        <f>IF(AND(H65="L4", N65="No"), C65)</f>
+        <v>15845</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-33.9172358</v>
       </c>
@@ -3488,8 +4283,20 @@
       <c r="M66">
         <v>1507694109205</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="1"/>
+        <v>1702</v>
+      </c>
+      <c r="P66" t="b">
+        <f>IF(AND(H66="L4", N66="No"), C66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-33.917239360000004</v>
       </c>
@@ -3529,8 +4336,20 @@
       <c r="M67">
         <v>1507694110253</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67" t="str">
+        <f t="shared" ref="N67:N130" si="2">IF(AND(NOT(I67=J67), NOT(OR((I67="null"), (J67="null"), (I67="00:00:00:00:00:00"), (J67="00:00:00:00:00:00")))), "Yes", "No")</f>
+        <v>No</v>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" ref="O67:O130" si="3">IF(AND(N67="Yes", H67="L3"), C67, "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="P67">
+        <f>IF(AND(H67="L4", N67="No"), C67)</f>
+        <v>32119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-33.917268489999998</v>
       </c>
@@ -3570,8 +4389,20 @@
       <c r="M68">
         <v>1507694195377</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="3"/>
+        <v>1993</v>
+      </c>
+      <c r="P68" t="b">
+        <f>IF(AND(H68="L4", N68="No"), C68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-33.917269109999999</v>
       </c>
@@ -3611,8 +4442,20 @@
       <c r="M69">
         <v>1507694196080</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P69">
+        <f>IF(AND(H69="L4", N69="No"), C69)</f>
+        <v>14005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-33.917585950000003</v>
       </c>
@@ -3652,8 +4495,20 @@
       <c r="M70">
         <v>1507694327228</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P70" t="b">
+        <f>IF(AND(H70="L4", N70="No"), C70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>-33.917811200000003</v>
       </c>
@@ -3693,8 +4548,20 @@
       <c r="M71">
         <v>1507694354168</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O71" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P71">
+        <f>IF(AND(H71="L4", N71="No"), C71)</f>
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-33.917899230000003</v>
       </c>
@@ -3734,8 +4601,20 @@
       <c r="M72">
         <v>1507694358639</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P72">
+        <f>IF(AND(H72="L4", N72="No"), C72)</f>
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>-33.917934600000002</v>
       </c>
@@ -3775,8 +4654,20 @@
       <c r="M73">
         <v>1507694362371</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P73" t="b">
+        <f>IF(AND(H73="L4", N73="No"), C73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>-33.917954289999997</v>
       </c>
@@ -3816,8 +4707,20 @@
       <c r="M74">
         <v>1507694367690</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O74" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P74">
+        <f>IF(AND(H74="L4", N74="No"), C74)</f>
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>-33.918797169999998</v>
       </c>
@@ -3857,8 +4760,20 @@
       <c r="M75">
         <v>1507694556103</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O75" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P75" t="b">
+        <f>IF(AND(H75="L4", N75="No"), C75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>-33.918228149999997</v>
       </c>
@@ -3898,8 +4813,20 @@
       <c r="M76">
         <v>1507694615784</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O76" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P76" t="b">
+        <f>IF(AND(H76="L4", N76="No"), C76)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>-33.917690810000003</v>
       </c>
@@ -3939,8 +4866,20 @@
       <c r="M77">
         <v>1507694690228</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="3"/>
+        <v>1748</v>
+      </c>
+      <c r="P77" t="b">
+        <f>IF(AND(H77="L4", N77="No"), C77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>-33.918020980000001</v>
       </c>
@@ -3980,8 +4919,20 @@
       <c r="M78">
         <v>1507694695772</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O78" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P78">
+        <f>IF(AND(H78="L4", N78="No"), C78)</f>
+        <v>59936</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>-33.917478860000003</v>
       </c>
@@ -4021,8 +4972,20 @@
       <c r="M79">
         <v>1507694735385</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O79" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P79" t="b">
+        <f>IF(AND(H79="L4", N79="No"), C79)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-33.917415200000001</v>
       </c>
@@ -4062,8 +5025,20 @@
       <c r="M80">
         <v>1507694746077</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O80" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P80" t="b">
+        <f>IF(AND(H80="L4", N80="No"), C80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>-33.917415200000001</v>
       </c>
@@ -4103,8 +5078,20 @@
       <c r="M81">
         <v>1507694753619</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O81" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P81">
+        <f>IF(AND(H81="L4", N81="No"), C81)</f>
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>-33.917011109999997</v>
       </c>
@@ -4144,8 +5131,20 @@
       <c r="M82">
         <v>1507694763337</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O82" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P82">
+        <f>IF(AND(H82="L4", N82="No"), C82)</f>
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>-33.917034770000001</v>
       </c>
@@ -4185,8 +5184,20 @@
       <c r="M83">
         <v>1507694787847</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P83">
+        <f>IF(AND(H83="L4", N83="No"), C83)</f>
+        <v>20358</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>-33.916890539999997</v>
       </c>
@@ -4226,8 +5237,20 @@
       <c r="M84">
         <v>1507694815721</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P84">
+        <f>IF(AND(H84="L4", N84="No"), C84)</f>
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>-33.916846169999999</v>
       </c>
@@ -4267,8 +5290,20 @@
       <c r="M85">
         <v>1507694866659</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="3"/>
+        <v>1779</v>
+      </c>
+      <c r="P85" t="b">
+        <f>IF(AND(H85="L4", N85="No"), C85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>-33.916896999999999</v>
       </c>
@@ -4308,8 +5343,20 @@
       <c r="M86">
         <v>1507694867790</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N86" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P86">
+        <f>IF(AND(H86="L4", N86="No"), C86)</f>
+        <v>32380</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>-33.916804380000002</v>
       </c>
@@ -4349,8 +5396,20 @@
       <c r="M87">
         <v>1507694873464</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P87">
+        <f>IF(AND(H87="L4", N87="No"), C87)</f>
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>-33.91686103</v>
       </c>
@@ -4390,8 +5449,20 @@
       <c r="M88">
         <v>1507695038186</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N88" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P88" t="b">
+        <f>IF(AND(H88="L4", N88="No"), C88)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>-33.9169318</v>
       </c>
@@ -4431,8 +5502,20 @@
       <c r="M89">
         <v>1507695048659</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N89" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P89">
+        <f>IF(AND(H89="L4", N89="No"), C89)</f>
+        <v>8374</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>-33.917031600000001</v>
       </c>
@@ -4472,8 +5555,20 @@
       <c r="M90">
         <v>1507695068329</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N90" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P90" t="b">
+        <f>IF(AND(H90="L4", N90="No"), C90)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>-33.917148500000003</v>
       </c>
@@ -4513,8 +5608,20 @@
       <c r="M91">
         <v>1507695077240</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N91" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P91">
+        <f>IF(AND(H91="L4", N91="No"), C91)</f>
+        <v>6169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>-33.917148500000003</v>
       </c>
@@ -4554,8 +5661,20 @@
       <c r="M92">
         <v>1507695083328</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N92" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P92">
+        <f>IF(AND(H92="L4", N92="No"), C92)</f>
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>-33.917160180000003</v>
       </c>
@@ -4595,8 +5714,20 @@
       <c r="M93">
         <v>1507695104720</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N93" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="3"/>
+        <v>788</v>
+      </c>
+      <c r="P93" t="b">
+        <f>IF(AND(H93="L4", N93="No"), C93)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>-33.917051270000002</v>
       </c>
@@ -4636,8 +5767,20 @@
       <c r="M94">
         <v>1507695105822</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P94">
+        <f>IF(AND(H94="L4", N94="No"), C94)</f>
+        <v>16767</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>-33.9170917</v>
       </c>
@@ -4677,8 +5820,20 @@
       <c r="M95">
         <v>1507695130705</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P95" t="b">
+        <f>IF(AND(H95="L4", N95="No"), C95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>-33.9170917</v>
       </c>
@@ -4718,8 +5873,20 @@
       <c r="M96">
         <v>1507695142865</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P96">
+        <f>IF(AND(H96="L4", N96="No"), C96)</f>
+        <v>8275</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>-33.916936999999997</v>
       </c>
@@ -4759,8 +5926,20 @@
       <c r="M97">
         <v>1507695155591</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P97" t="b">
+        <f>IF(AND(H97="L4", N97="No"), C97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>-33.916936999999997</v>
       </c>
@@ -4800,8 +5979,20 @@
       <c r="M98">
         <v>1507695165322</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P98" t="b">
+        <f>IF(AND(H98="L4", N98="No"), C98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>-33.916871800000003</v>
       </c>
@@ -4841,8 +6032,20 @@
       <c r="M99">
         <v>1507695184430</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P99" t="b">
+        <f>IF(AND(H99="L4", N99="No"), C99)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>-33.917171500000002</v>
       </c>
@@ -4882,8 +6085,20 @@
       <c r="M100">
         <v>1507695196986</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N100" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P100">
+        <f>IF(AND(H100="L4", N100="No"), C100)</f>
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>-33.91727144</v>
       </c>
@@ -4923,8 +6138,20 @@
       <c r="M101">
         <v>1507695221819</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P101">
+        <f>IF(AND(H101="L4", N101="No"), C101)</f>
+        <v>17598</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>-33.917395519999999</v>
       </c>
@@ -4964,8 +6191,20 @@
       <c r="M102">
         <v>1507695232178</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P102">
+        <f>IF(AND(H102="L4", N102="No"), C102)</f>
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>-33.9174577</v>
       </c>
@@ -5005,8 +6244,20 @@
       <c r="M103">
         <v>1507695250140</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="3"/>
+        <v>1777</v>
+      </c>
+      <c r="P103" t="b">
+        <f>IF(AND(H103="L4", N103="No"), C103)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>-33.917423360000001</v>
       </c>
@@ -5046,8 +6297,20 @@
       <c r="M104">
         <v>1507695251421</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N104" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P104">
+        <f>IF(AND(H104="L4", N104="No"), C104)</f>
+        <v>17159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>-33.917440169999999</v>
       </c>
@@ -5087,8 +6350,20 @@
       <c r="M105">
         <v>1507695264750</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P105">
+        <f>IF(AND(H105="L4", N105="No"), C105)</f>
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>-33.917626419999998</v>
       </c>
@@ -5128,8 +6403,20 @@
       <c r="M106">
         <v>1507695292317</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N106" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P106">
+        <f>IF(AND(H106="L4", N106="No"), C106)</f>
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>-33.9178681</v>
       </c>
@@ -5169,8 +6456,20 @@
       <c r="M107">
         <v>1507695323988</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N107" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P107">
+        <f>IF(AND(H107="L4", N107="No"), C107)</f>
+        <v>7940</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>-33.917912860000001</v>
       </c>
@@ -5210,8 +6509,20 @@
       <c r="M108">
         <v>1507695355296</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N108" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="3"/>
+        <v>1768</v>
+      </c>
+      <c r="P108" t="b">
+        <f>IF(AND(H108="L4", N108="No"), C108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>-33.917939680000003</v>
       </c>
@@ -5251,8 +6562,20 @@
       <c r="M109">
         <v>1507695355988</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N109" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O109" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P109">
+        <f>IF(AND(H109="L4", N109="No"), C109)</f>
+        <v>24322</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>-33.918135390000003</v>
       </c>
@@ -5292,8 +6615,20 @@
       <c r="M110">
         <v>1507695377022</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N110" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O110" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P110">
+        <f>IF(AND(H110="L4", N110="No"), C110)</f>
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>-33.918043650000001</v>
       </c>
@@ -5333,8 +6668,20 @@
       <c r="M111">
         <v>1507695436156</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N111" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O111" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P111" t="b">
+        <f>IF(AND(H111="L4", N111="No"), C111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>-33.918302529999998</v>
       </c>
@@ -5374,8 +6721,20 @@
       <c r="M112">
         <v>1507695528966</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N112" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="3"/>
+        <v>1790</v>
+      </c>
+      <c r="P112" t="b">
+        <f>IF(AND(H112="L4", N112="No"), C112)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>-33.918233909999998</v>
       </c>
@@ -5415,8 +6774,20 @@
       <c r="M113">
         <v>1507695529708</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N113" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O113" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P113">
+        <f>IF(AND(H113="L4", N113="No"), C113)</f>
+        <v>37371</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>-33.918685600000003</v>
       </c>
@@ -5456,8 +6827,20 @@
       <c r="M114">
         <v>1507695580312</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N114" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O114" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P114" t="b">
+        <f>IF(AND(H114="L4", N114="No"), C114)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>-33.918792600000003</v>
       </c>
@@ -5497,8 +6880,20 @@
       <c r="M115">
         <v>1507695626541</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O115" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P115" t="b">
+        <f>IF(AND(H115="L4", N115="No"), C115)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>-33.918820400000001</v>
       </c>
@@ -5538,8 +6933,20 @@
       <c r="M116">
         <v>1507695631055</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N116" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O116" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P116">
+        <f>IF(AND(H116="L4", N116="No"), C116)</f>
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>-33.918548340000001</v>
       </c>
@@ -5579,8 +6986,20 @@
       <c r="M117">
         <v>1507695667280</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N117" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O117" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P117">
+        <f>IF(AND(H117="L4", N117="No"), C117)</f>
+        <v>5378</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>-33.9185485</v>
       </c>
@@ -5620,8 +7039,20 @@
       <c r="M118">
         <v>1507695682920</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N118" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O118" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P118" t="b">
+        <f>IF(AND(H118="L4", N118="No"), C118)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>-33.918598119999999</v>
       </c>
@@ -5661,8 +7092,20 @@
       <c r="M119">
         <v>1507695726174</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N119" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="3"/>
+        <v>729</v>
+      </c>
+      <c r="P119" t="b">
+        <f>IF(AND(H119="L4", N119="No"), C119)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>-33.918623609999997</v>
       </c>
@@ -5702,8 +7145,20 @@
       <c r="M120">
         <v>1507695727291</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N120" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O120" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P120">
+        <f>IF(AND(H120="L4", N120="No"), C120)</f>
+        <v>28312</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>-33.918275250000001</v>
       </c>
@@ -5743,8 +7198,20 @@
       <c r="M121">
         <v>1507695757198</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N121" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="3"/>
+        <v>742</v>
+      </c>
+      <c r="P121" t="b">
+        <f>IF(AND(H121="L4", N121="No"), C121)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>-33.91855958</v>
       </c>
@@ -5784,8 +7251,20 @@
       <c r="M122">
         <v>1507695758102</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N122" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O122" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P122">
+        <f>IF(AND(H122="L4", N122="No"), C122)</f>
+        <v>21558</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>-33.917590820000001</v>
       </c>
@@ -5825,8 +7304,20 @@
       <c r="M123">
         <v>1507695836769</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N123" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="3"/>
+        <v>1761</v>
+      </c>
+      <c r="P123" t="b">
+        <f>IF(AND(H123="L4", N123="No"), C123)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>-33.917973230000001</v>
       </c>
@@ -5866,8 +7357,20 @@
       <c r="M124">
         <v>1507695837820</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N124" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O124" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P124">
+        <f>IF(AND(H124="L4", N124="No"), C124)</f>
+        <v>51334</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>-33.9173969</v>
       </c>
@@ -5907,8 +7410,20 @@
       <c r="M125">
         <v>1507695863966</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N125" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O125" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P125">
+        <f>IF(AND(H125="L4", N125="No"), C125)</f>
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>-33.9173969</v>
       </c>
@@ -5948,8 +7463,20 @@
       <c r="M126">
         <v>1507695870248</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N126" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O126" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P126" t="b">
+        <f>IF(AND(H126="L4", N126="No"), C126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>-33.917073879999997</v>
       </c>
@@ -5989,8 +7516,20 @@
       <c r="M127">
         <v>1507695876609</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N127" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O127" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P127">
+        <f>IF(AND(H127="L4", N127="No"), C127)</f>
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>-33.916850869999998</v>
       </c>
@@ -6030,8 +7569,20 @@
       <c r="M128">
         <v>1507695883160</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N128" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O128" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P128" t="b">
+        <f>IF(AND(H128="L4", N128="No"), C128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>-33.916664179999998</v>
       </c>
@@ -6071,8 +7622,20 @@
       <c r="M129">
         <v>1507695899007</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N129" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="O129" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P129" t="b">
+        <f>IF(AND(H129="L4", N129="No"), C129)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>-33.91713343</v>
       </c>
@@ -6112,8 +7675,20 @@
       <c r="M130">
         <v>1507695931012</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N130" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="O130" t="str">
+        <f t="shared" si="3"/>
+        <v>N/A</v>
+      </c>
+      <c r="P130">
+        <f>IF(AND(H130="L4", N130="No"), C130)</f>
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>-33.91713961</v>
       </c>
@@ -6153,8 +7728,20 @@
       <c r="M131">
         <v>1507695935990</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N131" t="str">
+        <f t="shared" ref="N131:N194" si="4">IF(AND(NOT(I131=J131), NOT(OR((I131="null"), (J131="null"), (I131="00:00:00:00:00:00"), (J131="00:00:00:00:00:00")))), "Yes", "No")</f>
+        <v>No</v>
+      </c>
+      <c r="O131" t="str">
+        <f t="shared" ref="O131:O194" si="5">IF(AND(N131="Yes", H131="L3"), C131, "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="P131">
+        <f>IF(AND(H131="L4", N131="No"), C131)</f>
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>-33.917144190000002</v>
       </c>
@@ -6194,8 +7781,20 @@
       <c r="M132">
         <v>1507695939723</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N132" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="O132" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P132" t="b">
+        <f>IF(AND(H132="L4", N132="No"), C132)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>-33.917114490000003</v>
       </c>
@@ -6235,8 +7834,20 @@
       <c r="M133">
         <v>1507695950578</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N133" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="O133" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P133" t="b">
+        <f>IF(AND(H133="L4", N133="No"), C133)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>-33.917234800000003</v>
       </c>
@@ -6276,8 +7887,20 @@
       <c r="M134">
         <v>1507695959860</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N134" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O134" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P134">
+        <f>IF(AND(H134="L4", N134="No"), C134)</f>
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>-33.917234800000003</v>
       </c>
@@ -6317,8 +7940,20 @@
       <c r="M135">
         <v>1507695971186</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N135" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O135" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P135">
+        <f>IF(AND(H135="L4", N135="No"), C135)</f>
+        <v>9048</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>-33.917154050000001</v>
       </c>
@@ -6358,8 +7993,20 @@
       <c r="M136">
         <v>1507695975964</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N136" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O136" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P136">
+        <f>IF(AND(H136="L4", N136="No"), C136)</f>
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>-33.917323039999999</v>
       </c>
@@ -6399,8 +8046,20 @@
       <c r="M137">
         <v>1507696027198</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N137" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="O137" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P137" t="b">
+        <f>IF(AND(H137="L4", N137="No"), C137)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>-33.9173148</v>
       </c>
@@ -6440,8 +8099,20 @@
       <c r="M138">
         <v>1507696037508</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N138" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O138" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P138">
+        <f>IF(AND(H138="L4", N138="No"), C138)</f>
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>-33.917311490000003</v>
       </c>
@@ -6481,8 +8152,20 @@
       <c r="M139">
         <v>1507696054383</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N139" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O139" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P139">
+        <f>IF(AND(H139="L4", N139="No"), C139)</f>
+        <v>13038</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>-33.917293350000001</v>
       </c>
@@ -6522,8 +8205,20 @@
       <c r="M140">
         <v>1507696084343</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N140" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="O140" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P140" t="b">
+        <f>IF(AND(H140="L4", N140="No"), C140)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>-33.917143899999999</v>
       </c>
@@ -6563,8 +8258,20 @@
       <c r="M141">
         <v>1507696096862</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N141" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O141" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P141">
+        <f>IF(AND(H141="L4", N141="No"), C141)</f>
+        <v>10423</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>-33.917082600000001</v>
       </c>
@@ -6604,8 +8311,20 @@
       <c r="M142">
         <v>1507696102675</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N142" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O142" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P142">
+        <f>IF(AND(H142="L4", N142="No"), C142)</f>
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>-33.917082600000001</v>
       </c>
@@ -6645,8 +8364,20 @@
       <c r="M143">
         <v>1507696122903</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N143" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="O143" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P143" t="b">
+        <f>IF(AND(H143="L4", N143="No"), C143)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>-33.91714296</v>
       </c>
@@ -6686,8 +8417,20 @@
       <c r="M144">
         <v>1507696137031</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N144" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O144" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P144">
+        <f>IF(AND(H144="L4", N144="No"), C144)</f>
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>-33.917025410000001</v>
       </c>
@@ -6727,8 +8470,20 @@
       <c r="M145">
         <v>1507696160465</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N145" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="O145" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P145" t="b">
+        <f>IF(AND(H145="L4", N145="No"), C145)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>-33.917016429999997</v>
       </c>
@@ -6768,8 +8523,20 @@
       <c r="M146">
         <v>1507696170622</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N146" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="O146" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P146" t="b">
+        <f>IF(AND(H146="L4", N146="No"), C146)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>-33.916924399999999</v>
       </c>
@@ -6809,8 +8576,20 @@
       <c r="M147">
         <v>1507696183301</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N147" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O147" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P147">
+        <f>IF(AND(H147="L4", N147="No"), C147)</f>
+        <v>5879</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>-33.916870299999999</v>
       </c>
@@ -6850,8 +8629,20 @@
       <c r="M148">
         <v>1507696191831</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N148" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O148" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P148">
+        <f>IF(AND(H148="L4", N148="No"), C148)</f>
+        <v>4838</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>-33.916870299999999</v>
       </c>
@@ -6891,8 +8682,20 @@
       <c r="M149">
         <v>1507696195354</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N149" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="O149" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P149" t="b">
+        <f>IF(AND(H149="L4", N149="No"), C149)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>-33.916870299999999</v>
       </c>
@@ -6932,8 +8735,20 @@
       <c r="M150">
         <v>1507696201065</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N150" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O150" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P150">
+        <f>IF(AND(H150="L4", N150="No"), C150)</f>
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>-33.916918699999997</v>
       </c>
@@ -6973,8 +8788,20 @@
       <c r="M151">
         <v>1507696204785</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N151" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O151" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P151">
+        <f>IF(AND(H151="L4", N151="No"), C151)</f>
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>-33.916918699999997</v>
       </c>
@@ -7014,8 +8841,20 @@
       <c r="M152">
         <v>1507696212335</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N152" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="O152" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P152" t="b">
+        <f>IF(AND(H152="L4", N152="No"), C152)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>-33.916918699999997</v>
       </c>
@@ -7055,8 +8894,20 @@
       <c r="M153">
         <v>1507696220770</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N153" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O153" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P153">
+        <f>IF(AND(H153="L4", N153="No"), C153)</f>
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>-33.916839299999999</v>
       </c>
@@ -7096,8 +8947,20 @@
       <c r="M154">
         <v>1507696226049</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N154" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O154" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P154">
+        <f>IF(AND(H154="L4", N154="No"), C154)</f>
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>-33.916839299999999</v>
       </c>
@@ -7137,8 +9000,20 @@
       <c r="M155">
         <v>1507696232346</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N155" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O155" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P155">
+        <f>IF(AND(H155="L4", N155="No"), C155)</f>
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>-33.916603100000003</v>
       </c>
@@ -7178,8 +9053,20 @@
       <c r="M156" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N156" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O156" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P156">
+        <f>IF(AND(H156="L4", N156="No"), C156)</f>
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>-33.916592199999997</v>
       </c>
@@ -7219,8 +9106,20 @@
       <c r="M157" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N157" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O157" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P157">
+        <f>IF(AND(H157="L4", N157="No"), C157)</f>
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>-33.916585320000003</v>
       </c>
@@ -7260,8 +9159,20 @@
       <c r="M158" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N158" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O158" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P158">
+        <f>IF(AND(H158="L4", N158="No"), C158)</f>
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>-33.916580060000001</v>
       </c>
@@ -7301,8 +9212,20 @@
       <c r="M159" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N159" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O159" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P159">
+        <f>IF(AND(H159="L4", N159="No"), C159)</f>
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>-33.916572789999996</v>
       </c>
@@ -7342,8 +9265,20 @@
       <c r="M160" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N160" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O160" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P160">
+        <f>IF(AND(H160="L4", N160="No"), C160)</f>
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>-33.916570819999997</v>
       </c>
@@ -7383,8 +9318,20 @@
       <c r="M161" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N161" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O161" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P161">
+        <f>IF(AND(H161="L4", N161="No"), C161)</f>
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>-33.916570739999997</v>
       </c>
@@ -7424,8 +9371,20 @@
       <c r="M162" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N162" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O162" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P162">
+        <f>IF(AND(H162="L4", N162="No"), C162)</f>
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>-33.916571079999997</v>
       </c>
@@ -7465,8 +9424,20 @@
       <c r="M163" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N163" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O163" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P163">
+        <f>IF(AND(H163="L4", N163="No"), C163)</f>
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>-33.916570409999999</v>
       </c>
@@ -7506,8 +9477,20 @@
       <c r="M164" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N164" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O164" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P164">
+        <f>IF(AND(H164="L4", N164="No"), C164)</f>
+        <v>5509</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>-33.916570020000002</v>
       </c>
@@ -7547,8 +9530,20 @@
       <c r="M165" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N165" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O165" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P165">
+        <f>IF(AND(H165="L4", N165="No"), C165)</f>
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>-33.916570540000002</v>
       </c>
@@ -7588,8 +9583,20 @@
       <c r="M166" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N166" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O166" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P166">
+        <f>IF(AND(H166="L4", N166="No"), C166)</f>
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>-33.916570350000001</v>
       </c>
@@ -7629,8 +9636,20 @@
       <c r="M167" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N167" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O167" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P167">
+        <f>IF(AND(H167="L4", N167="No"), C167)</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>-33.916569969999998</v>
       </c>
@@ -7670,8 +9689,20 @@
       <c r="M168" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N168" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O168" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P168">
+        <f>IF(AND(H168="L4", N168="No"), C168)</f>
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>-33.916570010000001</v>
       </c>
@@ -7711,8 +9742,20 @@
       <c r="M169" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N169" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O169" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P169">
+        <f>IF(AND(H169="L4", N169="No"), C169)</f>
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>-33.916568079999998</v>
       </c>
@@ -7752,8 +9795,20 @@
       <c r="M170" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N170" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O170" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P170">
+        <f>IF(AND(H170="L4", N170="No"), C170)</f>
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>-33.916569889999998</v>
       </c>
@@ -7793,8 +9848,20 @@
       <c r="M171" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N171" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O171" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P171">
+        <f>IF(AND(H171="L4", N171="No"), C171)</f>
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>-33.916646489999998</v>
       </c>
@@ -7834,8 +9901,20 @@
       <c r="M172" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N172" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="O172" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P172" t="b">
+        <f>IF(AND(H172="L4", N172="No"), C172)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>-33.916732770000003</v>
       </c>
@@ -7875,8 +9954,20 @@
       <c r="M173" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N173" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O173" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P173">
+        <f>IF(AND(H173="L4", N173="No"), C173)</f>
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>-33.916960369999998</v>
       </c>
@@ -7916,8 +10007,20 @@
       <c r="M174" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N174" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O174" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P174">
+        <f>IF(AND(H174="L4", N174="No"), C174)</f>
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>-33.917114550000001</v>
       </c>
@@ -7957,8 +10060,20 @@
       <c r="M175" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N175" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O175" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P175">
+        <f>IF(AND(H175="L4", N175="No"), C175)</f>
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>-33.917180260000002</v>
       </c>
@@ -7998,8 +10113,20 @@
       <c r="M176" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N176" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O176" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P176">
+        <f>IF(AND(H176="L4", N176="No"), C176)</f>
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>-33.91723082</v>
       </c>
@@ -8039,8 +10166,20 @@
       <c r="M177" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N177" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="O177" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P177" t="b">
+        <f>IF(AND(H177="L4", N177="No"), C177)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>-33.916812530000001</v>
       </c>
@@ -8080,8 +10219,20 @@
       <c r="M178" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N178" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O178" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P178">
+        <f>IF(AND(H178="L4", N178="No"), C178)</f>
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>-33.91684901</v>
       </c>
@@ -8121,8 +10272,20 @@
       <c r="M179" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N179" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="O179" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P179" t="b">
+        <f>IF(AND(H179="L4", N179="No"), C179)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>-33.916898860000003</v>
       </c>
@@ -8162,8 +10325,20 @@
       <c r="M180" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N180" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O180" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P180">
+        <f>IF(AND(H180="L4", N180="No"), C180)</f>
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>-33.916945599999998</v>
       </c>
@@ -8203,8 +10378,20 @@
       <c r="M181" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N181" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="O181" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P181" t="b">
+        <f>IF(AND(H181="L4", N181="No"), C181)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>-33.916912590000003</v>
       </c>
@@ -8244,8 +10431,20 @@
       <c r="M182" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N182" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O182" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P182">
+        <f>IF(AND(H182="L4", N182="No"), C182)</f>
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>-33.916913800000003</v>
       </c>
@@ -8285,8 +10484,20 @@
       <c r="M183" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N183" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="O183" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P183" t="b">
+        <f>IF(AND(H183="L4", N183="No"), C183)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>-33.916739470000003</v>
       </c>
@@ -8326,8 +10537,20 @@
       <c r="M184" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N184" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="O184" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P184" t="b">
+        <f>IF(AND(H184="L4", N184="No"), C184)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>-33.91661697</v>
       </c>
@@ -8367,8 +10590,20 @@
       <c r="M185" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N185" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O185" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P185">
+        <f>IF(AND(H185="L4", N185="No"), C185)</f>
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>-33.916500310000004</v>
       </c>
@@ -8408,8 +10643,20 @@
       <c r="M186" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N186" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="O186" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P186" t="b">
+        <f>IF(AND(H186="L4", N186="No"), C186)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>-33.916344189999997</v>
       </c>
@@ -8449,8 +10696,20 @@
       <c r="M187" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N187" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O187" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P187">
+        <f>IF(AND(H187="L4", N187="No"), C187)</f>
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>-33.916357150000003</v>
       </c>
@@ -8490,8 +10749,20 @@
       <c r="M188" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N188" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O188" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P188">
+        <f>IF(AND(H188="L4", N188="No"), C188)</f>
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>-33.916362820000003</v>
       </c>
@@ -8531,8 +10802,20 @@
       <c r="M189" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N189" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O189" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P189">
+        <f>IF(AND(H189="L4", N189="No"), C189)</f>
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>-33.916530430000002</v>
       </c>
@@ -8572,8 +10855,20 @@
       <c r="M190" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N190" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="O190" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P190" t="b">
+        <f>IF(AND(H190="L4", N190="No"), C190)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>-33.91656588</v>
       </c>
@@ -8613,8 +10908,20 @@
       <c r="M191" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N191" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O191" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P191">
+        <f>IF(AND(H191="L4", N191="No"), C191)</f>
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>-33.916631359999997</v>
       </c>
@@ -8654,8 +10961,20 @@
       <c r="M192" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N192" t="str">
+        <f t="shared" si="4"/>
+        <v>No</v>
+      </c>
+      <c r="O192" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P192">
+        <f>IF(AND(H192="L4", N192="No"), C192)</f>
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>-33.91663269</v>
       </c>
@@ -8695,8 +11014,20 @@
       <c r="M193" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N193" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="O193" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P193" t="b">
+        <f>IF(AND(H193="L4", N193="No"), C193)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>-33.916579980000002</v>
       </c>
@@ -8736,8 +11067,20 @@
       <c r="M194" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N194" t="str">
+        <f t="shared" si="4"/>
+        <v>Yes</v>
+      </c>
+      <c r="O194" t="str">
+        <f t="shared" si="5"/>
+        <v>N/A</v>
+      </c>
+      <c r="P194" t="b">
+        <f>IF(AND(H194="L4", N194="No"), C194)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>-33.916710170000002</v>
       </c>
@@ -8777,8 +11120,20 @@
       <c r="M195" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N195" t="str">
+        <f t="shared" ref="N195:N258" si="6">IF(AND(NOT(I195=J195), NOT(OR((I195="null"), (J195="null"), (I195="00:00:00:00:00:00"), (J195="00:00:00:00:00:00")))), "Yes", "No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O195" t="str">
+        <f t="shared" ref="O195:O258" si="7">IF(AND(N195="Yes", H195="L3"), C195, "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="P195" t="b">
+        <f>IF(AND(H195="L4", N195="No"), C195)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>-33.916819480000001</v>
       </c>
@@ -8818,8 +11173,20 @@
       <c r="M196" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N196" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O196" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P196">
+        <f>IF(AND(H196="L4", N196="No"), C196)</f>
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>-33.917264359999997</v>
       </c>
@@ -8859,8 +11226,20 @@
       <c r="M197" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N197" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O197" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P197" t="b">
+        <f>IF(AND(H197="L4", N197="No"), C197)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>-33.917297859999998</v>
       </c>
@@ -8900,8 +11279,20 @@
       <c r="M198" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N198" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O198" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P198">
+        <f>IF(AND(H198="L4", N198="No"), C198)</f>
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>-33.917321829999999</v>
       </c>
@@ -8941,8 +11332,20 @@
       <c r="M199" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N199" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O199" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P199" t="b">
+        <f>IF(AND(H199="L4", N199="No"), C199)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>-33.917370220000002</v>
       </c>
@@ -8982,8 +11385,20 @@
       <c r="M200" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N200" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O200" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P200">
+        <f>IF(AND(H200="L4", N200="No"), C200)</f>
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>-33.917348109999999</v>
       </c>
@@ -9023,8 +11438,20 @@
       <c r="M201" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N201" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O201" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P201">
+        <f>IF(AND(H201="L4", N201="No"), C201)</f>
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>-33.917223870000001</v>
       </c>
@@ -9064,8 +11491,20 @@
       <c r="M202" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N202" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O202" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P202" t="b">
+        <f>IF(AND(H202="L4", N202="No"), C202)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>-33.917103969999999</v>
       </c>
@@ -9105,8 +11544,20 @@
       <c r="M203" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N203" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O203" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P203">
+        <f>IF(AND(H203="L4", N203="No"), C203)</f>
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>-33.91704197</v>
       </c>
@@ -9146,8 +11597,20 @@
       <c r="M204" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N204" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O204" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P204">
+        <f>IF(AND(H204="L4", N204="No"), C204)</f>
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>-33.916992630000003</v>
       </c>
@@ -9187,8 +11650,20 @@
       <c r="M205" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N205" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O205" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P205">
+        <f>IF(AND(H205="L4", N205="No"), C205)</f>
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>-33.916970640000002</v>
       </c>
@@ -9228,8 +11703,20 @@
       <c r="M206" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N206" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O206" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P206">
+        <f>IF(AND(H206="L4", N206="No"), C206)</f>
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>-33.916980899999999</v>
       </c>
@@ -9269,8 +11756,20 @@
       <c r="M207" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N207" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O207" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P207">
+        <f>IF(AND(H207="L4", N207="No"), C207)</f>
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>-33.916933759999999</v>
       </c>
@@ -9310,8 +11809,20 @@
       <c r="M208" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N208" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O208" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P208" t="b">
+        <f>IF(AND(H208="L4", N208="No"), C208)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>-33.916934050000002</v>
       </c>
@@ -9351,8 +11862,20 @@
       <c r="M209" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N209" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O209" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P209" t="b">
+        <f>IF(AND(H209="L4", N209="No"), C209)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>-33.916934249999997</v>
       </c>
@@ -9392,8 +11915,20 @@
       <c r="M210" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N210" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O210" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P210">
+        <f>IF(AND(H210="L4", N210="No"), C210)</f>
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>-33.916934249999997</v>
       </c>
@@ -9433,8 +11968,20 @@
       <c r="M211" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N211" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O211" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P211">
+        <f>IF(AND(H211="L4", N211="No"), C211)</f>
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>-33.91693617</v>
       </c>
@@ -9474,8 +12021,20 @@
       <c r="M212" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N212" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O212" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P212" t="b">
+        <f>IF(AND(H212="L4", N212="No"), C212)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>-33.916936499999998</v>
       </c>
@@ -9515,8 +12074,20 @@
       <c r="M213" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N213" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O213" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P213" t="b">
+        <f>IF(AND(H213="L4", N213="No"), C213)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>-33.916945179999999</v>
       </c>
@@ -9556,8 +12127,20 @@
       <c r="M214" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N214" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O214" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P214">
+        <f>IF(AND(H214="L4", N214="No"), C214)</f>
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>-33.916945179999999</v>
       </c>
@@ -9597,8 +12180,20 @@
       <c r="M215" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N215" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O215" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P215">
+        <f>IF(AND(H215="L4", N215="No"), C215)</f>
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>-33.916439850000003</v>
       </c>
@@ -9638,8 +12233,20 @@
       <c r="M216" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N216" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O216" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P216" t="b">
+        <f>IF(AND(H216="L4", N216="No"), C216)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>-33.91651126</v>
       </c>
@@ -9679,8 +12286,20 @@
       <c r="M217" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N217" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O217" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P217" t="b">
+        <f>IF(AND(H217="L4", N217="No"), C217)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>-33.916790990000003</v>
       </c>
@@ -9720,8 +12339,20 @@
       <c r="M218" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N218" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O218" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P218" t="b">
+        <f>IF(AND(H218="L4", N218="No"), C218)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>-33.916735809999999</v>
       </c>
@@ -9761,8 +12392,20 @@
       <c r="M219" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N219" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O219" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P219" t="b">
+        <f>IF(AND(H219="L4", N219="No"), C219)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>-33.916735809999999</v>
       </c>
@@ -9802,8 +12445,20 @@
       <c r="M220" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N220" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O220" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P220">
+        <f>IF(AND(H220="L4", N220="No"), C220)</f>
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>-33.916592870000002</v>
       </c>
@@ -9843,8 +12498,20 @@
       <c r="M221" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N221" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O221" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P221">
+        <f>IF(AND(H221="L4", N221="No"), C221)</f>
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>-33.916592870000002</v>
       </c>
@@ -9884,8 +12551,20 @@
       <c r="M222" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N222" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O222" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P222">
+        <f>IF(AND(H222="L4", N222="No"), C222)</f>
+        <v>4634</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>-33.916649159999999</v>
       </c>
@@ -9925,8 +12604,20 @@
       <c r="M223" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N223" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O223" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P223" t="b">
+        <f>IF(AND(H223="L4", N223="No"), C223)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>-33.917184300000002</v>
       </c>
@@ -9966,8 +12657,20 @@
       <c r="M224" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N224" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O224" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P224" t="b">
+        <f>IF(AND(H224="L4", N224="No"), C224)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>-33.917324299999997</v>
       </c>
@@ -10007,8 +12710,20 @@
       <c r="M225" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N225" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O225" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P225" t="b">
+        <f>IF(AND(H225="L4", N225="No"), C225)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>-33.917324299999997</v>
       </c>
@@ -10048,8 +12763,20 @@
       <c r="M226" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N226" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O226" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P226">
+        <f>IF(AND(H226="L4", N226="No"), C226)</f>
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>-33.917533599999999</v>
       </c>
@@ -10089,8 +12816,20 @@
       <c r="M227" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N227" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O227" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P227" t="b">
+        <f>IF(AND(H227="L4", N227="No"), C227)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>-33.917533599999999</v>
       </c>
@@ -10130,8 +12869,20 @@
       <c r="M228" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N228" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O228" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P228" t="b">
+        <f>IF(AND(H228="L4", N228="No"), C228)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>-33.917368000000003</v>
       </c>
@@ -10171,8 +12922,20 @@
       <c r="M229" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N229" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O229" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P229" t="b">
+        <f>IF(AND(H229="L4", N229="No"), C229)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>-33.917201499999997</v>
       </c>
@@ -10212,8 +12975,20 @@
       <c r="M230" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N230" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O230" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P230">
+        <f>IF(AND(H230="L4", N230="No"), C230)</f>
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>-33.9172461</v>
       </c>
@@ -10253,8 +13028,20 @@
       <c r="M231" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N231" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O231" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P231">
+        <f>IF(AND(H231="L4", N231="No"), C231)</f>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>-33.917177799999997</v>
       </c>
@@ -10294,8 +13081,20 @@
       <c r="M232" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N232" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O232" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P232">
+        <f>IF(AND(H232="L4", N232="No"), C232)</f>
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>-33.917049249999998</v>
       </c>
@@ -10335,8 +13134,20 @@
       <c r="M233" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N233" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O233" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P233" t="b">
+        <f>IF(AND(H233="L4", N233="No"), C233)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>-33.916990740000003</v>
       </c>
@@ -10376,8 +13187,20 @@
       <c r="M234" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N234" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O234" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P234">
+        <f>IF(AND(H234="L4", N234="No"), C234)</f>
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>-33.917016609999997</v>
       </c>
@@ -10417,8 +13240,20 @@
       <c r="M235" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N235" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O235" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P235" t="b">
+        <f>IF(AND(H235="L4", N235="No"), C235)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>-33.916931460000001</v>
       </c>
@@ -10458,8 +13293,20 @@
       <c r="M236" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N236" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O236" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P236">
+        <f>IF(AND(H236="L4", N236="No"), C236)</f>
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>-33.916954990000001</v>
       </c>
@@ -10499,8 +13346,20 @@
       <c r="M237" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N237" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O237" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P237">
+        <f>IF(AND(H237="L4", N237="No"), C237)</f>
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>-33.916931460000001</v>
       </c>
@@ -10540,8 +13399,20 @@
       <c r="M238" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N238" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O238" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P238">
+        <f>IF(AND(H238="L4", N238="No"), C238)</f>
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>-33.916917480000002</v>
       </c>
@@ -10581,8 +13452,20 @@
       <c r="M239" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N239" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O239" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P239">
+        <f>IF(AND(H239="L4", N239="No"), C239)</f>
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>-33.916917480000002</v>
       </c>
@@ -10622,8 +13505,20 @@
       <c r="M240" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N240" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O240" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P240">
+        <f>IF(AND(H240="L4", N240="No"), C240)</f>
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>-33.9169196</v>
       </c>
@@ -10663,8 +13558,20 @@
       <c r="M241" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N241" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O241" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P241">
+        <f>IF(AND(H241="L4", N241="No"), C241)</f>
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>-33.9169196</v>
       </c>
@@ -10704,8 +13611,20 @@
       <c r="M242" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N242" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O242" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P242">
+        <f>IF(AND(H242="L4", N242="No"), C242)</f>
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>-33.916947090000001</v>
       </c>
@@ -10745,8 +13664,20 @@
       <c r="M243" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N243" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O243" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P243">
+        <f>IF(AND(H243="L4", N243="No"), C243)</f>
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>-33.916947090000001</v>
       </c>
@@ -10786,8 +13717,20 @@
       <c r="M244" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N244" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O244" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P244">
+        <f>IF(AND(H244="L4", N244="No"), C244)</f>
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>-33.917612579999997</v>
       </c>
@@ -10827,8 +13770,20 @@
       <c r="M245" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N245" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O245" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P245" t="b">
+        <f>IF(AND(H245="L4", N245="No"), C245)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>-33.917612579999997</v>
       </c>
@@ -10868,8 +13823,20 @@
       <c r="M246" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N246" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O246" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P246" t="b">
+        <f>IF(AND(H246="L4", N246="No"), C246)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>-33.917802629999997</v>
       </c>
@@ -10907,8 +13874,20 @@
       <c r="M247" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N247" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O247" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P247">
+        <f>IF(AND(H247="L4", N247="No"), C247)</f>
+        <v>6094</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>-33.917802629999997</v>
       </c>
@@ -10946,8 +13925,20 @@
       <c r="M248" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N248" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O248" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P248">
+        <f>IF(AND(H248="L4", N248="No"), C248)</f>
+        <v>6231</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>-33.917886950000003</v>
       </c>
@@ -10987,8 +13978,20 @@
       <c r="M249" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N249" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O249">
+        <f t="shared" si="7"/>
+        <v>1997</v>
+      </c>
+      <c r="P249" t="b">
+        <f>IF(AND(H249="L4", N249="No"), C249)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>-33.917802629999997</v>
       </c>
@@ -11028,8 +14031,20 @@
       <c r="M250" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N250" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O250" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P250">
+        <f>IF(AND(H250="L4", N250="No"), C250)</f>
+        <v>55192</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>-33.917913749999997</v>
       </c>
@@ -11067,8 +14082,20 @@
       <c r="M251" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N251" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O251" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P251">
+        <f>IF(AND(H251="L4", N251="No"), C251)</f>
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>-33.917913749999997</v>
       </c>
@@ -11106,8 +14133,20 @@
       <c r="M252" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N252" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O252" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P252">
+        <f>IF(AND(H252="L4", N252="No"), C252)</f>
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>-33.91808838</v>
       </c>
@@ -11147,8 +14186,20 @@
       <c r="M253" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N253" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O253" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P253">
+        <f>IF(AND(H253="L4", N253="No"), C253)</f>
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>-33.91808838</v>
       </c>
@@ -11188,8 +14239,20 @@
       <c r="M254" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N254" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O254" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P254">
+        <f>IF(AND(H254="L4", N254="No"), C254)</f>
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>-33.917780469999997</v>
       </c>
@@ -11229,8 +14292,20 @@
       <c r="M255" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N255" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O255" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P255" t="b">
+        <f>IF(AND(H255="L4", N255="No"), C255)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>-33.917780469999997</v>
       </c>
@@ -11270,8 +14345,20 @@
       <c r="M256" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N256" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O256" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P256" t="b">
+        <f>IF(AND(H256="L4", N256="No"), C256)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>-33.917780469999997</v>
       </c>
@@ -11311,8 +14398,20 @@
       <c r="M257" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N257" t="str">
+        <f t="shared" si="6"/>
+        <v>Yes</v>
+      </c>
+      <c r="O257" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P257" t="b">
+        <f>IF(AND(H257="L4", N257="No"), C257)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>-33.917779099999997</v>
       </c>
@@ -11352,8 +14451,20 @@
       <c r="M258" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N258" t="str">
+        <f t="shared" si="6"/>
+        <v>No</v>
+      </c>
+      <c r="O258" t="str">
+        <f t="shared" si="7"/>
+        <v>N/A</v>
+      </c>
+      <c r="P258">
+        <f>IF(AND(H258="L4", N258="No"), C258)</f>
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>-33.917779099999997</v>
       </c>
@@ -11393,8 +14504,20 @@
       <c r="M259" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N259" t="str">
+        <f t="shared" ref="N259:N322" si="8">IF(AND(NOT(I259=J259), NOT(OR((I259="null"), (J259="null"), (I259="00:00:00:00:00:00"), (J259="00:00:00:00:00:00")))), "Yes", "No")</f>
+        <v>No</v>
+      </c>
+      <c r="O259" t="str">
+        <f t="shared" ref="O259:O322" si="9">IF(AND(N259="Yes", H259="L3"), C259, "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="P259">
+        <f>IF(AND(H259="L4", N259="No"), C259)</f>
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>-33.917779099999997</v>
       </c>
@@ -11434,8 +14557,20 @@
       <c r="M260" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N260" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O260" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P260">
+        <f>IF(AND(H260="L4", N260="No"), C260)</f>
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>-33.9177496</v>
       </c>
@@ -11475,8 +14610,20 @@
       <c r="M261" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N261" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O261" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P261" t="b">
+        <f>IF(AND(H261="L4", N261="No"), C261)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>-33.9177496</v>
       </c>
@@ -11516,8 +14663,20 @@
       <c r="M262" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N262" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O262" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P262" t="b">
+        <f>IF(AND(H262="L4", N262="No"), C262)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>-33.9177496</v>
       </c>
@@ -11557,8 +14716,20 @@
       <c r="M263" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N263" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O263" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P263" t="b">
+        <f>IF(AND(H263="L4", N263="No"), C263)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>-33.917756599999997</v>
       </c>
@@ -11598,8 +14769,20 @@
       <c r="M264" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N264" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O264" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P264" t="b">
+        <f>IF(AND(H264="L4", N264="No"), C264)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>-33.917756599999997</v>
       </c>
@@ -11639,8 +14822,20 @@
       <c r="M265" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N265" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O265" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P265" t="b">
+        <f>IF(AND(H265="L4", N265="No"), C265)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>-33.917756599999997</v>
       </c>
@@ -11680,8 +14875,20 @@
       <c r="M266" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N266" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O266" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P266" t="b">
+        <f>IF(AND(H266="L4", N266="No"), C266)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>-33.917982440000003</v>
       </c>
@@ -11721,8 +14928,20 @@
       <c r="M267" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N267" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O267" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P267" t="b">
+        <f>IF(AND(H267="L4", N267="No"), C267)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>-33.9181296</v>
       </c>
@@ -11762,8 +14981,20 @@
       <c r="M268" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N268" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O268" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P268" t="b">
+        <f>IF(AND(H268="L4", N268="No"), C268)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>-33.918126659999999</v>
       </c>
@@ -11803,8 +15034,20 @@
       <c r="M269" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N269" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O269" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P269">
+        <f>IF(AND(H269="L4", N269="No"), C269)</f>
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>-33.918126659999999</v>
       </c>
@@ -11844,8 +15087,20 @@
       <c r="M270" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N270" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O270" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P270" t="b">
+        <f>IF(AND(H270="L4", N270="No"), C270)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>-33.918135479999997</v>
       </c>
@@ -11883,8 +15138,20 @@
       <c r="M271" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N271" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O271" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P271">
+        <f>IF(AND(H271="L4", N271="No"), C271)</f>
+        <v>37946</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>-33.918141159999998</v>
       </c>
@@ -11922,8 +15189,20 @@
       <c r="M272" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N272" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O272" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P272">
+        <f>IF(AND(H272="L4", N272="No"), C272)</f>
+        <v>36932</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>-33.918109149999999</v>
       </c>
@@ -11963,8 +15242,20 @@
       <c r="M273" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N273" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O273">
+        <f t="shared" si="9"/>
+        <v>1814</v>
+      </c>
+      <c r="P273" t="b">
+        <f>IF(AND(H273="L4", N273="No"), C273)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>-33.918141159999998</v>
       </c>
@@ -12004,8 +15295,20 @@
       <c r="M274" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N274" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O274" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P274">
+        <f>IF(AND(H274="L4", N274="No"), C274)</f>
+        <v>79092</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>-33.917356099999999</v>
       </c>
@@ -12043,8 +15346,20 @@
       <c r="M275" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N275" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O275" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P275">
+        <f>IF(AND(H275="L4", N275="No"), C275)</f>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>-33.917323240000002</v>
       </c>
@@ -12084,8 +15399,20 @@
       <c r="M276" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N276" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O276" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P276" t="b">
+        <f>IF(AND(H276="L4", N276="No"), C276)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>-33.917326000000003</v>
       </c>
@@ -12123,8 +15450,20 @@
       <c r="M277" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N277" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O277" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P277">
+        <f>IF(AND(H277="L4", N277="No"), C277)</f>
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>-33.917456489999999</v>
       </c>
@@ -12164,8 +15503,20 @@
       <c r="M278" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N278" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O278" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P278">
+        <f>IF(AND(H278="L4", N278="No"), C278)</f>
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>-33.917413860000003</v>
       </c>
@@ -12205,8 +15556,20 @@
       <c r="M279" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N279" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O279" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P279">
+        <f>IF(AND(H279="L4", N279="No"), C279)</f>
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>-33.917285020000001</v>
       </c>
@@ -12246,8 +15609,20 @@
       <c r="M280" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N280" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O280" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P280">
+        <f>IF(AND(H280="L4", N280="No"), C280)</f>
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>-33.917371019999997</v>
       </c>
@@ -12287,8 +15662,20 @@
       <c r="M281" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N281" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O281" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P281" t="b">
+        <f>IF(AND(H281="L4", N281="No"), C281)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>-33.917480849999997</v>
       </c>
@@ -12328,8 +15715,20 @@
       <c r="M282" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N282" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O282" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P282" t="b">
+        <f>IF(AND(H282="L4", N282="No"), C282)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>-33.917445659999998</v>
       </c>
@@ -12369,8 +15768,20 @@
       <c r="M283" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N283" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O283" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P283" t="b">
+        <f>IF(AND(H283="L4", N283="No"), C283)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>-33.917438740000001</v>
       </c>
@@ -12410,8 +15821,20 @@
       <c r="M284" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N284" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O284" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P284">
+        <f>IF(AND(H284="L4", N284="No"), C284)</f>
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>-33.917549659999999</v>
       </c>
@@ -12451,8 +15874,20 @@
       <c r="M285" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N285" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O285" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P285">
+        <f>IF(AND(H285="L4", N285="No"), C285)</f>
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>-33.917588250000001</v>
       </c>
@@ -12492,8 +15927,20 @@
       <c r="M286" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N286" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O286" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P286" t="b">
+        <f>IF(AND(H286="L4", N286="No"), C286)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>-33.917588250000001</v>
       </c>
@@ -12533,8 +15980,20 @@
       <c r="M287" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N287" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O287" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P287" t="b">
+        <f>IF(AND(H287="L4", N287="No"), C287)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>-33.917604230000002</v>
       </c>
@@ -12574,8 +16033,20 @@
       <c r="M288" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N288" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O288" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P288">
+        <f>IF(AND(H288="L4", N288="No"), C288)</f>
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>-33.91741648</v>
       </c>
@@ -12615,8 +16086,20 @@
       <c r="M289" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N289" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O289" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P289">
+        <f>IF(AND(H289="L4", N289="No"), C289)</f>
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>-33.917415339999998</v>
       </c>
@@ -12656,8 +16139,20 @@
       <c r="M290" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N290" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O290" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P290">
+        <f>IF(AND(H290="L4", N290="No"), C290)</f>
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>-33.917333239999998</v>
       </c>
@@ -12697,8 +16192,20 @@
       <c r="M291" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N291" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O291" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P291">
+        <f>IF(AND(H291="L4", N291="No"), C291)</f>
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>-33.917310819999997</v>
       </c>
@@ -12738,8 +16245,20 @@
       <c r="M292" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N292" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O292" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P292" t="b">
+        <f>IF(AND(H292="L4", N292="No"), C292)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>-33.9171482</v>
       </c>
@@ -12779,8 +16298,20 @@
       <c r="M293" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N293" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O293" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P293">
+        <f>IF(AND(H293="L4", N293="No"), C293)</f>
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>-33.917063630000001</v>
       </c>
@@ -12820,8 +16351,20 @@
       <c r="M294" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N294" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O294" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P294" t="b">
+        <f>IF(AND(H294="L4", N294="No"), C294)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>-33.917064150000002</v>
       </c>
@@ -12861,8 +16404,20 @@
       <c r="M295" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N295" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O295" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P295">
+        <f>IF(AND(H295="L4", N295="No"), C295)</f>
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>-33.916766760000002</v>
       </c>
@@ -12902,8 +16457,20 @@
       <c r="M296" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N296" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O296" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P296" t="b">
+        <f>IF(AND(H296="L4", N296="No"), C296)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>-33.916715199999999</v>
       </c>
@@ -12943,8 +16510,20 @@
       <c r="M297" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N297" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O297" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P297" t="b">
+        <f>IF(AND(H297="L4", N297="No"), C297)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>-33.916698500000003</v>
       </c>
@@ -12984,8 +16563,20 @@
       <c r="M298" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N298" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O298" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P298">
+        <f>IF(AND(H298="L4", N298="No"), C298)</f>
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>-33.916699059999999</v>
       </c>
@@ -13025,8 +16616,20 @@
       <c r="M299" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N299" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O299" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P299" t="b">
+        <f>IF(AND(H299="L4", N299="No"), C299)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>-33.916727039999998</v>
       </c>
@@ -13066,8 +16669,20 @@
       <c r="M300" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N300" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O300" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P300" t="b">
+        <f>IF(AND(H300="L4", N300="No"), C300)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>-33.916727039999998</v>
       </c>
@@ -13107,8 +16722,20 @@
       <c r="M301" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N301" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O301" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P301" t="b">
+        <f>IF(AND(H301="L4", N301="No"), C301)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>-33.91704206</v>
       </c>
@@ -13148,8 +16775,20 @@
       <c r="M302" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N302" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O302" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P302" t="b">
+        <f>IF(AND(H302="L4", N302="No"), C302)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>-33.917107489999999</v>
       </c>
@@ -13189,8 +16828,20 @@
       <c r="M303" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N303" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O303" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P303" t="b">
+        <f>IF(AND(H303="L4", N303="No"), C303)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>-33.917011459999998</v>
       </c>
@@ -13230,8 +16881,20 @@
       <c r="M304" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N304" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O304" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P304">
+        <f>IF(AND(H304="L4", N304="No"), C304)</f>
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>-33.916933450000002</v>
       </c>
@@ -13271,8 +16934,20 @@
       <c r="M305" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N305" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O305" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P305" t="b">
+        <f>IF(AND(H305="L4", N305="No"), C305)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>-33.916933450000002</v>
       </c>
@@ -13312,8 +16987,20 @@
       <c r="M306" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N306" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O306" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P306" t="b">
+        <f>IF(AND(H306="L4", N306="No"), C306)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>-33.916933450000002</v>
       </c>
@@ -13353,8 +17040,20 @@
       <c r="M307" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N307" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O307" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P307" t="b">
+        <f>IF(AND(H307="L4", N307="No"), C307)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>-33.916571159999997</v>
       </c>
@@ -13394,8 +17093,20 @@
       <c r="M308" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N308" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O308" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P308" t="b">
+        <f>IF(AND(H308="L4", N308="No"), C308)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>-33.916571159999997</v>
       </c>
@@ -13435,8 +17146,20 @@
       <c r="M309" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N309" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O309" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P309" t="b">
+        <f>IF(AND(H309="L4", N309="No"), C309)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>-33.916571159999997</v>
       </c>
@@ -13476,8 +17199,20 @@
       <c r="M310" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N310" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O310" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P310" t="b">
+        <f>IF(AND(H310="L4", N310="No"), C310)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>-33.916507580000001</v>
       </c>
@@ -13517,8 +17252,20 @@
       <c r="M311" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N311" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O311" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P311">
+        <f>IF(AND(H311="L4", N311="No"), C311)</f>
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>-33.916507580000001</v>
       </c>
@@ -13558,8 +17305,20 @@
       <c r="M312" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N312" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O312" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P312">
+        <f>IF(AND(H312="L4", N312="No"), C312)</f>
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>-33.916507580000001</v>
       </c>
@@ -13599,8 +17358,20 @@
       <c r="M313" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N313" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O313" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P313">
+        <f>IF(AND(H313="L4", N313="No"), C313)</f>
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>-33.916597230000001</v>
       </c>
@@ -13640,8 +17411,20 @@
       <c r="M314" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N314" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O314" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P314">
+        <f>IF(AND(H314="L4", N314="No"), C314)</f>
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>-33.916597230000001</v>
       </c>
@@ -13681,8 +17464,20 @@
       <c r="M315" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N315" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O315" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P315">
+        <f>IF(AND(H315="L4", N315="No"), C315)</f>
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>-33.916666249999999</v>
       </c>
@@ -13720,8 +17515,20 @@
       <c r="M316" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N316" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O316" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P316">
+        <f>IF(AND(H316="L4", N316="No"), C316)</f>
+        <v>21569</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>-33.916666249999999</v>
       </c>
@@ -13759,8 +17566,20 @@
       <c r="M317" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N317" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O317" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P317">
+        <f>IF(AND(H317="L4", N317="No"), C317)</f>
+        <v>21546</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>-33.91678572</v>
       </c>
@@ -13800,8 +17619,20 @@
       <c r="M318" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N318" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O318">
+        <f t="shared" si="9"/>
+        <v>2053</v>
+      </c>
+      <c r="P318" t="b">
+        <f>IF(AND(H318="L4", N318="No"), C318)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>-33.916666249999999</v>
       </c>
@@ -13841,8 +17672,20 @@
       <c r="M319" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N319" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O319" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P319">
+        <f>IF(AND(H319="L4", N319="No"), C319)</f>
+        <v>132644</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>-33.916576929999998</v>
       </c>
@@ -13882,8 +17725,20 @@
       <c r="M320" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N320" t="str">
+        <f t="shared" si="8"/>
+        <v>Yes</v>
+      </c>
+      <c r="O320" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P320" t="b">
+        <f>IF(AND(H320="L4", N320="No"), C320)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>-33.916568689999998</v>
       </c>
@@ -13921,8 +17776,20 @@
       <c r="M321" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N321" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O321" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P321">
+        <f>IF(AND(H321="L4", N321="No"), C321)</f>
+        <v>18991</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>-33.916568689999998</v>
       </c>
@@ -13960,8 +17827,20 @@
       <c r="M322" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N322" t="str">
+        <f t="shared" si="8"/>
+        <v>No</v>
+      </c>
+      <c r="O322" t="str">
+        <f t="shared" si="9"/>
+        <v>N/A</v>
+      </c>
+      <c r="P322">
+        <f>IF(AND(H322="L4", N322="No"), C322)</f>
+        <v>19062</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>-33.916529879999999</v>
       </c>
@@ -14001,8 +17880,20 @@
       <c r="M323" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N323" t="str">
+        <f t="shared" ref="N323:N386" si="10">IF(AND(NOT(I323=J323), NOT(OR((I323="null"), (J323="null"), (I323="00:00:00:00:00:00"), (J323="00:00:00:00:00:00")))), "Yes", "No")</f>
+        <v>No</v>
+      </c>
+      <c r="O323" t="str">
+        <f t="shared" ref="O323:O386" si="11">IF(AND(N323="Yes", H323="L3"), C323, "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="P323">
+        <f>IF(AND(H323="L4", N323="No"), C323)</f>
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>-33.916529879999999</v>
       </c>
@@ -14042,8 +17933,20 @@
       <c r="M324" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N324" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O324" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P324">
+        <f>IF(AND(H324="L4", N324="No"), C324)</f>
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>-33.916529879999999</v>
       </c>
@@ -14083,8 +17986,20 @@
       <c r="M325" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N325" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O325" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P325">
+        <f>IF(AND(H325="L4", N325="No"), C325)</f>
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>-33.916523949999998</v>
       </c>
@@ -14124,8 +18039,20 @@
       <c r="M326" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N326" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O326" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P326" t="b">
+        <f>IF(AND(H326="L4", N326="No"), C326)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>-33.91652285</v>
       </c>
@@ -14165,8 +18092,20 @@
       <c r="M327" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N327" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O327" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P327" t="b">
+        <f>IF(AND(H327="L4", N327="No"), C327)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>-33.916454510000001</v>
       </c>
@@ -14206,8 +18145,20 @@
       <c r="M328" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N328" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O328" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P328" t="b">
+        <f>IF(AND(H328="L4", N328="No"), C328)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>-33.916433490000003</v>
       </c>
@@ -14245,8 +18196,20 @@
       <c r="M329" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N329" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O329" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P329">
+        <f>IF(AND(H329="L4", N329="No"), C329)</f>
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>-33.916433490000003</v>
       </c>
@@ -14284,8 +18247,20 @@
       <c r="M330" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N330" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O330" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P330">
+        <f>IF(AND(H330="L4", N330="No"), C330)</f>
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>-33.916510109999997</v>
       </c>
@@ -14325,8 +18300,20 @@
       <c r="M331" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N331" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O331">
+        <f t="shared" si="11"/>
+        <v>1965</v>
+      </c>
+      <c r="P331" t="b">
+        <f>IF(AND(H331="L4", N331="No"), C331)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>-33.916433490000003</v>
       </c>
@@ -14366,8 +18353,20 @@
       <c r="M332" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N332" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O332" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P332">
+        <f>IF(AND(H332="L4", N332="No"), C332)</f>
+        <v>116103</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>-33.916511040000003</v>
       </c>
@@ -14405,8 +18404,20 @@
       <c r="M333" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N333" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O333" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P333">
+        <f>IF(AND(H333="L4", N333="No"), C333)</f>
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>-33.916477659999998</v>
       </c>
@@ -14444,8 +18455,20 @@
       <c r="M334" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N334" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O334" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P334">
+        <f>IF(AND(H334="L4", N334="No"), C334)</f>
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>-33.916604100000001</v>
       </c>
@@ -14485,8 +18508,20 @@
       <c r="M335" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N335" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O335" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P335" t="b">
+        <f>IF(AND(H335="L4", N335="No"), C335)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>-33.916604100000001</v>
       </c>
@@ -14526,8 +18561,20 @@
       <c r="M336" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N336" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O336" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P336" t="b">
+        <f>IF(AND(H336="L4", N336="No"), C336)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>-33.916604100000001</v>
       </c>
@@ -14567,8 +18614,20 @@
       <c r="M337" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N337" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O337" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P337" t="b">
+        <f>IF(AND(H337="L4", N337="No"), C337)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>-33.916943070000002</v>
       </c>
@@ -14608,8 +18667,20 @@
       <c r="M338" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N338" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O338" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P338" t="b">
+        <f>IF(AND(H338="L4", N338="No"), C338)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>-33.916943070000002</v>
       </c>
@@ -14649,8 +18720,20 @@
       <c r="M339" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N339" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O339" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P339" t="b">
+        <f>IF(AND(H339="L4", N339="No"), C339)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>-33.916943070000002</v>
       </c>
@@ -14690,8 +18773,20 @@
       <c r="M340" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N340" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O340" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P340" t="b">
+        <f>IF(AND(H340="L4", N340="No"), C340)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>-33.917061449999999</v>
       </c>
@@ -14731,8 +18826,20 @@
       <c r="M341" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N341" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O341" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P341">
+        <f>IF(AND(H341="L4", N341="No"), C341)</f>
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>-33.917061449999999</v>
       </c>
@@ -14772,8 +18879,20 @@
       <c r="M342" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N342" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O342" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P342">
+        <f>IF(AND(H342="L4", N342="No"), C342)</f>
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>-33.917061449999999</v>
       </c>
@@ -14813,8 +18932,20 @@
       <c r="M343" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N343" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O343" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P343">
+        <f>IF(AND(H343="L4", N343="No"), C343)</f>
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>-33.917080519999999</v>
       </c>
@@ -14854,8 +18985,20 @@
       <c r="M344" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N344" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O344" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P344">
+        <f>IF(AND(H344="L4", N344="No"), C344)</f>
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>-33.917080519999999</v>
       </c>
@@ -14895,8 +19038,20 @@
       <c r="M345" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N345" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O345" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P345">
+        <f>IF(AND(H345="L4", N345="No"), C345)</f>
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>-33.917080519999999</v>
       </c>
@@ -14936,8 +19091,20 @@
       <c r="M346" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N346" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O346" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P346">
+        <f>IF(AND(H346="L4", N346="No"), C346)</f>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>-33.916939130000003</v>
       </c>
@@ -14977,8 +19144,20 @@
       <c r="M347" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N347" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O347" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P347" t="b">
+        <f>IF(AND(H347="L4", N347="No"), C347)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>-33.916947530000002</v>
       </c>
@@ -15018,8 +19197,20 @@
       <c r="M348" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N348" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O348" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P348" t="b">
+        <f>IF(AND(H348="L4", N348="No"), C348)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>-33.916939130000003</v>
       </c>
@@ -15059,8 +19250,20 @@
       <c r="M349" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N349" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O349" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P349" t="b">
+        <f>IF(AND(H349="L4", N349="No"), C349)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>-33.916917789999999</v>
       </c>
@@ -15100,8 +19303,20 @@
       <c r="M350" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N350" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O350" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P350" t="b">
+        <f>IF(AND(H350="L4", N350="No"), C350)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>-33.916821210000002</v>
       </c>
@@ -15141,8 +19356,20 @@
       <c r="M351" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N351" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O351" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P351" t="b">
+        <f>IF(AND(H351="L4", N351="No"), C351)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>-33.916821210000002</v>
       </c>
@@ -15182,8 +19409,20 @@
       <c r="M352" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N352" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O352" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P352" t="b">
+        <f>IF(AND(H352="L4", N352="No"), C352)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>-33.916720499999997</v>
       </c>
@@ -15223,8 +19462,20 @@
       <c r="M353" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N353" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O353" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P353">
+        <f>IF(AND(H353="L4", N353="No"), C353)</f>
+        <v>5696</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>-33.916567540000003</v>
       </c>
@@ -15264,8 +19515,20 @@
       <c r="M354" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N354" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O354" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P354">
+        <f>IF(AND(H354="L4", N354="No"), C354)</f>
+        <v>5957</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>-33.916522880000002</v>
       </c>
@@ -15305,8 +19568,20 @@
       <c r="M355" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N355" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O355" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P355">
+        <f>IF(AND(H355="L4", N355="No"), C355)</f>
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>-33.916522880000002</v>
       </c>
@@ -15346,8 +19621,20 @@
       <c r="M356" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N356" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O356" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P356">
+        <f>IF(AND(H356="L4", N356="No"), C356)</f>
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>-33.91646712</v>
       </c>
@@ -15387,8 +19674,20 @@
       <c r="M357" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N357" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O357" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P357">
+        <f>IF(AND(H357="L4", N357="No"), C357)</f>
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>-33.916457579999999</v>
       </c>
@@ -15428,8 +19727,20 @@
       <c r="M358" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N358" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O358" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P358">
+        <f>IF(AND(H358="L4", N358="No"), C358)</f>
+        <v>6663</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>-33.916457579999999</v>
       </c>
@@ -15469,8 +19780,20 @@
       <c r="M359" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N359" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O359" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P359">
+        <f>IF(AND(H359="L4", N359="No"), C359)</f>
+        <v>6907</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>-33.916419609999998</v>
       </c>
@@ -15510,8 +19833,20 @@
       <c r="M360" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N360" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O360" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P360">
+        <f>IF(AND(H360="L4", N360="No"), C360)</f>
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>-33.916448029999998</v>
       </c>
@@ -15551,8 +19886,20 @@
       <c r="M361" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N361" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O361" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P361">
+        <f>IF(AND(H361="L4", N361="No"), C361)</f>
+        <v>11207</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>-33.91639576</v>
       </c>
@@ -15592,8 +19939,20 @@
       <c r="M362" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N362" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O362" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P362">
+        <f>IF(AND(H362="L4", N362="No"), C362)</f>
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>-33.916419609999998</v>
       </c>
@@ -15633,8 +19992,20 @@
       <c r="M363" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N363" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O363" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P363">
+        <f>IF(AND(H363="L4", N363="No"), C363)</f>
+        <v>8323</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>-33.916378850000001</v>
       </c>
@@ -15674,8 +20045,20 @@
       <c r="M364" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N364" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O364" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P364" t="b">
+        <f>IF(AND(H364="L4", N364="No"), C364)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>-33.916378850000001</v>
       </c>
@@ -15715,8 +20098,20 @@
       <c r="M365" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N365" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O365" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P365" t="b">
+        <f>IF(AND(H365="L4", N365="No"), C365)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>-33.916370950000001</v>
       </c>
@@ -15756,8 +20151,20 @@
       <c r="M366" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N366" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O366" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P366" t="b">
+        <f>IF(AND(H366="L4", N366="No"), C366)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>-33.916407589999999</v>
       </c>
@@ -15797,8 +20204,20 @@
       <c r="M367" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N367" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O367" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P367">
+        <f>IF(AND(H367="L4", N367="No"), C367)</f>
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>-33.916407589999999</v>
       </c>
@@ -15838,8 +20257,20 @@
       <c r="M368" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N368" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O368" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P368">
+        <f>IF(AND(H368="L4", N368="No"), C368)</f>
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>-33.916407589999999</v>
       </c>
@@ -15879,8 +20310,20 @@
       <c r="M369" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N369" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O369" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P369">
+        <f>IF(AND(H369="L4", N369="No"), C369)</f>
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>-33.916538430000003</v>
       </c>
@@ -15920,8 +20363,20 @@
       <c r="M370" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N370" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O370" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P370">
+        <f>IF(AND(H370="L4", N370="No"), C370)</f>
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>-33.916538430000003</v>
       </c>
@@ -15961,8 +20416,20 @@
       <c r="M371" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N371" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O371" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P371">
+        <f>IF(AND(H371="L4", N371="No"), C371)</f>
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>-33.916535449999998</v>
       </c>
@@ -16002,8 +20469,20 @@
       <c r="M372" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N372" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O372" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P372">
+        <f>IF(AND(H372="L4", N372="No"), C372)</f>
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>-33.916509050000002</v>
       </c>
@@ -16043,8 +20522,20 @@
       <c r="M373" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N373" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O373" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P373">
+        <f>IF(AND(H373="L4", N373="No"), C373)</f>
+        <v>5764</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>-33.916509050000002</v>
       </c>
@@ -16084,8 +20575,20 @@
       <c r="M374" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N374" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O374" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P374">
+        <f>IF(AND(H374="L4", N374="No"), C374)</f>
+        <v>5762</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>-33.916332189999999</v>
       </c>
@@ -16125,8 +20628,20 @@
       <c r="M375" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N375" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O375" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P375">
+        <f>IF(AND(H375="L4", N375="No"), C375)</f>
+        <v>8039</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>-33.916332189999999</v>
       </c>
@@ -16166,8 +20681,20 @@
       <c r="M376" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N376" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O376" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P376">
+        <f>IF(AND(H376="L4", N376="No"), C376)</f>
+        <v>8055</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>-33.916332189999999</v>
       </c>
@@ -16207,8 +20734,20 @@
       <c r="M377" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N377" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O377" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P377">
+        <f>IF(AND(H377="L4", N377="No"), C377)</f>
+        <v>8063</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>-33.916312599999998</v>
       </c>
@@ -16248,8 +20787,20 @@
       <c r="M378" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N378" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O378" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P378">
+        <f>IF(AND(H378="L4", N378="No"), C378)</f>
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>-33.916312599999998</v>
       </c>
@@ -16289,8 +20840,20 @@
       <c r="M379" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N379" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O379" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P379">
+        <f>IF(AND(H379="L4", N379="No"), C379)</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>-33.916312599999998</v>
       </c>
@@ -16330,8 +20893,20 @@
       <c r="M380" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N380" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O380" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P380">
+        <f>IF(AND(H380="L4", N380="No"), C380)</f>
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>-33.916290719999999</v>
       </c>
@@ -16371,8 +20946,20 @@
       <c r="M381" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N381" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O381" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P381">
+        <f>IF(AND(H381="L4", N381="No"), C381)</f>
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>-33.916290719999999</v>
       </c>
@@ -16412,8 +20999,20 @@
       <c r="M382" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N382" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O382" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P382">
+        <f>IF(AND(H382="L4", N382="No"), C382)</f>
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>-33.916290719999999</v>
       </c>
@@ -16453,8 +21052,20 @@
       <c r="M383" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N383" t="str">
+        <f t="shared" si="10"/>
+        <v>No</v>
+      </c>
+      <c r="O383" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P383">
+        <f>IF(AND(H383="L4", N383="No"), C383)</f>
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>-33.916274719999997</v>
       </c>
@@ -16494,8 +21105,20 @@
       <c r="M384" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N384" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O384" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P384" t="b">
+        <f>IF(AND(H384="L4", N384="No"), C384)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>-33.916275429999999</v>
       </c>
@@ -16535,8 +21158,20 @@
       <c r="M385" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N385" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O385" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P385" t="b">
+        <f>IF(AND(H385="L4", N385="No"), C385)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>-33.916275429999999</v>
       </c>
@@ -16576,8 +21211,20 @@
       <c r="M386" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N386" t="str">
+        <f t="shared" si="10"/>
+        <v>Yes</v>
+      </c>
+      <c r="O386" t="str">
+        <f t="shared" si="11"/>
+        <v>N/A</v>
+      </c>
+      <c r="P386" t="b">
+        <f>IF(AND(H386="L4", N386="No"), C386)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>-33.916220260000003</v>
       </c>
@@ -16617,8 +21264,20 @@
       <c r="M387" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N387" t="str">
+        <f t="shared" ref="N387:N424" si="12">IF(AND(NOT(I387=J387), NOT(OR((I387="null"), (J387="null"), (I387="00:00:00:00:00:00"), (J387="00:00:00:00:00:00")))), "Yes", "No")</f>
+        <v>No</v>
+      </c>
+      <c r="O387" t="str">
+        <f t="shared" ref="O387:O423" si="13">IF(AND(N387="Yes", H387="L3"), C387, "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="P387">
+        <f>IF(AND(H387="L4", N387="No"), C387)</f>
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <v>-33.916220260000003</v>
       </c>
@@ -16658,8 +21317,20 @@
       <c r="M388" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N388" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O388" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P388">
+        <f>IF(AND(H388="L4", N388="No"), C388)</f>
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>-33.916220260000003</v>
       </c>
@@ -16699,8 +21370,20 @@
       <c r="M389" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N389" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O389" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P389">
+        <f>IF(AND(H389="L4", N389="No"), C389)</f>
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>-33.916115009999999</v>
       </c>
@@ -16740,8 +21423,20 @@
       <c r="M390" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N390" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O390" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P390">
+        <f>IF(AND(H390="L4", N390="No"), C390)</f>
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>-33.916115009999999</v>
       </c>
@@ -16781,8 +21476,20 @@
       <c r="M391" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N391" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O391" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P391">
+        <f>IF(AND(H391="L4", N391="No"), C391)</f>
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>-33.916115009999999</v>
       </c>
@@ -16822,8 +21529,20 @@
       <c r="M392" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N392" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O392" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P392">
+        <f>IF(AND(H392="L4", N392="No"), C392)</f>
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>-33.916088969999997</v>
       </c>
@@ -16863,8 +21582,20 @@
       <c r="M393" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N393" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="O393" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P393" t="b">
+        <f>IF(AND(H393="L4", N393="No"), C393)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>-33.916088969999997</v>
       </c>
@@ -16904,8 +21635,20 @@
       <c r="M394" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N394" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="O394" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P394" t="b">
+        <f>IF(AND(H394="L4", N394="No"), C394)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>-33.916088969999997</v>
       </c>
@@ -16945,8 +21688,20 @@
       <c r="M395" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N395" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="O395" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P395" t="b">
+        <f>IF(AND(H395="L4", N395="No"), C395)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>-33.915967700000003</v>
       </c>
@@ -16986,8 +21741,20 @@
       <c r="M396" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N396" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O396" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P396">
+        <f>IF(AND(H396="L4", N396="No"), C396)</f>
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <v>-33.915967700000003</v>
       </c>
@@ -17027,8 +21794,20 @@
       <c r="M397" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N397" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O397" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P397">
+        <f>IF(AND(H397="L4", N397="No"), C397)</f>
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>-33.916027579999998</v>
       </c>
@@ -17068,8 +21847,20 @@
       <c r="M398" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N398" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O398" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P398">
+        <f>IF(AND(H398="L4", N398="No"), C398)</f>
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>-33.916021829999998</v>
       </c>
@@ -17109,8 +21900,20 @@
       <c r="M399" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N399" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O399" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P399">
+        <f>IF(AND(H399="L4", N399="No"), C399)</f>
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>-33.916025380000001</v>
       </c>
@@ -17150,8 +21953,20 @@
       <c r="M400" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N400" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O400" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P400">
+        <f>IF(AND(H400="L4", N400="No"), C400)</f>
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>-33.91613796</v>
       </c>
@@ -17191,8 +22006,20 @@
       <c r="M401" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N401" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O401" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P401">
+        <f>IF(AND(H401="L4", N401="No"), C401)</f>
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>-33.916249360000002</v>
       </c>
@@ -17232,8 +22059,20 @@
       <c r="M402" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N402" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O402" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P402">
+        <f>IF(AND(H402="L4", N402="No"), C402)</f>
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>-33.916226610000002</v>
       </c>
@@ -17273,8 +22112,20 @@
       <c r="M403" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N403" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O403" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P403">
+        <f>IF(AND(H403="L4", N403="No"), C403)</f>
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>-33.916363779999998</v>
       </c>
@@ -17314,8 +22165,20 @@
       <c r="M404" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N404" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="O404" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P404" t="b">
+        <f>IF(AND(H404="L4", N404="No"), C404)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>-33.916363779999998</v>
       </c>
@@ -17355,8 +22218,20 @@
       <c r="M405" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N405" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="O405" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P405" t="b">
+        <f>IF(AND(H405="L4", N405="No"), C405)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>-33.916363779999998</v>
       </c>
@@ -17396,8 +22271,20 @@
       <c r="M406" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N406" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="O406" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P406" t="b">
+        <f>IF(AND(H406="L4", N406="No"), C406)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <v>-33.916263800000003</v>
       </c>
@@ -17437,8 +22324,20 @@
       <c r="M407" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N407" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="O407" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P407" t="b">
+        <f>IF(AND(H407="L4", N407="No"), C407)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>-33.916263800000003</v>
       </c>
@@ -17478,8 +22377,20 @@
       <c r="M408" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N408" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="O408" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P408" t="b">
+        <f>IF(AND(H408="L4", N408="No"), C408)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>-33.916263800000003</v>
       </c>
@@ -17519,8 +22430,20 @@
       <c r="M409" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N409" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="O409" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P409" t="b">
+        <f>IF(AND(H409="L4", N409="No"), C409)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>-33.916199919999997</v>
       </c>
@@ -17560,8 +22483,20 @@
       <c r="M410" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N410" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O410" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P410">
+        <f>IF(AND(H410="L4", N410="No"), C410)</f>
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>-33.916215100000002</v>
       </c>
@@ -17601,8 +22536,20 @@
       <c r="M411" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N411" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O411" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P411">
+        <f>IF(AND(H411="L4", N411="No"), C411)</f>
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>-33.916195520000002</v>
       </c>
@@ -17642,8 +22589,20 @@
       <c r="M412" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N412" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O412" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P412">
+        <f>IF(AND(H412="L4", N412="No"), C412)</f>
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>-33.916129380000001</v>
       </c>
@@ -17683,8 +22642,20 @@
       <c r="M413" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N413" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O413" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P413">
+        <f>IF(AND(H413="L4", N413="No"), C413)</f>
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <v>-33.916129380000001</v>
       </c>
@@ -17724,8 +22695,20 @@
       <c r="M414" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N414" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O414" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P414">
+        <f>IF(AND(H414="L4", N414="No"), C414)</f>
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>-33.916129380000001</v>
       </c>
@@ -17765,8 +22748,20 @@
       <c r="M415" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N415" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O415" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P415">
+        <f>IF(AND(H415="L4", N415="No"), C415)</f>
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <v>-33.916093050000001</v>
       </c>
@@ -17806,8 +22801,20 @@
       <c r="M416" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N416" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="O416" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P416" t="b">
+        <f>IF(AND(H416="L4", N416="No"), C416)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
         <v>-33.916093050000001</v>
       </c>
@@ -17847,8 +22854,20 @@
       <c r="M417" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N417" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="O417" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P417" t="b">
+        <f>IF(AND(H417="L4", N417="No"), C417)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>-33.916093050000001</v>
       </c>
@@ -17888,8 +22907,20 @@
       <c r="M418" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N418" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="O418" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P418" t="b">
+        <f>IF(AND(H418="L4", N418="No"), C418)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
         <v>-33.915759139999999</v>
       </c>
@@ -17929,8 +22960,20 @@
       <c r="M419" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N419" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="O419" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P419" t="b">
+        <f>IF(AND(H419="L4", N419="No"), C419)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
         <v>-33.915759139999999</v>
       </c>
@@ -17970,8 +23013,20 @@
       <c r="M420" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N420" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="O420" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P420" t="b">
+        <f>IF(AND(H420="L4", N420="No"), C420)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <v>-33.915759139999999</v>
       </c>
@@ -18011,8 +23066,20 @@
       <c r="M421" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N421" t="str">
+        <f t="shared" si="12"/>
+        <v>Yes</v>
+      </c>
+      <c r="O421" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P421" t="b">
+        <f>IF(AND(H421="L4", N421="No"), C421)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
         <v>-33.915749890000001</v>
       </c>
@@ -18052,8 +23119,20 @@
       <c r="M422" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N422" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O422" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P422">
+        <f>IF(AND(H422="L4", N422="No"), C422)</f>
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
         <v>-33.915749890000001</v>
       </c>
@@ -18093,8 +23172,20 @@
       <c r="M423" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N423" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O423" t="str">
+        <f t="shared" si="13"/>
+        <v>N/A</v>
+      </c>
+      <c r="P423">
+        <f>IF(AND(H423="L4", N423="No"), C423)</f>
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
         <v>-33.915749890000001</v>
       </c>
@@ -18134,8 +23225,20 @@
       <c r="M424" s="1">
         <v>1507890000000</v>
       </c>
-    </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N424" t="str">
+        <f t="shared" si="12"/>
+        <v>No</v>
+      </c>
+      <c r="O424" t="str">
+        <f>IF(AND(N424="Yes", H424="L3"), C424, "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="P424">
+        <f>IF(AND(H424="L4", N424="No"), C424)</f>
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -18150,7 +23253,7 @@
       <c r="L425" s="2"/>
       <c r="M425" s="2"/>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -18165,7 +23268,7 @@
       <c r="L426" s="2"/>
       <c r="M426" s="2"/>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -18180,7 +23283,7 @@
       <c r="L427" s="2"/>
       <c r="M427" s="2"/>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -18195,7 +23298,7 @@
       <c r="L428" s="2"/>
       <c r="M428" s="2"/>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -18210,7 +23313,7 @@
       <c r="L429" s="2"/>
       <c r="M429" s="2"/>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -18225,7 +23328,7 @@
       <c r="L430" s="2"/>
       <c r="M430" s="2"/>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -18240,7 +23343,7 @@
       <c r="L431" s="2"/>
       <c r="M431" s="2"/>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -19713,6 +24816,7 @@
       <c r="N531" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/All Blackspots.xlsx
+++ b/All Blackspots.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="148">
   <si>
     <t>lat</t>
   </si>
@@ -460,6 +460,21 @@
   <si>
     <t>l3_reassoc_time</t>
   </si>
+  <si>
+    <t>num_l4_events</t>
+  </si>
+  <si>
+    <t>num_l3_events</t>
+  </si>
+  <si>
+    <t>num_l2_events</t>
+  </si>
+  <si>
+    <t>av_l3_time</t>
+  </si>
+  <si>
+    <t>av_l2_time</t>
+  </si>
 </sst>
 </file>
 
@@ -481,12 +496,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -501,13 +528,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P531"/>
+  <dimension ref="A1:S531"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,9 +828,12 @@
     <col min="10" max="10" width="16.1640625" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="16" width="17.83203125" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -850,8 +882,17 @@
       <c r="P1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-33.917171500000002</v>
       </c>
@@ -895,16 +936,28 @@
         <f>IF(AND(NOT(I2=J2), NOT(OR((I2="null"), (J2="null"), (I2="00:00:00:00:00:00"), (J2="00:00:00:00:00:00")))), "Yes", "No")</f>
         <v>Yes</v>
       </c>
-      <c r="O2" t="str">
-        <f>IF(AND(N2="Yes", H2="L3"), C2, "N/A")</f>
-        <v>N/A</v>
+      <c r="O2">
+        <f>IF(AND(N2="Yes", OR(H2="L3", H2="L4")), C2, "N/A")</f>
+        <v>173923</v>
       </c>
       <c r="P2" t="b">
         <f>IF(AND(H2="L4", N2="No"), C2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="4">
+        <f>COUNTIFS(H2:H424, "L4", O2:O424, "N/A")</f>
+        <v>246</v>
+      </c>
+      <c r="R2" s="4">
+        <f>COUNTIF(P2:P424, "&gt;0")</f>
+        <v>246</v>
+      </c>
+      <c r="S2" s="4">
+        <f>COUNTIF(O2:O424, "&gt;0")</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-33.91771842</v>
       </c>
@@ -949,7 +1002,7 @@
         <v>No</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O66" si="1">IF(AND(N3="Yes", H3="L3"), C3, "N/A")</f>
+        <f t="shared" ref="O3:O66" si="1">IF(AND(N3="Yes", OR(H3="L3", H3="L4")), C3, "N/A")</f>
         <v>N/A</v>
       </c>
       <c r="P3">
@@ -957,7 +1010,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-33.917863109999999</v>
       </c>
@@ -1001,16 +1054,23 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O4" t="str">
+      <c r="O4">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>11783</v>
       </c>
       <c r="P4" t="b">
         <f>IF(AND(H4="L4", N4="No"), C4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-33.917932720000003</v>
       </c>
@@ -1062,8 +1122,17 @@
         <f>IF(AND(H5="L4", N5="No"), C5)</f>
         <v>2876</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5">
+        <f>AVERAGEIF(P2:P424, "&gt;0")</f>
+        <v>8016.1951219512193</v>
+      </c>
+      <c r="S5" s="5">
+        <f>AVERAGEIF(O2:O424, "&gt;0")</f>
+        <v>7187.8757062146897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-33.917998480000001</v>
       </c>
@@ -1107,16 +1176,16 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O6" t="str">
+      <c r="O6">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>1548</v>
       </c>
       <c r="P6" t="b">
         <f>IF(AND(H6="L4", N6="No"), C6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-33.917996899999999</v>
       </c>
@@ -1169,7 +1238,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-33.917992249999998</v>
       </c>
@@ -1222,7 +1291,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-33.917986429999999</v>
       </c>
@@ -1275,7 +1344,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-33.917983159999999</v>
       </c>
@@ -1328,7 +1397,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-33.918003599999999</v>
       </c>
@@ -1381,7 +1450,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-33.918006290000001</v>
       </c>
@@ -1425,16 +1494,16 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O12" t="str">
+      <c r="O12">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>1412</v>
       </c>
       <c r="P12" t="b">
         <f>IF(AND(H12="L4", N12="No"), C12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-33.918048380000002</v>
       </c>
@@ -1487,7 +1556,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-33.918555429999998</v>
       </c>
@@ -1531,16 +1600,16 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O14" t="str">
+      <c r="O14">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>9907</v>
       </c>
       <c r="P14" t="b">
         <f>IF(AND(H14="L4", N14="No"), C14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-33.918702150000001</v>
       </c>
@@ -1593,7 +1662,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-33.91875761</v>
       </c>
@@ -1743,9 +1812,9 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O18" t="str">
+      <c r="O18">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>18446</v>
       </c>
       <c r="P18" t="b">
         <f>IF(AND(H18="L4", N18="No"), C18)</f>
@@ -2273,9 +2342,9 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O28" t="str">
+      <c r="O28">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>3693</v>
       </c>
       <c r="P28" t="b">
         <f>IF(AND(H28="L4", N28="No"), C28)</f>
@@ -2326,9 +2395,9 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O29" t="str">
+      <c r="O29">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>1350</v>
       </c>
       <c r="P29" t="b">
         <f>IF(AND(H29="L4", N29="No"), C29)</f>
@@ -2538,9 +2607,9 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O33" t="str">
+      <c r="O33">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>1701</v>
       </c>
       <c r="P33" t="b">
         <f>IF(AND(H33="L4", N33="No"), C33)</f>
@@ -2591,9 +2660,9 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O34" t="str">
+      <c r="O34">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>3170</v>
       </c>
       <c r="P34" t="b">
         <f>IF(AND(H34="L4", N34="No"), C34)</f>
@@ -2750,9 +2819,9 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O37" t="str">
+      <c r="O37">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>1311</v>
       </c>
       <c r="P37" t="b">
         <f>IF(AND(H37="L4", N37="No"), C37)</f>
@@ -2803,9 +2872,9 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O38" t="str">
+      <c r="O38">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>2167</v>
       </c>
       <c r="P38" t="b">
         <f>IF(AND(H38="L4", N38="No"), C38)</f>
@@ -3280,9 +3349,9 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O47" t="str">
+      <c r="O47">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>1625</v>
       </c>
       <c r="P47" t="b">
         <f>IF(AND(H47="L4", N47="No"), C47)</f>
@@ -3333,9 +3402,9 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O48" t="str">
+      <c r="O48">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>1751</v>
       </c>
       <c r="P48" t="b">
         <f>IF(AND(H48="L4", N48="No"), C48)</f>
@@ -3386,9 +3455,9 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O49" t="str">
+      <c r="O49">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>5669</v>
       </c>
       <c r="P49" t="b">
         <f>IF(AND(H49="L4", N49="No"), C49)</f>
@@ -3439,9 +3508,9 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O50" t="str">
+      <c r="O50">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>5809</v>
       </c>
       <c r="P50" t="b">
         <f>IF(AND(H50="L4", N50="No"), C50)</f>
@@ -3492,9 +3561,9 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O51" t="str">
+      <c r="O51">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>3973</v>
       </c>
       <c r="P51" t="b">
         <f>IF(AND(H51="L4", N51="No"), C51)</f>
@@ -3545,9 +3614,9 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O52" t="str">
+      <c r="O52">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>18133</v>
       </c>
       <c r="P52" t="b">
         <f>IF(AND(H52="L4", N52="No"), C52)</f>
@@ -3651,9 +3720,9 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O54" t="str">
+      <c r="O54">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>14617</v>
       </c>
       <c r="P54" t="b">
         <f>IF(AND(H54="L4", N54="No"), C54)</f>
@@ -3916,9 +3985,9 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O59" t="str">
+      <c r="O59">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>23394</v>
       </c>
       <c r="P59" t="b">
         <f>IF(AND(H59="L4", N59="No"), C59)</f>
@@ -4022,9 +4091,9 @@
         <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
-      <c r="O61" t="str">
+      <c r="O61">
         <f t="shared" si="1"/>
-        <v>N/A</v>
+        <v>8620</v>
       </c>
       <c r="P61" t="b">
         <f>IF(AND(H61="L4", N61="No"), C61)</f>
@@ -4341,7 +4410,7 @@
         <v>No</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O130" si="3">IF(AND(N67="Yes", H67="L3"), C67, "N/A")</f>
+        <f t="shared" ref="O67:O130" si="3">IF(AND(N67="Yes", OR(H67="L3", H67="L4")), C67, "N/A")</f>
         <v>N/A</v>
       </c>
       <c r="P67">
@@ -4499,9 +4568,9 @@
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="O70" t="str">
+      <c r="O70">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>1683</v>
       </c>
       <c r="P70" t="b">
         <f>IF(AND(H70="L4", N70="No"), C70)</f>
@@ -4658,9 +4727,9 @@
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="O73" t="str">
+      <c r="O73">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>1660</v>
       </c>
       <c r="P73" t="b">
         <f>IF(AND(H73="L4", N73="No"), C73)</f>
@@ -4764,9 +4833,9 @@
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="O75" t="str">
+      <c r="O75">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>1809</v>
       </c>
       <c r="P75" t="b">
         <f>IF(AND(H75="L4", N75="No"), C75)</f>
@@ -4817,9 +4886,9 @@
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="O76" t="str">
+      <c r="O76">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>1633</v>
       </c>
       <c r="P76" t="b">
         <f>IF(AND(H76="L4", N76="No"), C76)</f>
@@ -4976,9 +5045,9 @@
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="O79" t="str">
+      <c r="O79">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>6242</v>
       </c>
       <c r="P79" t="b">
         <f>IF(AND(H79="L4", N79="No"), C79)</f>
@@ -5029,9 +5098,9 @@
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="O80" t="str">
+      <c r="O80">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>8576</v>
       </c>
       <c r="P80" t="b">
         <f>IF(AND(H80="L4", N80="No"), C80)</f>
@@ -5453,9 +5522,9 @@
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="O88" t="str">
+      <c r="O88">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>144305</v>
       </c>
       <c r="P88" t="b">
         <f>IF(AND(H88="L4", N88="No"), C88)</f>
@@ -5559,9 +5628,9 @@
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="O90" t="str">
+      <c r="O90">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>17562</v>
       </c>
       <c r="P90" t="b">
         <f>IF(AND(H90="L4", N90="No"), C90)</f>
@@ -5824,9 +5893,9 @@
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="O95" t="str">
+      <c r="O95">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>1588</v>
       </c>
       <c r="P95" t="b">
         <f>IF(AND(H95="L4", N95="No"), C95)</f>
@@ -5930,9 +5999,9 @@
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="O97" t="str">
+      <c r="O97">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>8099</v>
       </c>
       <c r="P97" t="b">
         <f>IF(AND(H97="L4", N97="No"), C97)</f>
@@ -5983,9 +6052,9 @@
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="O98" t="str">
+      <c r="O98">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>3231</v>
       </c>
       <c r="P98" t="b">
         <f>IF(AND(H98="L4", N98="No"), C98)</f>
@@ -6036,9 +6105,9 @@
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="O99" t="str">
+      <c r="O99">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>6485</v>
       </c>
       <c r="P99" t="b">
         <f>IF(AND(H99="L4", N99="No"), C99)</f>
@@ -6672,9 +6741,9 @@
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="O111" t="str">
+      <c r="O111">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>2555</v>
       </c>
       <c r="P111" t="b">
         <f>IF(AND(H111="L4", N111="No"), C111)</f>
@@ -6831,9 +6900,9 @@
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="O114" t="str">
+      <c r="O114">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>7021</v>
       </c>
       <c r="P114" t="b">
         <f>IF(AND(H114="L4", N114="No"), C114)</f>
@@ -6884,9 +6953,9 @@
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="O115" t="str">
+      <c r="O115">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>30330</v>
       </c>
       <c r="P115" t="b">
         <f>IF(AND(H115="L4", N115="No"), C115)</f>
@@ -7043,9 +7112,9 @@
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="O118" t="str">
+      <c r="O118">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>11712</v>
       </c>
       <c r="P118" t="b">
         <f>IF(AND(H118="L4", N118="No"), C118)</f>
@@ -7467,9 +7536,9 @@
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="O126" t="str">
+      <c r="O126">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>3646</v>
       </c>
       <c r="P126" t="b">
         <f>IF(AND(H126="L4", N126="No"), C126)</f>
@@ -7573,9 +7642,9 @@
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="O128" t="str">
+      <c r="O128">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>2718</v>
       </c>
       <c r="P128" t="b">
         <f>IF(AND(H128="L4", N128="No"), C128)</f>
@@ -7626,9 +7695,9 @@
         <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
-      <c r="O129" t="str">
+      <c r="O129">
         <f t="shared" si="3"/>
-        <v>N/A</v>
+        <v>2903</v>
       </c>
       <c r="P129" t="b">
         <f>IF(AND(H129="L4", N129="No"), C129)</f>
@@ -7733,7 +7802,7 @@
         <v>No</v>
       </c>
       <c r="O131" t="str">
-        <f t="shared" ref="O131:O194" si="5">IF(AND(N131="Yes", H131="L3"), C131, "N/A")</f>
+        <f t="shared" ref="O131:O194" si="5">IF(AND(N131="Yes", OR(H131="L3", H131="L4")), C131, "N/A")</f>
         <v>N/A</v>
       </c>
       <c r="P131">
@@ -7785,9 +7854,9 @@
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="O132" t="str">
+      <c r="O132">
         <f t="shared" si="5"/>
-        <v>N/A</v>
+        <v>1667</v>
       </c>
       <c r="P132" t="b">
         <f>IF(AND(H132="L4", N132="No"), C132)</f>
@@ -7838,9 +7907,9 @@
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="O133" t="str">
+      <c r="O133">
         <f t="shared" si="5"/>
-        <v>N/A</v>
+        <v>2631</v>
       </c>
       <c r="P133" t="b">
         <f>IF(AND(H133="L4", N133="No"), C133)</f>
@@ -8050,9 +8119,9 @@
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="O137" t="str">
+      <c r="O137">
         <f t="shared" si="5"/>
-        <v>N/A</v>
+        <v>2111</v>
       </c>
       <c r="P137" t="b">
         <f>IF(AND(H137="L4", N137="No"), C137)</f>
@@ -8209,9 +8278,9 @@
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="O140" t="str">
+      <c r="O140">
         <f t="shared" si="5"/>
-        <v>N/A</v>
+        <v>14177</v>
       </c>
       <c r="P140" t="b">
         <f>IF(AND(H140="L4", N140="No"), C140)</f>
@@ -8368,9 +8437,9 @@
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="O143" t="str">
+      <c r="O143">
         <f t="shared" si="5"/>
-        <v>N/A</v>
+        <v>13425</v>
       </c>
       <c r="P143" t="b">
         <f>IF(AND(H143="L4", N143="No"), C143)</f>
@@ -8474,9 +8543,9 @@
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="O145" t="str">
+      <c r="O145">
         <f t="shared" si="5"/>
-        <v>N/A</v>
+        <v>3910</v>
       </c>
       <c r="P145" t="b">
         <f>IF(AND(H145="L4", N145="No"), C145)</f>
@@ -8527,9 +8596,9 @@
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="O146" t="str">
+      <c r="O146">
         <f t="shared" si="5"/>
-        <v>N/A</v>
+        <v>1625</v>
       </c>
       <c r="P146" t="b">
         <f>IF(AND(H146="L4", N146="No"), C146)</f>
@@ -8686,9 +8755,9 @@
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="O149" t="str">
+      <c r="O149">
         <f t="shared" si="5"/>
-        <v>N/A</v>
+        <v>1400</v>
       </c>
       <c r="P149" t="b">
         <f>IF(AND(H149="L4", N149="No"), C149)</f>
@@ -8845,9 +8914,9 @@
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="O152" t="str">
+      <c r="O152">
         <f t="shared" si="5"/>
-        <v>N/A</v>
+        <v>3973</v>
       </c>
       <c r="P152" t="b">
         <f>IF(AND(H152="L4", N152="No"), C152)</f>
@@ -9905,9 +9974,9 @@
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="O172" t="str">
+      <c r="O172">
         <f t="shared" si="5"/>
-        <v>N/A</v>
+        <v>1423</v>
       </c>
       <c r="P172" t="b">
         <f>IF(AND(H172="L4", N172="No"), C172)</f>
@@ -10170,9 +10239,9 @@
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="O177" t="str">
+      <c r="O177">
         <f t="shared" si="5"/>
-        <v>N/A</v>
+        <v>10687</v>
       </c>
       <c r="P177" t="b">
         <f>IF(AND(H177="L4", N177="No"), C177)</f>
@@ -10276,9 +10345,9 @@
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="O179" t="str">
+      <c r="O179">
         <f t="shared" si="5"/>
-        <v>N/A</v>
+        <v>13903</v>
       </c>
       <c r="P179" t="b">
         <f>IF(AND(H179="L4", N179="No"), C179)</f>
@@ -10382,9 +10451,9 @@
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="O181" t="str">
+      <c r="O181">
         <f t="shared" si="5"/>
-        <v>N/A</v>
+        <v>1430</v>
       </c>
       <c r="P181" t="b">
         <f>IF(AND(H181="L4", N181="No"), C181)</f>
@@ -10488,9 +10557,9 @@
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="O183" t="str">
+      <c r="O183">
         <f t="shared" si="5"/>
-        <v>N/A</v>
+        <v>8543</v>
       </c>
       <c r="P183" t="b">
         <f>IF(AND(H183="L4", N183="No"), C183)</f>
@@ -10541,9 +10610,9 @@
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="O184" t="str">
+      <c r="O184">
         <f t="shared" si="5"/>
-        <v>N/A</v>
+        <v>1319</v>
       </c>
       <c r="P184" t="b">
         <f>IF(AND(H184="L4", N184="No"), C184)</f>
@@ -10647,9 +10716,9 @@
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="O186" t="str">
+      <c r="O186">
         <f t="shared" si="5"/>
-        <v>N/A</v>
+        <v>1273</v>
       </c>
       <c r="P186" t="b">
         <f>IF(AND(H186="L4", N186="No"), C186)</f>
@@ -10859,9 +10928,9 @@
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="O190" t="str">
+      <c r="O190">
         <f t="shared" si="5"/>
-        <v>N/A</v>
+        <v>1323</v>
       </c>
       <c r="P190" t="b">
         <f>IF(AND(H190="L4", N190="No"), C190)</f>
@@ -11018,9 +11087,9 @@
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="O193" t="str">
+      <c r="O193">
         <f t="shared" si="5"/>
-        <v>N/A</v>
+        <v>3470</v>
       </c>
       <c r="P193" t="b">
         <f>IF(AND(H193="L4", N193="No"), C193)</f>
@@ -11071,9 +11140,9 @@
         <f t="shared" si="4"/>
         <v>Yes</v>
       </c>
-      <c r="O194" t="str">
+      <c r="O194">
         <f t="shared" si="5"/>
-        <v>N/A</v>
+        <v>1347</v>
       </c>
       <c r="P194" t="b">
         <f>IF(AND(H194="L4", N194="No"), C194)</f>
@@ -11124,9 +11193,9 @@
         <f t="shared" ref="N195:N258" si="6">IF(AND(NOT(I195=J195), NOT(OR((I195="null"), (J195="null"), (I195="00:00:00:00:00:00"), (J195="00:00:00:00:00:00")))), "Yes", "No")</f>
         <v>Yes</v>
       </c>
-      <c r="O195" t="str">
-        <f t="shared" ref="O195:O258" si="7">IF(AND(N195="Yes", H195="L3"), C195, "N/A")</f>
-        <v>N/A</v>
+      <c r="O195">
+        <f t="shared" ref="O195:O258" si="7">IF(AND(N195="Yes", OR(H195="L3", H195="L4")), C195, "N/A")</f>
+        <v>1317</v>
       </c>
       <c r="P195" t="b">
         <f>IF(AND(H195="L4", N195="No"), C195)</f>
@@ -11230,9 +11299,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O197" t="str">
+      <c r="O197">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>1315</v>
       </c>
       <c r="P197" t="b">
         <f>IF(AND(H197="L4", N197="No"), C197)</f>
@@ -11336,9 +11405,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O199" t="str">
+      <c r="O199">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>2310</v>
       </c>
       <c r="P199" t="b">
         <f>IF(AND(H199="L4", N199="No"), C199)</f>
@@ -11495,9 +11564,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O202" t="str">
+      <c r="O202">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>1272</v>
       </c>
       <c r="P202" t="b">
         <f>IF(AND(H202="L4", N202="No"), C202)</f>
@@ -11813,9 +11882,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O208" t="str">
+      <c r="O208">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>1276</v>
       </c>
       <c r="P208" t="b">
         <f>IF(AND(H208="L4", N208="No"), C208)</f>
@@ -11866,9 +11935,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O209" t="str">
+      <c r="O209">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>1326</v>
       </c>
       <c r="P209" t="b">
         <f>IF(AND(H209="L4", N209="No"), C209)</f>
@@ -12025,9 +12094,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O212" t="str">
+      <c r="O212">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>1304</v>
       </c>
       <c r="P212" t="b">
         <f>IF(AND(H212="L4", N212="No"), C212)</f>
@@ -12078,9 +12147,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O213" t="str">
+      <c r="O213">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>1323</v>
       </c>
       <c r="P213" t="b">
         <f>IF(AND(H213="L4", N213="No"), C213)</f>
@@ -12237,9 +12306,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O216" t="str">
+      <c r="O216">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>1309</v>
       </c>
       <c r="P216" t="b">
         <f>IF(AND(H216="L4", N216="No"), C216)</f>
@@ -12290,9 +12359,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O217" t="str">
+      <c r="O217">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>1321</v>
       </c>
       <c r="P217" t="b">
         <f>IF(AND(H217="L4", N217="No"), C217)</f>
@@ -12343,9 +12412,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O218" t="str">
+      <c r="O218">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>1290</v>
       </c>
       <c r="P218" t="b">
         <f>IF(AND(H218="L4", N218="No"), C218)</f>
@@ -12396,9 +12465,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O219" t="str">
+      <c r="O219">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>1396</v>
       </c>
       <c r="P219" t="b">
         <f>IF(AND(H219="L4", N219="No"), C219)</f>
@@ -12608,9 +12677,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O223" t="str">
+      <c r="O223">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>1263</v>
       </c>
       <c r="P223" t="b">
         <f>IF(AND(H223="L4", N223="No"), C223)</f>
@@ -12661,9 +12730,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O224" t="str">
+      <c r="O224">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>1303</v>
       </c>
       <c r="P224" t="b">
         <f>IF(AND(H224="L4", N224="No"), C224)</f>
@@ -12714,9 +12783,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O225" t="str">
+      <c r="O225">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>3342</v>
       </c>
       <c r="P225" t="b">
         <f>IF(AND(H225="L4", N225="No"), C225)</f>
@@ -12820,9 +12889,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O227" t="str">
+      <c r="O227">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>1275</v>
       </c>
       <c r="P227" t="b">
         <f>IF(AND(H227="L4", N227="No"), C227)</f>
@@ -12873,9 +12942,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O228" t="str">
+      <c r="O228">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>1281</v>
       </c>
       <c r="P228" t="b">
         <f>IF(AND(H228="L4", N228="No"), C228)</f>
@@ -12926,9 +12995,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O229" t="str">
+      <c r="O229">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>31441</v>
       </c>
       <c r="P229" t="b">
         <f>IF(AND(H229="L4", N229="No"), C229)</f>
@@ -13138,9 +13207,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O233" t="str">
+      <c r="O233">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>1298</v>
       </c>
       <c r="P233" t="b">
         <f>IF(AND(H233="L4", N233="No"), C233)</f>
@@ -13244,9 +13313,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O235" t="str">
+      <c r="O235">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>3475</v>
       </c>
       <c r="P235" t="b">
         <f>IF(AND(H235="L4", N235="No"), C235)</f>
@@ -13774,9 +13843,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O245" t="str">
+      <c r="O245">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>1286</v>
       </c>
       <c r="P245" t="b">
         <f>IF(AND(H245="L4", N245="No"), C245)</f>
@@ -13827,9 +13896,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O246" t="str">
+      <c r="O246">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>1261</v>
       </c>
       <c r="P246" t="b">
         <f>IF(AND(H246="L4", N246="No"), C246)</f>
@@ -14296,9 +14365,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O255" t="str">
+      <c r="O255">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>10090</v>
       </c>
       <c r="P255" t="b">
         <f>IF(AND(H255="L4", N255="No"), C255)</f>
@@ -14349,9 +14418,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O256" t="str">
+      <c r="O256">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>10207</v>
       </c>
       <c r="P256" t="b">
         <f>IF(AND(H256="L4", N256="No"), C256)</f>
@@ -14402,9 +14471,9 @@
         <f t="shared" si="6"/>
         <v>Yes</v>
       </c>
-      <c r="O257" t="str">
+      <c r="O257">
         <f t="shared" si="7"/>
-        <v>N/A</v>
+        <v>9605</v>
       </c>
       <c r="P257" t="b">
         <f>IF(AND(H257="L4", N257="No"), C257)</f>
@@ -14509,7 +14578,7 @@
         <v>No</v>
       </c>
       <c r="O259" t="str">
-        <f t="shared" ref="O259:O322" si="9">IF(AND(N259="Yes", H259="L3"), C259, "N/A")</f>
+        <f t="shared" ref="O259:O322" si="9">IF(AND(N259="Yes", OR(H259="L3", H259="L4")), C259, "N/A")</f>
         <v>N/A</v>
       </c>
       <c r="P259">
@@ -14614,9 +14683,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O261" t="str">
+      <c r="O261">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>1278</v>
       </c>
       <c r="P261" t="b">
         <f>IF(AND(H261="L4", N261="No"), C261)</f>
@@ -14667,9 +14736,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O262" t="str">
+      <c r="O262">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>1272</v>
       </c>
       <c r="P262" t="b">
         <f>IF(AND(H262="L4", N262="No"), C262)</f>
@@ -14720,9 +14789,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O263" t="str">
+      <c r="O263">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>1243</v>
       </c>
       <c r="P263" t="b">
         <f>IF(AND(H263="L4", N263="No"), C263)</f>
@@ -14773,9 +14842,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O264" t="str">
+      <c r="O264">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>2350</v>
       </c>
       <c r="P264" t="b">
         <f>IF(AND(H264="L4", N264="No"), C264)</f>
@@ -14826,9 +14895,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O265" t="str">
+      <c r="O265">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>3362</v>
       </c>
       <c r="P265" t="b">
         <f>IF(AND(H265="L4", N265="No"), C265)</f>
@@ -14879,9 +14948,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O266" t="str">
+      <c r="O266">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>4361</v>
       </c>
       <c r="P266" t="b">
         <f>IF(AND(H266="L4", N266="No"), C266)</f>
@@ -14932,9 +15001,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O267" t="str">
+      <c r="O267">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>1262</v>
       </c>
       <c r="P267" t="b">
         <f>IF(AND(H267="L4", N267="No"), C267)</f>
@@ -14985,9 +15054,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O268" t="str">
+      <c r="O268">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>1398</v>
       </c>
       <c r="P268" t="b">
         <f>IF(AND(H268="L4", N268="No"), C268)</f>
@@ -15091,9 +15160,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O270" t="str">
+      <c r="O270">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>3325</v>
       </c>
       <c r="P270" t="b">
         <f>IF(AND(H270="L4", N270="No"), C270)</f>
@@ -15403,9 +15472,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O276" t="str">
+      <c r="O276">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>2031</v>
       </c>
       <c r="P276" t="b">
         <f>IF(AND(H276="L4", N276="No"), C276)</f>
@@ -15666,9 +15735,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O281" t="str">
+      <c r="O281">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>1378</v>
       </c>
       <c r="P281" t="b">
         <f>IF(AND(H281="L4", N281="No"), C281)</f>
@@ -15719,9 +15788,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O282" t="str">
+      <c r="O282">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>1417</v>
       </c>
       <c r="P282" t="b">
         <f>IF(AND(H282="L4", N282="No"), C282)</f>
@@ -15772,9 +15841,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O283" t="str">
+      <c r="O283">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>1264</v>
       </c>
       <c r="P283" t="b">
         <f>IF(AND(H283="L4", N283="No"), C283)</f>
@@ -15931,9 +16000,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O286" t="str">
+      <c r="O286">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>4520</v>
       </c>
       <c r="P286" t="b">
         <f>IF(AND(H286="L4", N286="No"), C286)</f>
@@ -15984,9 +16053,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O287" t="str">
+      <c r="O287">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>6353</v>
       </c>
       <c r="P287" t="b">
         <f>IF(AND(H287="L4", N287="No"), C287)</f>
@@ -16249,9 +16318,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O292" t="str">
+      <c r="O292">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>1708</v>
       </c>
       <c r="P292" t="b">
         <f>IF(AND(H292="L4", N292="No"), C292)</f>
@@ -16355,9 +16424,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O294" t="str">
+      <c r="O294">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>1616</v>
       </c>
       <c r="P294" t="b">
         <f>IF(AND(H294="L4", N294="No"), C294)</f>
@@ -16461,9 +16530,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O296" t="str">
+      <c r="O296">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>1911</v>
       </c>
       <c r="P296" t="b">
         <f>IF(AND(H296="L4", N296="No"), C296)</f>
@@ -16514,9 +16583,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O297" t="str">
+      <c r="O297">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>1401</v>
       </c>
       <c r="P297" t="b">
         <f>IF(AND(H297="L4", N297="No"), C297)</f>
@@ -16620,9 +16689,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O299" t="str">
+      <c r="O299">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>3622</v>
       </c>
       <c r="P299" t="b">
         <f>IF(AND(H299="L4", N299="No"), C299)</f>
@@ -16673,9 +16742,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O300" t="str">
+      <c r="O300">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>1340</v>
       </c>
       <c r="P300" t="b">
         <f>IF(AND(H300="L4", N300="No"), C300)</f>
@@ -16726,9 +16795,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O301" t="str">
+      <c r="O301">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>1353</v>
       </c>
       <c r="P301" t="b">
         <f>IF(AND(H301="L4", N301="No"), C301)</f>
@@ -16779,9 +16848,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O302" t="str">
+      <c r="O302">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>1380</v>
       </c>
       <c r="P302" t="b">
         <f>IF(AND(H302="L4", N302="No"), C302)</f>
@@ -16832,9 +16901,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O303" t="str">
+      <c r="O303">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>1327</v>
       </c>
       <c r="P303" t="b">
         <f>IF(AND(H303="L4", N303="No"), C303)</f>
@@ -16938,9 +17007,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O305" t="str">
+      <c r="O305">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>1329</v>
       </c>
       <c r="P305" t="b">
         <f>IF(AND(H305="L4", N305="No"), C305)</f>
@@ -16991,9 +17060,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O306" t="str">
+      <c r="O306">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>1319</v>
       </c>
       <c r="P306" t="b">
         <f>IF(AND(H306="L4", N306="No"), C306)</f>
@@ -17044,9 +17113,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O307" t="str">
+      <c r="O307">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>1336</v>
       </c>
       <c r="P307" t="b">
         <f>IF(AND(H307="L4", N307="No"), C307)</f>
@@ -17097,9 +17166,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O308" t="str">
+      <c r="O308">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>20100</v>
       </c>
       <c r="P308" t="b">
         <f>IF(AND(H308="L4", N308="No"), C308)</f>
@@ -17150,9 +17219,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O309" t="str">
+      <c r="O309">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>21091</v>
       </c>
       <c r="P309" t="b">
         <f>IF(AND(H309="L4", N309="No"), C309)</f>
@@ -17203,9 +17272,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O310" t="str">
+      <c r="O310">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>21041</v>
       </c>
       <c r="P310" t="b">
         <f>IF(AND(H310="L4", N310="No"), C310)</f>
@@ -17729,9 +17798,9 @@
         <f t="shared" si="8"/>
         <v>Yes</v>
       </c>
-      <c r="O320" t="str">
+      <c r="O320">
         <f t="shared" si="9"/>
-        <v>N/A</v>
+        <v>20996</v>
       </c>
       <c r="P320" t="b">
         <f>IF(AND(H320="L4", N320="No"), C320)</f>
@@ -17885,7 +17954,7 @@
         <v>No</v>
       </c>
       <c r="O323" t="str">
-        <f t="shared" ref="O323:O386" si="11">IF(AND(N323="Yes", H323="L3"), C323, "N/A")</f>
+        <f t="shared" ref="O323:O386" si="11">IF(AND(N323="Yes", OR(H323="L3", H323="L4")), C323, "N/A")</f>
         <v>N/A</v>
       </c>
       <c r="P323">
@@ -18043,9 +18112,9 @@
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="O326" t="str">
+      <c r="O326">
         <f t="shared" si="11"/>
-        <v>N/A</v>
+        <v>52178</v>
       </c>
       <c r="P326" t="b">
         <f>IF(AND(H326="L4", N326="No"), C326)</f>
@@ -18096,9 +18165,9 @@
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="O327" t="str">
+      <c r="O327">
         <f t="shared" si="11"/>
-        <v>N/A</v>
+        <v>51563</v>
       </c>
       <c r="P327" t="b">
         <f>IF(AND(H327="L4", N327="No"), C327)</f>
@@ -18149,9 +18218,9 @@
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="O328" t="str">
+      <c r="O328">
         <f t="shared" si="11"/>
-        <v>N/A</v>
+        <v>27461</v>
       </c>
       <c r="P328" t="b">
         <f>IF(AND(H328="L4", N328="No"), C328)</f>
@@ -18512,9 +18581,9 @@
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="O335" t="str">
+      <c r="O335">
         <f t="shared" si="11"/>
-        <v>N/A</v>
+        <v>1442</v>
       </c>
       <c r="P335" t="b">
         <f>IF(AND(H335="L4", N335="No"), C335)</f>
@@ -18565,9 +18634,9 @@
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="O336" t="str">
+      <c r="O336">
         <f t="shared" si="11"/>
-        <v>N/A</v>
+        <v>1518</v>
       </c>
       <c r="P336" t="b">
         <f>IF(AND(H336="L4", N336="No"), C336)</f>
@@ -18618,9 +18687,9 @@
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="O337" t="str">
+      <c r="O337">
         <f t="shared" si="11"/>
-        <v>N/A</v>
+        <v>1351</v>
       </c>
       <c r="P337" t="b">
         <f>IF(AND(H337="L4", N337="No"), C337)</f>
@@ -18671,9 +18740,9 @@
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="O338" t="str">
+      <c r="O338">
         <f t="shared" si="11"/>
-        <v>N/A</v>
+        <v>9733</v>
       </c>
       <c r="P338" t="b">
         <f>IF(AND(H338="L4", N338="No"), C338)</f>
@@ -18724,9 +18793,9 @@
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="O339" t="str">
+      <c r="O339">
         <f t="shared" si="11"/>
-        <v>N/A</v>
+        <v>9731</v>
       </c>
       <c r="P339" t="b">
         <f>IF(AND(H339="L4", N339="No"), C339)</f>
@@ -18777,9 +18846,9 @@
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="O340" t="str">
+      <c r="O340">
         <f t="shared" si="11"/>
-        <v>N/A</v>
+        <v>9720</v>
       </c>
       <c r="P340" t="b">
         <f>IF(AND(H340="L4", N340="No"), C340)</f>
@@ -19148,9 +19217,9 @@
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="O347" t="str">
+      <c r="O347">
         <f t="shared" si="11"/>
-        <v>N/A</v>
+        <v>6301</v>
       </c>
       <c r="P347" t="b">
         <f>IF(AND(H347="L4", N347="No"), C347)</f>
@@ -19201,9 +19270,9 @@
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="O348" t="str">
+      <c r="O348">
         <f t="shared" si="11"/>
-        <v>N/A</v>
+        <v>9265</v>
       </c>
       <c r="P348" t="b">
         <f>IF(AND(H348="L4", N348="No"), C348)</f>
@@ -19254,9 +19323,9 @@
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="O349" t="str">
+      <c r="O349">
         <f t="shared" si="11"/>
-        <v>N/A</v>
+        <v>6361</v>
       </c>
       <c r="P349" t="b">
         <f>IF(AND(H349="L4", N349="No"), C349)</f>
@@ -19307,9 +19376,9 @@
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="O350" t="str">
+      <c r="O350">
         <f t="shared" si="11"/>
-        <v>N/A</v>
+        <v>1370</v>
       </c>
       <c r="P350" t="b">
         <f>IF(AND(H350="L4", N350="No"), C350)</f>
@@ -19360,9 +19429,9 @@
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="O351" t="str">
+      <c r="O351">
         <f t="shared" si="11"/>
-        <v>N/A</v>
+        <v>8454</v>
       </c>
       <c r="P351" t="b">
         <f>IF(AND(H351="L4", N351="No"), C351)</f>
@@ -19413,9 +19482,9 @@
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="O352" t="str">
+      <c r="O352">
         <f t="shared" si="11"/>
-        <v>N/A</v>
+        <v>8437</v>
       </c>
       <c r="P352" t="b">
         <f>IF(AND(H352="L4", N352="No"), C352)</f>
@@ -20049,9 +20118,9 @@
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="O364" t="str">
+      <c r="O364">
         <f t="shared" si="11"/>
-        <v>N/A</v>
+        <v>1369</v>
       </c>
       <c r="P364" t="b">
         <f>IF(AND(H364="L4", N364="No"), C364)</f>
@@ -20102,9 +20171,9 @@
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="O365" t="str">
+      <c r="O365">
         <f t="shared" si="11"/>
-        <v>N/A</v>
+        <v>1886</v>
       </c>
       <c r="P365" t="b">
         <f>IF(AND(H365="L4", N365="No"), C365)</f>
@@ -20155,9 +20224,9 @@
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="O366" t="str">
+      <c r="O366">
         <f t="shared" si="11"/>
-        <v>N/A</v>
+        <v>1705</v>
       </c>
       <c r="P366" t="b">
         <f>IF(AND(H366="L4", N366="No"), C366)</f>
@@ -21109,9 +21178,9 @@
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="O384" t="str">
+      <c r="O384">
         <f t="shared" si="11"/>
-        <v>N/A</v>
+        <v>1376</v>
       </c>
       <c r="P384" t="b">
         <f>IF(AND(H384="L4", N384="No"), C384)</f>
@@ -21162,9 +21231,9 @@
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="O385" t="str">
+      <c r="O385">
         <f t="shared" si="11"/>
-        <v>N/A</v>
+        <v>3419</v>
       </c>
       <c r="P385" t="b">
         <f>IF(AND(H385="L4", N385="No"), C385)</f>
@@ -21215,9 +21284,9 @@
         <f t="shared" si="10"/>
         <v>Yes</v>
       </c>
-      <c r="O386" t="str">
+      <c r="O386">
         <f t="shared" si="11"/>
-        <v>N/A</v>
+        <v>3601</v>
       </c>
       <c r="P386" t="b">
         <f>IF(AND(H386="L4", N386="No"), C386)</f>
@@ -21269,7 +21338,7 @@
         <v>No</v>
       </c>
       <c r="O387" t="str">
-        <f t="shared" ref="O387:O423" si="13">IF(AND(N387="Yes", H387="L3"), C387, "N/A")</f>
+        <f t="shared" ref="O387:O424" si="13">IF(AND(N387="Yes", OR(H387="L3", H387="L4")), C387, "N/A")</f>
         <v>N/A</v>
       </c>
       <c r="P387">
@@ -21586,9 +21655,9 @@
         <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
-      <c r="O393" t="str">
+      <c r="O393">
         <f t="shared" si="13"/>
-        <v>N/A</v>
+        <v>7710</v>
       </c>
       <c r="P393" t="b">
         <f>IF(AND(H393="L4", N393="No"), C393)</f>
@@ -21639,9 +21708,9 @@
         <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
-      <c r="O394" t="str">
+      <c r="O394">
         <f t="shared" si="13"/>
-        <v>N/A</v>
+        <v>7722</v>
       </c>
       <c r="P394" t="b">
         <f>IF(AND(H394="L4", N394="No"), C394)</f>
@@ -21692,9 +21761,9 @@
         <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
-      <c r="O395" t="str">
+      <c r="O395">
         <f t="shared" si="13"/>
-        <v>N/A</v>
+        <v>7717</v>
       </c>
       <c r="P395" t="b">
         <f>IF(AND(H395="L4", N395="No"), C395)</f>
@@ -22169,9 +22238,9 @@
         <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
-      <c r="O404" t="str">
+      <c r="O404">
         <f t="shared" si="13"/>
-        <v>N/A</v>
+        <v>7583</v>
       </c>
       <c r="P404" t="b">
         <f>IF(AND(H404="L4", N404="No"), C404)</f>
@@ -22222,9 +22291,9 @@
         <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
-      <c r="O405" t="str">
+      <c r="O405">
         <f t="shared" si="13"/>
-        <v>N/A</v>
+        <v>8581</v>
       </c>
       <c r="P405" t="b">
         <f>IF(AND(H405="L4", N405="No"), C405)</f>
@@ -22275,9 +22344,9 @@
         <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
-      <c r="O406" t="str">
+      <c r="O406">
         <f t="shared" si="13"/>
-        <v>N/A</v>
+        <v>8583</v>
       </c>
       <c r="P406" t="b">
         <f>IF(AND(H406="L4", N406="No"), C406)</f>
@@ -22328,9 +22397,9 @@
         <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
-      <c r="O407" t="str">
+      <c r="O407">
         <f t="shared" si="13"/>
-        <v>N/A</v>
+        <v>1454</v>
       </c>
       <c r="P407" t="b">
         <f>IF(AND(H407="L4", N407="No"), C407)</f>
@@ -22381,9 +22450,9 @@
         <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
-      <c r="O408" t="str">
+      <c r="O408">
         <f t="shared" si="13"/>
-        <v>N/A</v>
+        <v>2628</v>
       </c>
       <c r="P408" t="b">
         <f>IF(AND(H408="L4", N408="No"), C408)</f>
@@ -22434,9 +22503,9 @@
         <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
-      <c r="O409" t="str">
+      <c r="O409">
         <f t="shared" si="13"/>
-        <v>N/A</v>
+        <v>2636</v>
       </c>
       <c r="P409" t="b">
         <f>IF(AND(H409="L4", N409="No"), C409)</f>
@@ -22805,9 +22874,9 @@
         <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
-      <c r="O416" t="str">
+      <c r="O416">
         <f t="shared" si="13"/>
-        <v>N/A</v>
+        <v>1409</v>
       </c>
       <c r="P416" t="b">
         <f>IF(AND(H416="L4", N416="No"), C416)</f>
@@ -22858,9 +22927,9 @@
         <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
-      <c r="O417" t="str">
+      <c r="O417">
         <f t="shared" si="13"/>
-        <v>N/A</v>
+        <v>1359</v>
       </c>
       <c r="P417" t="b">
         <f>IF(AND(H417="L4", N417="No"), C417)</f>
@@ -22911,9 +22980,9 @@
         <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
-      <c r="O418" t="str">
+      <c r="O418">
         <f t="shared" si="13"/>
-        <v>N/A</v>
+        <v>1311</v>
       </c>
       <c r="P418" t="b">
         <f>IF(AND(H418="L4", N418="No"), C418)</f>
@@ -22964,9 +23033,9 @@
         <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
-      <c r="O419" t="str">
+      <c r="O419">
         <f t="shared" si="13"/>
-        <v>N/A</v>
+        <v>10649</v>
       </c>
       <c r="P419" t="b">
         <f>IF(AND(H419="L4", N419="No"), C419)</f>
@@ -23017,9 +23086,9 @@
         <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
-      <c r="O420" t="str">
+      <c r="O420">
         <f t="shared" si="13"/>
-        <v>N/A</v>
+        <v>9684</v>
       </c>
       <c r="P420" t="b">
         <f>IF(AND(H420="L4", N420="No"), C420)</f>
@@ -23070,9 +23139,9 @@
         <f t="shared" si="12"/>
         <v>Yes</v>
       </c>
-      <c r="O421" t="str">
+      <c r="O421">
         <f t="shared" si="13"/>
-        <v>N/A</v>
+        <v>10655</v>
       </c>
       <c r="P421" t="b">
         <f>IF(AND(H421="L4", N421="No"), C421)</f>
@@ -23230,7 +23299,7 @@
         <v>No</v>
       </c>
       <c r="O424" t="str">
-        <f>IF(AND(N424="Yes", H424="L3"), C424, "N/A")</f>
+        <f t="shared" si="13"/>
         <v>N/A</v>
       </c>
       <c r="P424">

--- a/All Blackspots.xlsx
+++ b/All Blackspots.xlsx
@@ -832,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T531"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E401" workbookViewId="0">
+      <selection activeCell="M156" sqref="M156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -842,6 +842,8 @@
     <col min="8" max="8" width="17.83203125" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" customWidth="1"/>
     <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="27" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="16" width="17.83203125" customWidth="1"/>
     <col min="17" max="17" width="20.33203125" customWidth="1"/>
